--- a/Muscle_gene_summary_includeMF.xlsx
+++ b/Muscle_gene_summary_includeMF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HDD24TB/MetaAnalysisProject_Apr2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Documents/Bioinformatics/MetaAnalysisProject_Apr2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5A7F2A-D379-0B46-A0EC-542B8CF088B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E675B57-B3B4-5445-B4C7-306D5E5B6860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="1660" windowWidth="37500" windowHeight="13000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1660" windowWidth="27200" windowHeight="13000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acute" sheetId="11" r:id="rId1"/>
@@ -19,27 +19,18 @@
     <sheet name="Aging" sheetId="19" r:id="rId4"/>
     <sheet name="Annotation" sheetId="18" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="305">
   <si>
     <t>Age</t>
   </si>
@@ -997,9 +988,6 @@
   </si>
   <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/33705535/</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/33705535/</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1008,10 +996,6 @@
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6810669/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GSE130722</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1044,13 +1028,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1058,20 +1042,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1203,6 +1187,13 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Hiragino Maru Gothic Pro W4"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1319,7 +1310,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1330,7 +1321,7 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1348,7 +1339,7 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1406,7 +1397,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1415,7 +1406,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1434,7 +1425,7 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1453,7 +1444,7 @@
     <xf numFmtId="1" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1486,13 +1477,13 @@
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1516,10 +1507,10 @@
     <xf numFmtId="1" fontId="18" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1531,10 +1522,10 @@
     <xf numFmtId="1" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1549,10 +1540,10 @@
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1574,7 +1565,7 @@
     <xf numFmtId="1" fontId="13" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1590,7 +1581,7 @@
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1612,7 +1603,7 @@
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1631,9 +1622,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1655,7 +1643,7 @@
     <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1677,7 +1665,7 @@
     <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1707,11 +1695,15 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2012,7 +2004,7 @@
       <selection pane="bottomRight" activeCell="Q6" sqref="Q6:Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="11" bestFit="1" customWidth="1"/>
@@ -2044,7 +2036,7 @@
     <col min="29" max="16384" width="13" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="7" customFormat="1" ht="39">
+    <row r="1" spans="1:32" s="7" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>79</v>
       </c>
@@ -2142,7 +2134,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="31" customFormat="1" ht="13">
+    <row r="2" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>41</v>
       </c>
@@ -2227,7 +2219,7 @@
         <v>GSE43219_N.A_F_YNG_ACT_OWE_HLY_IMM</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="31" customFormat="1" ht="13">
+    <row r="3" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>41</v>
       </c>
@@ -2312,7 +2304,7 @@
         <v>GSE43219_N.A_M_YNG_ACT_OWE_HLY_IMM</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="31" customFormat="1" ht="13">
+    <row r="4" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>45</v>
       </c>
@@ -2397,7 +2389,7 @@
         <v>GSE68585_VAL_F_MDL_SED_OWE_CKD_IMM</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="31" customFormat="1" ht="13">
+    <row r="5" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A5" s="43" t="s">
         <v>45</v>
       </c>
@@ -2482,7 +2474,7 @@
         <v>GSE68585_VAL_M_MDL_SED_OWE_CKD_IMM</v>
       </c>
     </row>
-    <row r="6" spans="1:32" s="31" customFormat="1" ht="13">
+    <row r="6" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>46</v>
       </c>
@@ -2565,7 +2557,7 @@
         <v>GSE71972_VAL_F_YNG_ACT_LEA_HLY_IMM</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="31" customFormat="1" ht="13">
+    <row r="7" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>46</v>
       </c>
@@ -2648,7 +2640,7 @@
         <v>GSE71972_VAL_F_YNG_ACT_LEA_HLY_REC</v>
       </c>
     </row>
-    <row r="8" spans="1:32" s="31" customFormat="1" ht="13">
+    <row r="8" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>46</v>
       </c>
@@ -2731,7 +2723,7 @@
         <v>GSE71972_VAL_M_YNG_ACT_LEA_HLY_IMM</v>
       </c>
     </row>
-    <row r="9" spans="1:32" s="31" customFormat="1" ht="13">
+    <row r="9" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>46</v>
       </c>
@@ -2814,7 +2806,7 @@
         <v>GSE71972_VAL_M_YNG_ACT_LEA_HLY_REC</v>
       </c>
     </row>
-    <row r="10" spans="1:32" s="31" customFormat="1" ht="13">
+    <row r="10" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>60</v>
       </c>
@@ -2899,7 +2891,7 @@
         <v>GSE24235_BIB_M_YNG_SED_LEA_HLY_REC_MIX</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="36" customFormat="1" ht="13">
+    <row r="11" spans="1:32" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>60</v>
       </c>
@@ -2984,7 +2976,7 @@
         <v>GSE24235_BIB_F_YNG_SED_LEA_HLY_REC_MIX</v>
       </c>
     </row>
-    <row r="12" spans="1:32" s="31" customFormat="1" ht="13">
+    <row r="12" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>64</v>
       </c>
@@ -3067,7 +3059,7 @@
         <v>GSE28422_VAL_F_ELD_SED_OWE_HLY_REC_MIX</v>
       </c>
     </row>
-    <row r="13" spans="1:32" s="31" customFormat="1" ht="13">
+    <row r="13" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>64</v>
       </c>
@@ -3150,7 +3142,7 @@
         <v>GSE28422_VAL_F_ELD_ACT_OWE_HLY_REC_MIX</v>
       </c>
     </row>
-    <row r="14" spans="1:32" s="31" customFormat="1" ht="13">
+    <row r="14" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>64</v>
       </c>
@@ -3233,7 +3225,7 @@
         <v>GSE28422_VAL_F_YNG_SED_LEA_HLY_REC_MIX</v>
       </c>
     </row>
-    <row r="15" spans="1:32" s="31" customFormat="1" ht="13">
+    <row r="15" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>64</v>
       </c>
@@ -3316,7 +3308,7 @@
         <v>GSE28422_VAL_F_YNG_ACT_LEA_HLY_REC_MIX</v>
       </c>
     </row>
-    <row r="16" spans="1:32" s="31" customFormat="1" ht="13">
+    <row r="16" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>64</v>
       </c>
@@ -3399,7 +3391,7 @@
         <v>GSE28422_VAL_M_ELD_SED_OWE_HLY_REC_MIX</v>
       </c>
     </row>
-    <row r="17" spans="1:31" s="31" customFormat="1" ht="13">
+    <row r="17" spans="1:31" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>64</v>
       </c>
@@ -3482,7 +3474,7 @@
         <v>GSE28422_VAL_M_ELD_ACT_OWE_HLY_REC_MIX</v>
       </c>
     </row>
-    <row r="18" spans="1:31" s="31" customFormat="1" ht="13">
+    <row r="18" spans="1:31" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>64</v>
       </c>
@@ -3565,7 +3557,7 @@
         <v>GSE28422_VAL_M_YNG_SED_LEA_HLY_REC_MIX</v>
       </c>
     </row>
-    <row r="19" spans="1:31" s="31" customFormat="1" ht="13">
+    <row r="19" spans="1:31" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>64</v>
       </c>
@@ -3648,7 +3640,7 @@
         <v>GSE28422_VAL_M_YNG_ACT_LEA_HLY_REC_MIX</v>
       </c>
     </row>
-    <row r="20" spans="1:31" s="31" customFormat="1" ht="26">
+    <row r="20" spans="1:31" s="31" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A20" s="37" t="s">
         <v>253</v>
       </c>
@@ -3696,7 +3688,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="1:31" s="31" customFormat="1" ht="26">
+    <row r="21" spans="1:31" s="31" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A21" s="37" t="s">
         <v>253</v>
       </c>
@@ -3744,7 +3736,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.15">
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="N22" s="13"/>
@@ -3759,7 +3751,7 @@
       <c r="Z22" s="11"/>
       <c r="AA22" s="11"/>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.15">
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="N23" s="13"/>
@@ -3774,7 +3766,7 @@
       <c r="Z23" s="11"/>
       <c r="AA23" s="11"/>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.15">
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="N24" s="13"/>
@@ -3789,7 +3781,7 @@
       <c r="Z24" s="11"/>
       <c r="AA24" s="11"/>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.15">
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="N25" s="13"/>
@@ -3804,7 +3796,7 @@
       <c r="Z25" s="11"/>
       <c r="AA25" s="11"/>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.15">
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="N26" s="13"/>
@@ -3819,7 +3811,7 @@
       <c r="Z26" s="11"/>
       <c r="AA26" s="11"/>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.15">
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="N27" s="13"/>
@@ -3834,7 +3826,7 @@
       <c r="Z27" s="11"/>
       <c r="AA27" s="11"/>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.15">
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="N28" s="13"/>
@@ -3849,7 +3841,7 @@
       <c r="Z28" s="11"/>
       <c r="AA28" s="11"/>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.15">
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="N29" s="13"/>
@@ -3864,7 +3856,7 @@
       <c r="Z29" s="11"/>
       <c r="AA29" s="11"/>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.15">
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="N30" s="13"/>
@@ -3879,7 +3871,7 @@
       <c r="Z30" s="11"/>
       <c r="AA30" s="11"/>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.15">
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="N31" s="13"/>
@@ -3894,7 +3886,7 @@
       <c r="Z31" s="11"/>
       <c r="AA31" s="11"/>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.15">
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="N32" s="13"/>
@@ -3909,7 +3901,7 @@
       <c r="Z32" s="11"/>
       <c r="AA32" s="11"/>
     </row>
-    <row r="33" spans="11:27">
+    <row r="33" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="N33" s="13"/>
@@ -3924,7 +3916,7 @@
       <c r="Z33" s="11"/>
       <c r="AA33" s="11"/>
     </row>
-    <row r="34" spans="11:27">
+    <row r="34" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="N34" s="13"/>
@@ -3939,7 +3931,7 @@
       <c r="Z34" s="11"/>
       <c r="AA34" s="11"/>
     </row>
-    <row r="35" spans="11:27">
+    <row r="35" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="N35" s="13"/>
@@ -3954,7 +3946,7 @@
       <c r="Z35" s="11"/>
       <c r="AA35" s="11"/>
     </row>
-    <row r="36" spans="11:27">
+    <row r="36" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="N36" s="13"/>
@@ -3969,7 +3961,7 @@
       <c r="Z36" s="11"/>
       <c r="AA36" s="11"/>
     </row>
-    <row r="37" spans="11:27">
+    <row r="37" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="N37" s="13"/>
@@ -3984,7 +3976,7 @@
       <c r="Z37" s="11"/>
       <c r="AA37" s="11"/>
     </row>
-    <row r="38" spans="11:27">
+    <row r="38" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="N38" s="13"/>
@@ -3999,7 +3991,7 @@
       <c r="Z38" s="11"/>
       <c r="AA38" s="11"/>
     </row>
-    <row r="39" spans="11:27">
+    <row r="39" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="N39" s="13"/>
@@ -4014,7 +4006,7 @@
       <c r="Z39" s="11"/>
       <c r="AA39" s="11"/>
     </row>
-    <row r="40" spans="11:27">
+    <row r="40" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="N40" s="13"/>
@@ -4029,7 +4021,7 @@
       <c r="Z40" s="11"/>
       <c r="AA40" s="11"/>
     </row>
-    <row r="41" spans="11:27">
+    <row r="41" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="N41" s="13"/>
@@ -4044,7 +4036,7 @@
       <c r="Z41" s="11"/>
       <c r="AA41" s="11"/>
     </row>
-    <row r="42" spans="11:27">
+    <row r="42" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="N42" s="13"/>
@@ -4059,7 +4051,7 @@
       <c r="Z42" s="11"/>
       <c r="AA42" s="11"/>
     </row>
-    <row r="43" spans="11:27">
+    <row r="43" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="N43" s="13"/>
@@ -4074,7 +4066,7 @@
       <c r="Z43" s="11"/>
       <c r="AA43" s="11"/>
     </row>
-    <row r="44" spans="11:27">
+    <row r="44" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="N44" s="13"/>
@@ -4089,7 +4081,7 @@
       <c r="Z44" s="11"/>
       <c r="AA44" s="11"/>
     </row>
-    <row r="45" spans="11:27">
+    <row r="45" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="N45" s="13"/>
@@ -4104,7 +4096,7 @@
       <c r="Z45" s="11"/>
       <c r="AA45" s="11"/>
     </row>
-    <row r="46" spans="11:27">
+    <row r="46" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="N46" s="13"/>
@@ -4119,7 +4111,7 @@
       <c r="Z46" s="11"/>
       <c r="AA46" s="11"/>
     </row>
-    <row r="47" spans="11:27">
+    <row r="47" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="N47" s="13"/>
@@ -4134,7 +4126,7 @@
       <c r="Z47" s="11"/>
       <c r="AA47" s="11"/>
     </row>
-    <row r="48" spans="11:27">
+    <row r="48" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
       <c r="N48" s="13"/>
@@ -4149,7 +4141,7 @@
       <c r="Z48" s="11"/>
       <c r="AA48" s="11"/>
     </row>
-    <row r="49" spans="11:27">
+    <row r="49" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="N49" s="13"/>
@@ -4164,7 +4156,7 @@
       <c r="Z49" s="11"/>
       <c r="AA49" s="11"/>
     </row>
-    <row r="50" spans="11:27">
+    <row r="50" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="N50" s="13"/>
@@ -4179,7 +4171,7 @@
       <c r="Z50" s="11"/>
       <c r="AA50" s="11"/>
     </row>
-    <row r="51" spans="11:27">
+    <row r="51" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
       <c r="N51" s="13"/>
@@ -4194,7 +4186,7 @@
       <c r="Z51" s="11"/>
       <c r="AA51" s="11"/>
     </row>
-    <row r="52" spans="11:27">
+    <row r="52" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
       <c r="N52" s="13"/>
@@ -4209,7 +4201,7 @@
       <c r="Z52" s="11"/>
       <c r="AA52" s="11"/>
     </row>
-    <row r="53" spans="11:27">
+    <row r="53" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
       <c r="N53" s="13"/>
@@ -4224,7 +4216,7 @@
       <c r="Z53" s="11"/>
       <c r="AA53" s="11"/>
     </row>
-    <row r="54" spans="11:27">
+    <row r="54" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
       <c r="N54" s="13"/>
@@ -4239,7 +4231,7 @@
       <c r="Z54" s="11"/>
       <c r="AA54" s="11"/>
     </row>
-    <row r="55" spans="11:27">
+    <row r="55" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
       <c r="N55" s="13"/>
@@ -4254,7 +4246,7 @@
       <c r="Z55" s="11"/>
       <c r="AA55" s="11"/>
     </row>
-    <row r="56" spans="11:27">
+    <row r="56" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
       <c r="N56" s="13"/>
@@ -4269,7 +4261,7 @@
       <c r="Z56" s="11"/>
       <c r="AA56" s="11"/>
     </row>
-    <row r="57" spans="11:27">
+    <row r="57" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
       <c r="N57" s="13"/>
@@ -4284,7 +4276,7 @@
       <c r="Z57" s="11"/>
       <c r="AA57" s="11"/>
     </row>
-    <row r="58" spans="11:27">
+    <row r="58" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
       <c r="N58" s="13"/>
@@ -4299,7 +4291,7 @@
       <c r="Z58" s="11"/>
       <c r="AA58" s="11"/>
     </row>
-    <row r="59" spans="11:27">
+    <row r="59" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
       <c r="N59" s="13"/>
@@ -4314,7 +4306,7 @@
       <c r="Z59" s="11"/>
       <c r="AA59" s="11"/>
     </row>
-    <row r="60" spans="11:27">
+    <row r="60" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
       <c r="N60" s="13"/>
@@ -4329,7 +4321,7 @@
       <c r="Z60" s="11"/>
       <c r="AA60" s="11"/>
     </row>
-    <row r="61" spans="11:27">
+    <row r="61" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
       <c r="N61" s="13"/>
@@ -4344,7 +4336,7 @@
       <c r="Z61" s="11"/>
       <c r="AA61" s="11"/>
     </row>
-    <row r="62" spans="11:27">
+    <row r="62" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
       <c r="N62" s="13"/>
@@ -4359,7 +4351,7 @@
       <c r="Z62" s="11"/>
       <c r="AA62" s="11"/>
     </row>
-    <row r="63" spans="11:27">
+    <row r="63" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
       <c r="N63" s="13"/>
@@ -4374,7 +4366,7 @@
       <c r="Z63" s="11"/>
       <c r="AA63" s="11"/>
     </row>
-    <row r="64" spans="11:27">
+    <row r="64" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
       <c r="N64" s="13"/>
@@ -4389,7 +4381,7 @@
       <c r="Z64" s="11"/>
       <c r="AA64" s="11"/>
     </row>
-    <row r="65" spans="11:27">
+    <row r="65" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
       <c r="N65" s="13"/>
@@ -4404,7 +4396,7 @@
       <c r="Z65" s="11"/>
       <c r="AA65" s="11"/>
     </row>
-    <row r="66" spans="11:27">
+    <row r="66" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
       <c r="N66" s="13"/>
@@ -4419,7 +4411,7 @@
       <c r="Z66" s="11"/>
       <c r="AA66" s="11"/>
     </row>
-    <row r="67" spans="11:27">
+    <row r="67" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
       <c r="N67" s="13"/>
@@ -4434,7 +4426,7 @@
       <c r="Z67" s="11"/>
       <c r="AA67" s="11"/>
     </row>
-    <row r="68" spans="11:27">
+    <row r="68" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
       <c r="N68" s="13"/>
@@ -4449,7 +4441,7 @@
       <c r="Z68" s="11"/>
       <c r="AA68" s="11"/>
     </row>
-    <row r="69" spans="11:27">
+    <row r="69" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
       <c r="N69" s="13"/>
@@ -4464,7 +4456,7 @@
       <c r="Z69" s="11"/>
       <c r="AA69" s="11"/>
     </row>
-    <row r="70" spans="11:27">
+    <row r="70" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="N70" s="13"/>
@@ -4479,7 +4471,7 @@
       <c r="Z70" s="11"/>
       <c r="AA70" s="11"/>
     </row>
-    <row r="71" spans="11:27">
+    <row r="71" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
       <c r="N71" s="13"/>
@@ -4494,7 +4486,7 @@
       <c r="Z71" s="11"/>
       <c r="AA71" s="11"/>
     </row>
-    <row r="72" spans="11:27">
+    <row r="72" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="N72" s="13"/>
@@ -4509,7 +4501,7 @@
       <c r="Z72" s="11"/>
       <c r="AA72" s="11"/>
     </row>
-    <row r="73" spans="11:27">
+    <row r="73" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
       <c r="N73" s="13"/>
@@ -4524,7 +4516,7 @@
       <c r="Z73" s="11"/>
       <c r="AA73" s="11"/>
     </row>
-    <row r="74" spans="11:27">
+    <row r="74" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
       <c r="N74" s="13"/>
@@ -4539,7 +4531,7 @@
       <c r="Z74" s="11"/>
       <c r="AA74" s="11"/>
     </row>
-    <row r="75" spans="11:27">
+    <row r="75" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
       <c r="N75" s="13"/>
@@ -4554,7 +4546,7 @@
       <c r="Z75" s="11"/>
       <c r="AA75" s="11"/>
     </row>
-    <row r="76" spans="11:27">
+    <row r="76" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
       <c r="N76" s="13"/>
@@ -4569,7 +4561,7 @@
       <c r="Z76" s="11"/>
       <c r="AA76" s="11"/>
     </row>
-    <row r="77" spans="11:27">
+    <row r="77" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
       <c r="N77" s="13"/>
@@ -4584,7 +4576,7 @@
       <c r="Z77" s="11"/>
       <c r="AA77" s="11"/>
     </row>
-    <row r="78" spans="11:27">
+    <row r="78" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
       <c r="N78" s="13"/>
@@ -4599,7 +4591,7 @@
       <c r="Z78" s="11"/>
       <c r="AA78" s="11"/>
     </row>
-    <row r="79" spans="11:27">
+    <row r="79" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
       <c r="N79" s="13"/>
@@ -4614,7 +4606,7 @@
       <c r="Z79" s="11"/>
       <c r="AA79" s="11"/>
     </row>
-    <row r="80" spans="11:27">
+    <row r="80" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
       <c r="N80" s="13"/>
@@ -4629,7 +4621,7 @@
       <c r="Z80" s="11"/>
       <c r="AA80" s="11"/>
     </row>
-    <row r="81" spans="11:27">
+    <row r="81" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
       <c r="N81" s="13"/>
@@ -4644,7 +4636,7 @@
       <c r="Z81" s="11"/>
       <c r="AA81" s="11"/>
     </row>
-    <row r="82" spans="11:27">
+    <row r="82" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
       <c r="N82" s="13"/>
@@ -4659,7 +4651,7 @@
       <c r="Z82" s="11"/>
       <c r="AA82" s="11"/>
     </row>
-    <row r="83" spans="11:27">
+    <row r="83" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
       <c r="N83" s="13"/>
@@ -4674,7 +4666,7 @@
       <c r="Z83" s="11"/>
       <c r="AA83" s="11"/>
     </row>
-    <row r="84" spans="11:27">
+    <row r="84" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
       <c r="N84" s="13"/>
@@ -4689,7 +4681,7 @@
       <c r="Z84" s="11"/>
       <c r="AA84" s="11"/>
     </row>
-    <row r="85" spans="11:27">
+    <row r="85" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
       <c r="N85" s="13"/>
@@ -4704,7 +4696,7 @@
       <c r="Z85" s="11"/>
       <c r="AA85" s="11"/>
     </row>
-    <row r="86" spans="11:27">
+    <row r="86" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
       <c r="N86" s="13"/>
@@ -4719,7 +4711,7 @@
       <c r="Z86" s="11"/>
       <c r="AA86" s="11"/>
     </row>
-    <row r="87" spans="11:27">
+    <row r="87" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
       <c r="N87" s="13"/>
@@ -4734,7 +4726,7 @@
       <c r="Z87" s="11"/>
       <c r="AA87" s="11"/>
     </row>
-    <row r="88" spans="11:27">
+    <row r="88" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
       <c r="N88" s="13"/>
@@ -4749,7 +4741,7 @@
       <c r="Z88" s="11"/>
       <c r="AA88" s="11"/>
     </row>
-    <row r="89" spans="11:27">
+    <row r="89" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K89" s="8"/>
       <c r="L89" s="8"/>
       <c r="N89" s="13"/>
@@ -4764,7 +4756,7 @@
       <c r="Z89" s="11"/>
       <c r="AA89" s="11"/>
     </row>
-    <row r="90" spans="11:27">
+    <row r="90" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
       <c r="N90" s="13"/>
@@ -4779,7 +4771,7 @@
       <c r="Z90" s="11"/>
       <c r="AA90" s="11"/>
     </row>
-    <row r="91" spans="11:27">
+    <row r="91" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
       <c r="N91" s="13"/>
@@ -4794,7 +4786,7 @@
       <c r="Z91" s="11"/>
       <c r="AA91" s="11"/>
     </row>
-    <row r="92" spans="11:27">
+    <row r="92" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
       <c r="N92" s="13"/>
@@ -4809,7 +4801,7 @@
       <c r="Z92" s="11"/>
       <c r="AA92" s="11"/>
     </row>
-    <row r="93" spans="11:27">
+    <row r="93" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K93" s="8"/>
       <c r="L93" s="8"/>
       <c r="N93" s="13"/>
@@ -4824,7 +4816,7 @@
       <c r="Z93" s="11"/>
       <c r="AA93" s="11"/>
     </row>
-    <row r="94" spans="11:27">
+    <row r="94" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K94" s="8"/>
       <c r="L94" s="8"/>
       <c r="N94" s="13"/>
@@ -4839,7 +4831,7 @@
       <c r="Z94" s="11"/>
       <c r="AA94" s="11"/>
     </row>
-    <row r="95" spans="11:27">
+    <row r="95" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K95" s="8"/>
       <c r="L95" s="8"/>
       <c r="N95" s="13"/>
@@ -4854,7 +4846,7 @@
       <c r="Z95" s="11"/>
       <c r="AA95" s="11"/>
     </row>
-    <row r="96" spans="11:27">
+    <row r="96" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K96" s="8"/>
       <c r="L96" s="8"/>
       <c r="N96" s="13"/>
@@ -4869,7 +4861,7 @@
       <c r="Z96" s="11"/>
       <c r="AA96" s="11"/>
     </row>
-    <row r="97" spans="11:27">
+    <row r="97" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K97" s="8"/>
       <c r="L97" s="8"/>
       <c r="N97" s="13"/>
@@ -4884,7 +4876,7 @@
       <c r="Z97" s="11"/>
       <c r="AA97" s="11"/>
     </row>
-    <row r="98" spans="11:27">
+    <row r="98" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K98" s="8"/>
       <c r="L98" s="8"/>
       <c r="N98" s="13"/>
@@ -4899,7 +4891,7 @@
       <c r="Z98" s="11"/>
       <c r="AA98" s="11"/>
     </row>
-    <row r="99" spans="11:27">
+    <row r="99" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K99" s="8"/>
       <c r="L99" s="8"/>
       <c r="N99" s="13"/>
@@ -4914,7 +4906,7 @@
       <c r="Z99" s="11"/>
       <c r="AA99" s="11"/>
     </row>
-    <row r="100" spans="11:27">
+    <row r="100" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K100" s="8"/>
       <c r="L100" s="8"/>
       <c r="N100" s="13"/>
@@ -4929,7 +4921,7 @@
       <c r="Z100" s="11"/>
       <c r="AA100" s="11"/>
     </row>
-    <row r="101" spans="11:27">
+    <row r="101" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K101" s="8"/>
       <c r="L101" s="8"/>
       <c r="N101" s="13"/>
@@ -4944,7 +4936,7 @@
       <c r="Z101" s="11"/>
       <c r="AA101" s="11"/>
     </row>
-    <row r="102" spans="11:27">
+    <row r="102" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K102" s="8"/>
       <c r="L102" s="8"/>
       <c r="N102" s="13"/>
@@ -4959,7 +4951,7 @@
       <c r="Z102" s="11"/>
       <c r="AA102" s="11"/>
     </row>
-    <row r="103" spans="11:27">
+    <row r="103" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K103" s="8"/>
       <c r="L103" s="8"/>
       <c r="N103" s="13"/>
@@ -4974,7 +4966,7 @@
       <c r="Z103" s="11"/>
       <c r="AA103" s="11"/>
     </row>
-    <row r="104" spans="11:27">
+    <row r="104" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K104" s="8"/>
       <c r="L104" s="8"/>
       <c r="N104" s="13"/>
@@ -4989,7 +4981,7 @@
       <c r="Z104" s="11"/>
       <c r="AA104" s="11"/>
     </row>
-    <row r="105" spans="11:27">
+    <row r="105" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K105" s="8"/>
       <c r="L105" s="8"/>
       <c r="N105" s="13"/>
@@ -5004,7 +4996,7 @@
       <c r="Z105" s="11"/>
       <c r="AA105" s="11"/>
     </row>
-    <row r="106" spans="11:27">
+    <row r="106" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K106" s="8"/>
       <c r="L106" s="8"/>
       <c r="N106" s="13"/>
@@ -5019,7 +5011,7 @@
       <c r="Z106" s="11"/>
       <c r="AA106" s="11"/>
     </row>
-    <row r="107" spans="11:27">
+    <row r="107" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K107" s="8"/>
       <c r="L107" s="8"/>
       <c r="N107" s="13"/>
@@ -5034,7 +5026,7 @@
       <c r="Z107" s="11"/>
       <c r="AA107" s="11"/>
     </row>
-    <row r="108" spans="11:27">
+    <row r="108" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K108" s="8"/>
       <c r="L108" s="8"/>
       <c r="N108" s="13"/>
@@ -5049,7 +5041,7 @@
       <c r="Z108" s="11"/>
       <c r="AA108" s="11"/>
     </row>
-    <row r="109" spans="11:27">
+    <row r="109" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K109" s="8"/>
       <c r="L109" s="8"/>
       <c r="N109" s="13"/>
@@ -5064,7 +5056,7 @@
       <c r="Z109" s="11"/>
       <c r="AA109" s="11"/>
     </row>
-    <row r="110" spans="11:27">
+    <row r="110" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K110" s="8"/>
       <c r="L110" s="8"/>
       <c r="N110" s="13"/>
@@ -5079,7 +5071,7 @@
       <c r="Z110" s="11"/>
       <c r="AA110" s="11"/>
     </row>
-    <row r="111" spans="11:27">
+    <row r="111" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
       <c r="N111" s="13"/>
@@ -5094,7 +5086,7 @@
       <c r="Z111" s="11"/>
       <c r="AA111" s="11"/>
     </row>
-    <row r="112" spans="11:27">
+    <row r="112" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K112" s="8"/>
       <c r="L112" s="8"/>
       <c r="N112" s="13"/>
@@ -5109,7 +5101,7 @@
       <c r="Z112" s="11"/>
       <c r="AA112" s="11"/>
     </row>
-    <row r="113" spans="11:27">
+    <row r="113" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K113" s="8"/>
       <c r="L113" s="8"/>
       <c r="N113" s="13"/>
@@ -5124,7 +5116,7 @@
       <c r="Z113" s="11"/>
       <c r="AA113" s="11"/>
     </row>
-    <row r="114" spans="11:27">
+    <row r="114" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K114" s="8"/>
       <c r="L114" s="8"/>
       <c r="N114" s="13"/>
@@ -5139,7 +5131,7 @@
       <c r="Z114" s="11"/>
       <c r="AA114" s="11"/>
     </row>
-    <row r="115" spans="11:27">
+    <row r="115" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K115" s="8"/>
       <c r="L115" s="8"/>
       <c r="N115" s="13"/>
@@ -5154,7 +5146,7 @@
       <c r="Z115" s="11"/>
       <c r="AA115" s="11"/>
     </row>
-    <row r="116" spans="11:27">
+    <row r="116" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K116" s="8"/>
       <c r="L116" s="8"/>
       <c r="N116" s="13"/>
@@ -5169,7 +5161,7 @@
       <c r="Z116" s="11"/>
       <c r="AA116" s="11"/>
     </row>
-    <row r="117" spans="11:27">
+    <row r="117" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K117" s="8"/>
       <c r="L117" s="8"/>
       <c r="N117" s="13"/>
@@ -5184,7 +5176,7 @@
       <c r="Z117" s="11"/>
       <c r="AA117" s="11"/>
     </row>
-    <row r="118" spans="11:27">
+    <row r="118" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
       <c r="N118" s="13"/>
@@ -5199,7 +5191,7 @@
       <c r="Z118" s="11"/>
       <c r="AA118" s="11"/>
     </row>
-    <row r="119" spans="11:27">
+    <row r="119" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K119" s="8"/>
       <c r="L119" s="8"/>
       <c r="N119" s="13"/>
@@ -5214,7 +5206,7 @@
       <c r="Z119" s="11"/>
       <c r="AA119" s="11"/>
     </row>
-    <row r="120" spans="11:27">
+    <row r="120" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K120" s="8"/>
       <c r="L120" s="8"/>
       <c r="N120" s="13"/>
@@ -5229,7 +5221,7 @@
       <c r="Z120" s="11"/>
       <c r="AA120" s="11"/>
     </row>
-    <row r="121" spans="11:27">
+    <row r="121" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K121" s="8"/>
       <c r="L121" s="8"/>
       <c r="N121" s="13"/>
@@ -5244,7 +5236,7 @@
       <c r="Z121" s="11"/>
       <c r="AA121" s="11"/>
     </row>
-    <row r="122" spans="11:27">
+    <row r="122" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K122" s="8"/>
       <c r="L122" s="8"/>
       <c r="N122" s="13"/>
@@ -5259,7 +5251,7 @@
       <c r="Z122" s="11"/>
       <c r="AA122" s="11"/>
     </row>
-    <row r="123" spans="11:27">
+    <row r="123" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K123" s="8"/>
       <c r="L123" s="8"/>
       <c r="N123" s="13"/>
@@ -5274,7 +5266,7 @@
       <c r="Z123" s="11"/>
       <c r="AA123" s="11"/>
     </row>
-    <row r="124" spans="11:27">
+    <row r="124" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K124" s="8"/>
       <c r="L124" s="8"/>
       <c r="N124" s="13"/>
@@ -5289,7 +5281,7 @@
       <c r="Z124" s="11"/>
       <c r="AA124" s="11"/>
     </row>
-    <row r="125" spans="11:27">
+    <row r="125" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K125" s="8"/>
       <c r="L125" s="8"/>
       <c r="N125" s="13"/>
@@ -5304,7 +5296,7 @@
       <c r="Z125" s="11"/>
       <c r="AA125" s="11"/>
     </row>
-    <row r="126" spans="11:27">
+    <row r="126" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K126" s="8"/>
       <c r="L126" s="8"/>
       <c r="N126" s="13"/>
@@ -5319,7 +5311,7 @@
       <c r="Z126" s="11"/>
       <c r="AA126" s="11"/>
     </row>
-    <row r="127" spans="11:27">
+    <row r="127" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
       <c r="N127" s="13"/>
@@ -5334,7 +5326,7 @@
       <c r="Z127" s="11"/>
       <c r="AA127" s="11"/>
     </row>
-    <row r="128" spans="11:27">
+    <row r="128" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K128" s="8"/>
       <c r="L128" s="8"/>
       <c r="N128" s="13"/>
@@ -5349,7 +5341,7 @@
       <c r="Z128" s="11"/>
       <c r="AA128" s="11"/>
     </row>
-    <row r="129" spans="11:27">
+    <row r="129" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K129" s="8"/>
       <c r="L129" s="8"/>
       <c r="N129" s="13"/>
@@ -5364,7 +5356,7 @@
       <c r="Z129" s="11"/>
       <c r="AA129" s="11"/>
     </row>
-    <row r="130" spans="11:27">
+    <row r="130" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K130" s="8"/>
       <c r="L130" s="8"/>
       <c r="N130" s="13"/>
@@ -5379,7 +5371,7 @@
       <c r="Z130" s="11"/>
       <c r="AA130" s="11"/>
     </row>
-    <row r="131" spans="11:27">
+    <row r="131" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K131" s="8"/>
       <c r="L131" s="8"/>
       <c r="N131" s="13"/>
@@ -5394,7 +5386,7 @@
       <c r="Z131" s="11"/>
       <c r="AA131" s="11"/>
     </row>
-    <row r="132" spans="11:27">
+    <row r="132" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K132" s="8"/>
       <c r="L132" s="8"/>
       <c r="N132" s="13"/>
@@ -5409,7 +5401,7 @@
       <c r="Z132" s="11"/>
       <c r="AA132" s="11"/>
     </row>
-    <row r="133" spans="11:27">
+    <row r="133" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K133" s="8"/>
       <c r="L133" s="8"/>
       <c r="N133" s="13"/>
@@ -5424,7 +5416,7 @@
       <c r="Z133" s="11"/>
       <c r="AA133" s="11"/>
     </row>
-    <row r="134" spans="11:27">
+    <row r="134" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
       <c r="N134" s="13"/>
@@ -5439,7 +5431,7 @@
       <c r="Z134" s="11"/>
       <c r="AA134" s="11"/>
     </row>
-    <row r="135" spans="11:27">
+    <row r="135" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K135" s="8"/>
       <c r="L135" s="8"/>
       <c r="N135" s="13"/>
@@ -5454,7 +5446,7 @@
       <c r="Z135" s="11"/>
       <c r="AA135" s="11"/>
     </row>
-    <row r="136" spans="11:27">
+    <row r="136" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K136" s="8"/>
       <c r="L136" s="8"/>
       <c r="N136" s="13"/>
@@ -5487,7 +5479,7 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="54" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" style="55" customWidth="1"/>
@@ -5520,7 +5512,7 @@
     <col min="34" max="16384" width="13" style="48" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="89" customFormat="1">
+    <row r="1" spans="1:33" s="89" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="86" t="s">
         <v>79</v>
       </c>
@@ -5621,7 +5613,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="90" t="s">
         <v>53</v>
       </c>
@@ -5708,7 +5700,7 @@
       <c r="AF2" s="61"/>
       <c r="AG2" s="61"/>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="90" t="s">
         <v>53</v>
       </c>
@@ -5795,7 +5787,7 @@
       <c r="AF3" s="61"/>
       <c r="AG3" s="61"/>
     </row>
-    <row r="4" spans="1:33" s="51" customFormat="1">
+    <row r="4" spans="1:33" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="71" t="s">
         <v>60</v>
       </c>
@@ -5875,7 +5867,7 @@
         <v>GSE24235_BIB_F_YNG_SED_LEA_HLY</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="51" customFormat="1">
+    <row r="5" spans="1:33" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="71" t="s">
         <v>60</v>
       </c>
@@ -5955,7 +5947,7 @@
         <v>GSE24235_BIB_M_YNG_SED_LEA_HLY</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="90" t="s">
         <v>64</v>
       </c>
@@ -6038,7 +6030,7 @@
       <c r="AF6" s="76"/>
       <c r="AG6" s="76"/>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="90" t="s">
         <v>64</v>
       </c>
@@ -6121,7 +6113,7 @@
       <c r="AF7" s="76"/>
       <c r="AG7" s="76"/>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="90" t="s">
         <v>64</v>
       </c>
@@ -6204,7 +6196,7 @@
       <c r="AF8" s="76"/>
       <c r="AG8" s="76"/>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="90" t="s">
         <v>64</v>
       </c>
@@ -6287,7 +6279,7 @@
       <c r="AF9" s="76"/>
       <c r="AG9" s="76"/>
     </row>
-    <row r="10" spans="1:33" s="51" customFormat="1">
+    <row r="10" spans="1:33" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="71" t="s">
         <v>65</v>
       </c>
@@ -6367,7 +6359,7 @@
         <v>GSE28998_BIB_F_YNG_SED_OWE_HLY</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="51" customFormat="1">
+    <row r="11" spans="1:33" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="71" t="s">
         <v>65</v>
       </c>
@@ -6448,7 +6440,7 @@
       </c>
       <c r="AF11" s="53"/>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="90" t="s">
         <v>56</v>
       </c>
@@ -6536,7 +6528,7 @@
       <c r="AF12" s="61"/>
       <c r="AG12" s="61"/>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="90" t="s">
         <v>56</v>
       </c>
@@ -6624,7 +6616,7 @@
       <c r="AF13" s="61"/>
       <c r="AG13" s="61"/>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
         <v>56</v>
       </c>
@@ -6712,7 +6704,7 @@
       <c r="AF14" s="76"/>
       <c r="AG14" s="76"/>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="90" t="s">
         <v>56</v>
       </c>
@@ -6800,7 +6792,7 @@
       <c r="AF15" s="76"/>
       <c r="AG15" s="76"/>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="90" t="s">
         <v>57</v>
       </c>
@@ -6885,7 +6877,7 @@
       <c r="AF16" s="76"/>
       <c r="AG16" s="76"/>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="90" t="s">
         <v>57</v>
       </c>
@@ -6970,7 +6962,7 @@
       <c r="AF17" s="76"/>
       <c r="AG17" s="76"/>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="90" t="s">
         <v>57</v>
       </c>
@@ -7055,7 +7047,7 @@
       <c r="AF18" s="61"/>
       <c r="AG18" s="61"/>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="90" t="s">
         <v>57</v>
       </c>
@@ -7140,7 +7132,7 @@
       <c r="AF19" s="61"/>
       <c r="AG19" s="61"/>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="90" t="s">
         <v>58</v>
       </c>
@@ -7225,7 +7217,7 @@
       <c r="AF20" s="76"/>
       <c r="AG20" s="76"/>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="90" t="s">
         <v>58</v>
       </c>
@@ -7310,7 +7302,7 @@
       <c r="AF21" s="76"/>
       <c r="AG21" s="76"/>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="90" t="s">
         <v>165</v>
       </c>
@@ -7395,7 +7387,7 @@
       <c r="AF22" s="76"/>
       <c r="AG22" s="76"/>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="90" t="s">
         <v>165</v>
       </c>
@@ -7478,7 +7470,7 @@
       <c r="AF23" s="76"/>
       <c r="AG23" s="76"/>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="90" t="s">
         <v>165</v>
       </c>
@@ -7561,7 +7553,7 @@
       <c r="AF24" s="76"/>
       <c r="AG24" s="76"/>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="90" t="s">
         <v>165</v>
       </c>
@@ -7644,7 +7636,7 @@
       <c r="AF25" s="76"/>
       <c r="AG25" s="76"/>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="90" t="s">
         <v>231</v>
       </c>
@@ -7707,7 +7699,7 @@
       </c>
       <c r="AG26" s="61"/>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="90" t="s">
         <v>231</v>
       </c>
@@ -7811,20 +7803,20 @@
   </sheetPr>
   <dimension ref="A1:AM13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="98" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" style="111"/>
     <col min="3" max="3" width="11.33203125" style="111" customWidth="1"/>
     <col min="4" max="4" width="28" style="111" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="139" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="138" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33" style="99" customWidth="1"/>
-    <col min="7" max="8" width="17" style="136" customWidth="1"/>
+    <col min="7" max="8" width="17" style="135" customWidth="1"/>
     <col min="9" max="9" width="69" style="99" customWidth="1"/>
     <col min="10" max="10" width="62.5" style="99" customWidth="1"/>
     <col min="11" max="11" width="15.83203125" style="99" bestFit="1" customWidth="1"/>
@@ -7848,153 +7840,153 @@
     <col min="40" max="16384" width="9.83203125" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="122" customFormat="1" ht="19">
-      <c r="A1" s="119" t="s">
+    <row r="1" spans="1:39" s="121" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="118" t="s">
         <v>266</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="117" t="s">
         <v>270</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="117" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="137" t="s">
+      <c r="E1" s="136" t="s">
         <v>282</v>
       </c>
-      <c r="F1" s="119" t="s">
+      <c r="F1" s="118" t="s">
         <v>267</v>
       </c>
-      <c r="G1" s="132" t="s">
+      <c r="G1" s="131" t="s">
         <v>285</v>
       </c>
-      <c r="H1" s="132" t="s">
+      <c r="H1" s="131" t="s">
         <v>286</v>
       </c>
-      <c r="I1" s="119" t="s">
+      <c r="I1" s="118" t="s">
         <v>287</v>
       </c>
-      <c r="J1" s="119" t="s">
+      <c r="J1" s="118" t="s">
         <v>288</v>
       </c>
-      <c r="K1" s="119" t="s">
+      <c r="K1" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="119" t="s">
+      <c r="L1" s="118" t="s">
         <v>145</v>
       </c>
-      <c r="M1" s="119" t="s">
+      <c r="M1" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="128" t="s">
+      <c r="N1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="129" t="s">
+      <c r="O1" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="129" t="s">
+      <c r="P1" s="128" t="s">
         <v>122</v>
       </c>
-      <c r="Q1" s="119" t="s">
+      <c r="Q1" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="129" t="s">
+      <c r="R1" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="129" t="s">
+      <c r="S1" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="T1" s="119" t="s">
+      <c r="T1" s="118" t="s">
         <v>139</v>
       </c>
-      <c r="U1" s="119" t="s">
+      <c r="U1" s="118" t="s">
         <v>189</v>
       </c>
-      <c r="V1" s="119" t="s">
+      <c r="V1" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="119" t="s">
+      <c r="W1" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="X1" s="119" t="s">
+      <c r="X1" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="Y1" s="119" t="s">
+      <c r="Y1" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="119" t="s">
+      <c r="Z1" s="118" t="s">
         <v>78</v>
       </c>
-      <c r="AA1" s="119" t="s">
+      <c r="AA1" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" s="128" t="s">
+      <c r="AB1" s="127" t="s">
         <v>121</v>
       </c>
-      <c r="AC1" s="128" t="s">
+      <c r="AC1" s="127" t="s">
         <v>125</v>
       </c>
-      <c r="AD1" s="128" t="s">
+      <c r="AD1" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="AE1" s="129" t="s">
+      <c r="AE1" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="129" t="s">
+      <c r="AF1" s="128" t="s">
         <v>169</v>
       </c>
-      <c r="AG1" s="119" t="s">
+      <c r="AG1" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="AH1" s="119" t="s">
+      <c r="AH1" s="118" t="s">
         <v>183</v>
       </c>
-      <c r="AI1" s="122" t="s">
+      <c r="AI1" s="121" t="s">
         <v>181</v>
       </c>
-      <c r="AJ1" s="122" t="s">
+      <c r="AJ1" s="121" t="s">
         <v>214</v>
       </c>
-      <c r="AK1" s="122" t="s">
+      <c r="AK1" s="121" t="s">
         <v>215</v>
       </c>
-      <c r="AL1" s="122" t="s">
+      <c r="AL1" s="121" t="s">
         <v>218</v>
       </c>
-      <c r="AM1" s="122" t="s">
+      <c r="AM1" s="121" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="95" customFormat="1">
+    <row r="2" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="104" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" s="114" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="126" t="s">
         <v>269</v>
       </c>
-      <c r="D2" s="114"/>
-      <c r="E2" s="131" t="s">
-        <v>306</v>
+      <c r="D2" s="113"/>
+      <c r="E2" s="130" t="s">
+        <v>304</v>
       </c>
       <c r="F2" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="131" t="s">
-        <v>306</v>
-      </c>
-      <c r="H2" s="131" t="s">
-        <v>306</v>
+      <c r="G2" s="130" t="s">
+        <v>304</v>
+      </c>
+      <c r="H2" s="130" t="s">
+        <v>304</v>
       </c>
       <c r="I2" s="105" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J2" s="105" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K2" s="106" t="s">
         <v>5</v>
@@ -8065,34 +8057,34 @@
         <v>GSE14901_VAL_M_YNG_SED_LEA_HLY_MED</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="95" customFormat="1">
+    <row r="3" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="126" t="s">
         <v>269</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="131" t="s">
-        <v>306</v>
+      <c r="D3" s="113"/>
+      <c r="E3" s="130" t="s">
+        <v>304</v>
       </c>
       <c r="F3" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="131" t="s">
-        <v>306</v>
-      </c>
-      <c r="H3" s="131" t="s">
-        <v>306</v>
+      <c r="G3" s="130" t="s">
+        <v>304</v>
+      </c>
+      <c r="H3" s="130" t="s">
+        <v>304</v>
       </c>
       <c r="I3" s="105" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J3" s="105" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K3" s="106" t="s">
         <v>5</v>
@@ -8163,34 +8155,34 @@
         <v>GSE14901_VAL_F_YNG_SED_LEA_HLY_MED</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="95" customFormat="1">
+    <row r="4" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="126" t="s">
         <v>269</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="131" t="s">
-        <v>306</v>
+      <c r="D4" s="113"/>
+      <c r="E4" s="130" t="s">
+        <v>304</v>
       </c>
       <c r="F4" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="G4" s="131" t="s">
-        <v>306</v>
-      </c>
-      <c r="H4" s="131" t="s">
-        <v>306</v>
+      <c r="G4" s="130" t="s">
+        <v>304</v>
+      </c>
+      <c r="H4" s="130" t="s">
+        <v>304</v>
       </c>
       <c r="I4" s="105" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J4" s="105" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K4" s="106" t="s">
         <v>5</v>
@@ -8261,34 +8253,34 @@
         <v>GSE14901_VAL_M_YNG_SED_LEA_HLY_SHO</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="95" customFormat="1">
+    <row r="5" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="126" t="s">
         <v>269</v>
       </c>
-      <c r="D5" s="114"/>
-      <c r="E5" s="131" t="s">
-        <v>306</v>
+      <c r="D5" s="113"/>
+      <c r="E5" s="130" t="s">
+        <v>304</v>
       </c>
       <c r="F5" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="131" t="s">
-        <v>306</v>
-      </c>
-      <c r="H5" s="131" t="s">
-        <v>306</v>
+      <c r="G5" s="130" t="s">
+        <v>304</v>
+      </c>
+      <c r="H5" s="130" t="s">
+        <v>304</v>
       </c>
       <c r="I5" s="105" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J5" s="105" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K5" s="106" t="s">
         <v>5</v>
@@ -8359,25 +8351,25 @@
         <v>GSE14901_VAL_F_YNG_SED_LEA_HLY_SHO</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="95" customFormat="1">
+    <row r="6" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="112" t="s">
         <v>292</v>
       </c>
       <c r="B6" s="92" t="s">
         <v>272</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="114" t="s">
         <v>273</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="138" t="s">
+      <c r="D6" s="113"/>
+      <c r="E6" s="137" t="s">
         <v>283</v>
       </c>
       <c r="F6" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
       <c r="I6" s="105" t="s">
         <v>293</v>
       </c>
@@ -8454,25 +8446,25 @@
         <v>GSE113165_VAL_M_YNG_ACT_LEA_HLY_MED</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="95" customFormat="1">
+    <row r="7" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="112" t="s">
         <v>196</v>
       </c>
       <c r="B7" s="92" t="s">
         <v>272</v>
       </c>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="114" t="s">
         <v>273</v>
       </c>
-      <c r="D7" s="114"/>
-      <c r="E7" s="138" t="s">
+      <c r="D7" s="113"/>
+      <c r="E7" s="137" t="s">
         <v>283</v>
       </c>
       <c r="F7" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
       <c r="I7" s="105" t="s">
         <v>293</v>
       </c>
@@ -8549,25 +8541,25 @@
         <v>GSE113165_VAL_M_ELD_ACT_OWE_HLY_MED</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="95" customFormat="1">
+    <row r="8" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="112" t="s">
         <v>196</v>
       </c>
       <c r="B8" s="92" t="s">
         <v>272</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="114" t="s">
         <v>273</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="138" t="s">
+      <c r="D8" s="113"/>
+      <c r="E8" s="137" t="s">
         <v>283</v>
       </c>
       <c r="F8" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
       <c r="I8" s="105" t="s">
         <v>293</v>
       </c>
@@ -8644,25 +8636,25 @@
         <v>GSE113165_VAL_F_YNG_ACT_LEA_HLY_MED</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="95" customFormat="1">
+    <row r="9" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="112" t="s">
         <v>196</v>
       </c>
       <c r="B9" s="92" t="s">
         <v>272</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="114" t="s">
         <v>273</v>
       </c>
-      <c r="D9" s="114"/>
-      <c r="E9" s="138" t="s">
+      <c r="D9" s="113"/>
+      <c r="E9" s="137" t="s">
         <v>283</v>
       </c>
       <c r="F9" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
       <c r="I9" s="105" t="s">
         <v>293</v>
       </c>
@@ -8739,31 +8731,31 @@
         <v>GSE113165_VAL_F_ELD_ACT_OWE_HLY_MED</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="95" customFormat="1">
-      <c r="A10" s="140" t="s">
+    <row r="10" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="139" t="s">
         <v>206</v>
       </c>
       <c r="B10" s="92" t="s">
         <v>272</v>
       </c>
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="114" t="s">
         <v>273</v>
       </c>
       <c r="D10" s="105" t="s">
         <v>281</v>
       </c>
-      <c r="E10" s="138" t="s">
+      <c r="E10" s="137" t="s">
         <v>283</v>
       </c>
       <c r="F10" s="95" t="s">
         <v>223</v>
       </c>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
       <c r="I10" s="95" t="s">
         <v>291</v>
       </c>
-      <c r="J10" s="130" t="s">
+      <c r="J10" s="129" t="s">
         <v>296</v>
       </c>
       <c r="K10" s="95" t="s">
@@ -8819,32 +8811,32 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:39" s="95" customFormat="1">
-      <c r="A11" s="140" t="s">
+    <row r="11" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="139" t="s">
         <v>206</v>
       </c>
       <c r="B11" s="92" t="s">
         <v>272</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="114" t="s">
         <v>273</v>
       </c>
       <c r="D11" s="105" t="s">
         <v>281</v>
       </c>
-      <c r="E11" s="138" t="s">
+      <c r="E11" s="137" t="s">
         <v>283</v>
       </c>
       <c r="F11" s="95" t="s">
         <v>223</v>
       </c>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
       <c r="I11" s="95" t="s">
         <v>291</v>
       </c>
-      <c r="J11" s="130" t="s">
-        <v>297</v>
+      <c r="J11" s="129" t="s">
+        <v>296</v>
       </c>
       <c r="K11" s="95" t="s">
         <v>10</v>
@@ -8899,32 +8891,32 @@
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="95" customFormat="1">
-      <c r="A12" s="117" t="s">
-        <v>300</v>
+    <row r="12" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="116" t="s">
+        <v>240</v>
       </c>
       <c r="B12" s="92" t="s">
         <v>272</v>
       </c>
-      <c r="C12" s="115" t="s">
+      <c r="C12" s="114" t="s">
         <v>273</v>
       </c>
-      <c r="D12" s="116" t="s">
+      <c r="D12" s="115" t="s">
         <v>275</v>
       </c>
-      <c r="E12" s="138" t="s">
+      <c r="E12" s="137" t="s">
         <v>283</v>
       </c>
       <c r="F12" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="G12" s="135"/>
-      <c r="H12" s="135"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
       <c r="I12" s="108" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J12" s="108" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K12" s="106" t="s">
         <v>5</v>
@@ -8969,32 +8961,32 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="95" customFormat="1">
-      <c r="A13" s="117" t="s">
+    <row r="13" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="116" t="s">
         <v>240</v>
       </c>
       <c r="B13" s="92" t="s">
         <v>272</v>
       </c>
-      <c r="C13" s="115" t="s">
+      <c r="C13" s="114" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="116" t="s">
+      <c r="D13" s="115" t="s">
         <v>275</v>
       </c>
-      <c r="E13" s="138" t="s">
+      <c r="E13" s="137" t="s">
         <v>283</v>
       </c>
       <c r="F13" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
       <c r="I13" s="108" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J13" s="108" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K13" s="106" t="s">
         <v>5</v>
@@ -9053,14 +9045,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E983AE-3E94-4A77-A645-69889912A19D}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="103" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" style="125"/>
+    <col min="2" max="2" width="9.83203125" style="124"/>
     <col min="3" max="3" width="11.33203125" style="98" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" style="98" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="98" bestFit="1" customWidth="1"/>
@@ -9077,88 +9069,88 @@
     <col min="21" max="16384" width="9" style="103"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="122" customFormat="1" ht="38">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:25" s="121" customFormat="1" ht="38" x14ac:dyDescent="0.2">
+      <c r="A1" s="117" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="118" t="s">
         <v>268</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="117" t="s">
         <v>270</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="117" t="s">
         <v>280</v>
       </c>
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="117" t="s">
         <v>284</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="119" t="s">
+      <c r="G1" s="118" t="s">
         <v>285</v>
       </c>
-      <c r="H1" s="119" t="s">
+      <c r="H1" s="118" t="s">
         <v>286</v>
       </c>
-      <c r="I1" s="119" t="s">
+      <c r="I1" s="118" t="s">
         <v>287</v>
       </c>
-      <c r="J1" s="119" t="s">
+      <c r="J1" s="118" t="s">
         <v>288</v>
       </c>
-      <c r="K1" s="118" t="s">
+      <c r="K1" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="118" t="s">
+      <c r="L1" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="M1" s="118" t="s">
+      <c r="M1" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="120" t="s">
+      <c r="N1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="121" t="s">
+      <c r="O1" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="121" t="s">
+      <c r="P1" s="120" t="s">
         <v>122</v>
       </c>
-      <c r="Q1" s="118" t="s">
+      <c r="Q1" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="R1" s="118" t="s">
+      <c r="R1" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="119" t="s">
+      <c r="S1" s="118" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="118" t="s">
+      <c r="T1" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="122" t="s">
+      <c r="U1" s="121" t="s">
         <v>214</v>
       </c>
-      <c r="V1" s="122" t="s">
+      <c r="V1" s="121" t="s">
         <v>215</v>
       </c>
-      <c r="W1" s="122" t="s">
+      <c r="W1" s="121" t="s">
         <v>218</v>
       </c>
-      <c r="X1" s="122" t="s">
+      <c r="X1" s="121" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="91" customFormat="1">
+    <row r="2" spans="1:25" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="110" t="s">
         <v>198</v>
       </c>
       <c r="B2" s="110" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="126" t="s">
+      <c r="C2" s="125" t="s">
         <v>277</v>
       </c>
       <c r="D2" s="105"/>
@@ -9174,7 +9166,7 @@
         <v>290</v>
       </c>
       <c r="J2" s="105" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K2" s="110" t="s">
         <v>199</v>
@@ -9217,14 +9209,14 @@
       </c>
       <c r="Y2" s="110"/>
     </row>
-    <row r="3" spans="1:25" s="91" customFormat="1">
+    <row r="3" spans="1:25" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="110" t="s">
         <v>198</v>
       </c>
       <c r="B3" s="110" t="s">
         <v>276</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="125" t="s">
         <v>277</v>
       </c>
       <c r="D3" s="105"/>
@@ -9240,7 +9232,7 @@
         <v>290</v>
       </c>
       <c r="J3" s="105" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K3" s="110" t="s">
         <v>199</v>
@@ -9283,14 +9275,14 @@
       </c>
       <c r="Y3" s="110"/>
     </row>
-    <row r="4" spans="1:25" s="91" customFormat="1">
-      <c r="A4" s="113" t="s">
+    <row r="4" spans="1:25" s="91" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="141" t="s">
         <v>278</v>
       </c>
       <c r="B4" s="110" t="s">
         <v>276</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="125" t="s">
         <v>277</v>
       </c>
       <c r="D4" s="105" t="s">
@@ -9308,7 +9300,7 @@
         <v>291</v>
       </c>
       <c r="J4" s="105" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K4" s="110" t="s">
         <v>221</v>
@@ -9353,14 +9345,14 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="91" customFormat="1">
-      <c r="A5" s="113" t="s">
+    <row r="5" spans="1:25" s="91" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="141" t="s">
         <v>206</v>
       </c>
       <c r="B5" s="110" t="s">
         <v>276</v>
       </c>
-      <c r="C5" s="126" t="s">
+      <c r="C5" s="125" t="s">
         <v>277</v>
       </c>
       <c r="D5" s="105" t="s">
@@ -9378,7 +9370,7 @@
         <v>291</v>
       </c>
       <c r="J5" s="105" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K5" s="110" t="s">
         <v>221</v>
@@ -9423,7 +9415,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="91" customFormat="1">
+    <row r="6" spans="1:25" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="91" t="s">
         <v>279</v>
       </c>
@@ -9446,7 +9438,7 @@
         <v>289</v>
       </c>
       <c r="J6" s="91" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K6" s="110" t="s">
         <v>229</v>
@@ -9482,14 +9474,14 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="91" customFormat="1">
-      <c r="A7" s="91" t="s">
+    <row r="7" spans="1:25" s="91" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="140" t="s">
         <v>292</v>
       </c>
       <c r="B7" s="110" t="s">
         <v>276</v>
       </c>
-      <c r="C7" s="126" t="s">
+      <c r="C7" s="125" t="s">
         <v>277</v>
       </c>
       <c r="D7" s="105"/>
@@ -9538,8 +9530,8 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
-      <c r="B8" s="123"/>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B8" s="122"/>
       <c r="C8" s="107"/>
       <c r="D8" s="107"/>
       <c r="E8" s="107"/>
@@ -9548,8 +9540,8 @@
       <c r="I8" s="105"/>
       <c r="J8" s="105"/>
     </row>
-    <row r="9" spans="1:25">
-      <c r="B9" s="123"/>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B9" s="122"/>
       <c r="C9" s="107"/>
       <c r="D9" s="107"/>
       <c r="E9" s="107"/>
@@ -9558,8 +9550,8 @@
       <c r="I9" s="95"/>
       <c r="J9" s="105"/>
     </row>
-    <row r="10" spans="1:25">
-      <c r="B10" s="124"/>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B10" s="123"/>
       <c r="C10" s="96"/>
       <c r="D10" s="96"/>
       <c r="E10" s="96"/>
@@ -9568,8 +9560,8 @@
       <c r="I10" s="95"/>
       <c r="J10" s="95"/>
     </row>
-    <row r="11" spans="1:25">
-      <c r="B11" s="124"/>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B11" s="123"/>
       <c r="C11" s="96"/>
       <c r="D11" s="96"/>
       <c r="E11" s="96"/>
@@ -9578,8 +9570,8 @@
       <c r="I11" s="108"/>
       <c r="J11" s="95"/>
     </row>
-    <row r="12" spans="1:25">
-      <c r="B12" s="124"/>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B12" s="123"/>
       <c r="C12" s="96"/>
       <c r="D12" s="96"/>
       <c r="E12" s="96"/>
@@ -9588,8 +9580,8 @@
       <c r="I12" s="108"/>
       <c r="J12" s="108"/>
     </row>
-    <row r="13" spans="1:25">
-      <c r="B13" s="124"/>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B13" s="123"/>
       <c r="C13" s="96"/>
       <c r="D13" s="96"/>
       <c r="E13" s="96"/>
@@ -9611,7 +9603,7 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.6640625" style="18" bestFit="1" customWidth="1"/>
@@ -9619,7 +9611,7 @@
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>92</v>
       </c>
@@ -9630,7 +9622,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
         <v>74</v>
       </c>
@@ -9641,7 +9633,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
         <v>74</v>
       </c>
@@ -9652,7 +9644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
         <v>74</v>
       </c>
@@ -9663,7 +9655,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
         <v>74</v>
       </c>
@@ -9674,7 +9666,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
         <v>23</v>
       </c>
@@ -9685,7 +9677,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
         <v>23</v>
       </c>
@@ -9696,7 +9688,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">
         <v>23</v>
       </c>
@@ -9707,7 +9699,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="22" t="s">
         <v>0</v>
       </c>
@@ -9718,7 +9710,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="22" t="s">
         <v>0</v>
       </c>
@@ -9729,7 +9721,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="22" t="s">
         <v>0</v>
       </c>
@@ -9740,7 +9732,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="21" t="s">
         <v>107</v>
       </c>
@@ -9751,7 +9743,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="21" t="s">
         <v>107</v>
       </c>
@@ -9762,7 +9754,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="21" t="s">
         <v>107</v>
       </c>
@@ -9773,7 +9765,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="23" t="s">
         <v>168</v>
       </c>
@@ -9784,7 +9776,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="23" t="s">
         <v>168</v>
       </c>
@@ -9795,7 +9787,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="23" t="s">
         <v>168</v>
       </c>
@@ -9806,7 +9798,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="23" t="s">
         <v>168</v>
       </c>
@@ -9817,7 +9809,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="21" t="s">
         <v>109</v>
       </c>
@@ -9828,7 +9820,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="21" t="s">
         <v>109</v>
       </c>
@@ -9839,7 +9831,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="21" t="s">
         <v>109</v>
       </c>
@@ -9850,7 +9842,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="21" t="s">
         <v>109</v>
       </c>
@@ -9861,7 +9853,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="21" t="s">
         <v>109</v>
       </c>
@@ -9872,7 +9864,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="21" t="s">
         <v>109</v>
       </c>
@@ -9883,7 +9875,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="24" t="s">
         <v>113</v>
       </c>
@@ -9894,7 +9886,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="24" t="s">
         <v>113</v>
       </c>
@@ -9905,7 +9897,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="21" t="s">
         <v>26</v>
       </c>
@@ -9916,7 +9908,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="21" t="s">
         <v>26</v>
       </c>
@@ -9927,7 +9919,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="21" t="s">
         <v>26</v>
       </c>
@@ -9938,7 +9930,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="25" t="s">
         <v>157</v>
       </c>
@@ -9949,7 +9941,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="25" t="s">
         <v>157</v>
       </c>
@@ -9960,7 +9952,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="25" t="s">
         <v>157</v>
       </c>
@@ -9971,7 +9963,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="21" t="s">
         <v>161</v>
       </c>
@@ -9982,7 +9974,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="21" t="s">
         <v>161</v>
       </c>
@@ -9993,7 +9985,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="21" t="s">
         <v>161</v>
       </c>

--- a/Muscle_gene_summary_includeMF.xlsx
+++ b/Muscle_gene_summary_includeMF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Documents/Bioinformatics/MetaAnalysisProject_Apr2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E675B57-B3B4-5445-B4C7-306D5E5B6860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B3583C-BF1D-A94A-B693-B039DD0BBEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1660" windowWidth="27200" windowHeight="13000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1660" windowWidth="27200" windowHeight="13000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acute" sheetId="11" r:id="rId1"/>
@@ -1692,12 +1692,12 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7803,9 +7803,9 @@
   </sheetPr>
   <dimension ref="A1:AM13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+      <selection pane="topRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -8732,7 +8732,7 @@
       </c>
     </row>
     <row r="10" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="139" t="s">
+      <c r="A10" s="141" t="s">
         <v>206</v>
       </c>
       <c r="B10" s="92" t="s">
@@ -8812,7 +8812,7 @@
       </c>
     </row>
     <row r="11" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="139" t="s">
+      <c r="A11" s="141" t="s">
         <v>206</v>
       </c>
       <c r="B11" s="92" t="s">
@@ -9045,8 +9045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E983AE-3E94-4A77-A645-69889912A19D}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -9276,7 +9276,7 @@
       <c r="Y3" s="110"/>
     </row>
     <row r="4" spans="1:25" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="141" t="s">
+      <c r="A4" s="140" t="s">
         <v>278</v>
       </c>
       <c r="B4" s="110" t="s">
@@ -9346,7 +9346,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="141" t="s">
+      <c r="A5" s="140" t="s">
         <v>206</v>
       </c>
       <c r="B5" s="110" t="s">
@@ -9475,7 +9475,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="140" t="s">
+      <c r="A7" s="139" t="s">
         <v>292</v>
       </c>
       <c r="B7" s="110" t="s">

--- a/Muscle_gene_summary_includeMF.xlsx
+++ b/Muscle_gene_summary_includeMF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Documents/Bioinformatics/MetaAnalysisProject_Apr2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B3583C-BF1D-A94A-B693-B039DD0BBEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA72BF87-6C03-D846-A4C2-CFD1D4516DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1660" windowWidth="27200" windowHeight="13000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1660" windowWidth="27200" windowHeight="13000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acute" sheetId="11" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="307">
   <si>
     <t>Age</t>
   </si>
@@ -988,6 +988,9 @@
   </si>
   <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/33705535/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/33705535/</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1021,6 +1024,9 @@
   <si>
     <t>-</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>no young samples? miRna-seq / Ribo-seq</t>
   </si>
 </sst>
 </file>
@@ -7803,9 +7809,9 @@
   </sheetPr>
   <dimension ref="A1:AM13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D11" sqref="D11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -7961,7 +7967,7 @@
     </row>
     <row r="2" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="104" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B2" s="113" t="s">
         <v>145</v>
@@ -7971,22 +7977,22 @@
       </c>
       <c r="D2" s="113"/>
       <c r="E2" s="130" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F2" s="105" t="s">
         <v>143</v>
       </c>
       <c r="G2" s="130" t="s">
+        <v>305</v>
+      </c>
+      <c r="H2" s="130" t="s">
+        <v>305</v>
+      </c>
+      <c r="I2" s="105" t="s">
+        <v>303</v>
+      </c>
+      <c r="J2" s="105" t="s">
         <v>304</v>
-      </c>
-      <c r="H2" s="130" t="s">
-        <v>304</v>
-      </c>
-      <c r="I2" s="105" t="s">
-        <v>302</v>
-      </c>
-      <c r="J2" s="105" t="s">
-        <v>303</v>
       </c>
       <c r="K2" s="106" t="s">
         <v>5</v>
@@ -8069,22 +8075,22 @@
       </c>
       <c r="D3" s="113"/>
       <c r="E3" s="130" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F3" s="105" t="s">
         <v>143</v>
       </c>
       <c r="G3" s="130" t="s">
+        <v>305</v>
+      </c>
+      <c r="H3" s="130" t="s">
+        <v>305</v>
+      </c>
+      <c r="I3" s="105" t="s">
+        <v>303</v>
+      </c>
+      <c r="J3" s="105" t="s">
         <v>304</v>
-      </c>
-      <c r="H3" s="130" t="s">
-        <v>304</v>
-      </c>
-      <c r="I3" s="105" t="s">
-        <v>302</v>
-      </c>
-      <c r="J3" s="105" t="s">
-        <v>303</v>
       </c>
       <c r="K3" s="106" t="s">
         <v>5</v>
@@ -8167,22 +8173,22 @@
       </c>
       <c r="D4" s="113"/>
       <c r="E4" s="130" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F4" s="105" t="s">
         <v>143</v>
       </c>
       <c r="G4" s="130" t="s">
+        <v>305</v>
+      </c>
+      <c r="H4" s="130" t="s">
+        <v>305</v>
+      </c>
+      <c r="I4" s="105" t="s">
+        <v>303</v>
+      </c>
+      <c r="J4" s="105" t="s">
         <v>304</v>
-      </c>
-      <c r="H4" s="130" t="s">
-        <v>304</v>
-      </c>
-      <c r="I4" s="105" t="s">
-        <v>302</v>
-      </c>
-      <c r="J4" s="105" t="s">
-        <v>303</v>
       </c>
       <c r="K4" s="106" t="s">
         <v>5</v>
@@ -8265,22 +8271,22 @@
       </c>
       <c r="D5" s="113"/>
       <c r="E5" s="130" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F5" s="105" t="s">
         <v>143</v>
       </c>
       <c r="G5" s="130" t="s">
+        <v>305</v>
+      </c>
+      <c r="H5" s="130" t="s">
+        <v>305</v>
+      </c>
+      <c r="I5" s="105" t="s">
+        <v>303</v>
+      </c>
+      <c r="J5" s="105" t="s">
         <v>304</v>
-      </c>
-      <c r="H5" s="130" t="s">
-        <v>304</v>
-      </c>
-      <c r="I5" s="105" t="s">
-        <v>302</v>
-      </c>
-      <c r="J5" s="105" t="s">
-        <v>303</v>
       </c>
       <c r="K5" s="106" t="s">
         <v>5</v>
@@ -8756,7 +8762,7 @@
         <v>291</v>
       </c>
       <c r="J10" s="129" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K10" s="95" t="s">
         <v>10</v>
@@ -8913,10 +8919,10 @@
       <c r="G12" s="134"/>
       <c r="H12" s="134"/>
       <c r="I12" s="108" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J12" s="108" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K12" s="106" t="s">
         <v>5</v>
@@ -8983,10 +8989,10 @@
       <c r="G13" s="134"/>
       <c r="H13" s="134"/>
       <c r="I13" s="108" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J13" s="108" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K13" s="106" t="s">
         <v>5</v>
@@ -9045,8 +9051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E983AE-3E94-4A77-A645-69889912A19D}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -9166,7 +9172,7 @@
         <v>290</v>
       </c>
       <c r="J2" s="105" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K2" s="110" t="s">
         <v>199</v>
@@ -9232,7 +9238,7 @@
         <v>290</v>
       </c>
       <c r="J3" s="105" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K3" s="110" t="s">
         <v>199</v>
@@ -9286,7 +9292,7 @@
         <v>277</v>
       </c>
       <c r="D4" s="105" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="E4" s="105" t="s">
         <v>283</v>
@@ -9300,7 +9306,7 @@
         <v>291</v>
       </c>
       <c r="J4" s="105" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K4" s="110" t="s">
         <v>221</v>
@@ -9356,7 +9362,7 @@
         <v>277</v>
       </c>
       <c r="D5" s="105" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="E5" s="105" t="s">
         <v>283</v>
@@ -9370,7 +9376,7 @@
         <v>291</v>
       </c>
       <c r="J5" s="105" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K5" s="110" t="s">
         <v>221</v>
@@ -9438,7 +9444,7 @@
         <v>289</v>
       </c>
       <c r="J6" s="91" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K6" s="110" t="s">
         <v>229</v>

--- a/Muscle_gene_summary_includeMF.xlsx
+++ b/Muscle_gene_summary_includeMF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Documents/Bioinformatics/MetaAnalysisProject_Apr2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA72BF87-6C03-D846-A4C2-CFD1D4516DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2DB221-E870-E942-97D4-733EE9778568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1660" windowWidth="27200" windowHeight="13000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1316,7 +1316,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1664,7 +1664,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1704,6 +1703,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7820,9 +7825,9 @@
     <col min="2" max="2" width="9.83203125" style="111"/>
     <col min="3" max="3" width="11.33203125" style="111" customWidth="1"/>
     <col min="4" max="4" width="28" style="111" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="138" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="137" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33" style="99" customWidth="1"/>
-    <col min="7" max="8" width="17" style="135" customWidth="1"/>
+    <col min="7" max="8" width="17" style="134" customWidth="1"/>
     <col min="9" max="9" width="69" style="99" customWidth="1"/>
     <col min="10" max="10" width="62.5" style="99" customWidth="1"/>
     <col min="11" max="11" width="15.83203125" style="99" bestFit="1" customWidth="1"/>
@@ -7859,16 +7864,16 @@
       <c r="D1" s="117" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="136" t="s">
+      <c r="E1" s="135" t="s">
         <v>282</v>
       </c>
       <c r="F1" s="118" t="s">
         <v>267</v>
       </c>
-      <c r="G1" s="131" t="s">
+      <c r="G1" s="130" t="s">
         <v>285</v>
       </c>
-      <c r="H1" s="131" t="s">
+      <c r="H1" s="130" t="s">
         <v>286</v>
       </c>
       <c r="I1" s="118" t="s">
@@ -7886,22 +7891,22 @@
       <c r="M1" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="127" t="s">
+      <c r="N1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="128" t="s">
+      <c r="O1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="128" t="s">
+      <c r="P1" s="127" t="s">
         <v>122</v>
       </c>
       <c r="Q1" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="128" t="s">
+      <c r="R1" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="128" t="s">
+      <c r="S1" s="127" t="s">
         <v>73</v>
       </c>
       <c r="T1" s="118" t="s">
@@ -7928,19 +7933,19 @@
       <c r="AA1" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" s="127" t="s">
+      <c r="AB1" s="126" t="s">
         <v>121</v>
       </c>
-      <c r="AC1" s="127" t="s">
+      <c r="AC1" s="126" t="s">
         <v>125</v>
       </c>
-      <c r="AD1" s="127" t="s">
+      <c r="AD1" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="AE1" s="128" t="s">
+      <c r="AE1" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="128" t="s">
+      <c r="AF1" s="127" t="s">
         <v>169</v>
       </c>
       <c r="AG1" s="118" t="s">
@@ -7972,20 +7977,20 @@
       <c r="B2" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="126" t="s">
+      <c r="C2" s="125" t="s">
         <v>269</v>
       </c>
       <c r="D2" s="113"/>
-      <c r="E2" s="130" t="s">
+      <c r="E2" s="129" t="s">
         <v>305</v>
       </c>
       <c r="F2" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="130" t="s">
+      <c r="G2" s="129" t="s">
         <v>305</v>
       </c>
-      <c r="H2" s="130" t="s">
+      <c r="H2" s="129" t="s">
         <v>305</v>
       </c>
       <c r="I2" s="105" t="s">
@@ -8070,20 +8075,20 @@
       <c r="B3" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="125" t="s">
         <v>269</v>
       </c>
       <c r="D3" s="113"/>
-      <c r="E3" s="130" t="s">
+      <c r="E3" s="129" t="s">
         <v>305</v>
       </c>
       <c r="F3" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="130" t="s">
+      <c r="G3" s="129" t="s">
         <v>305</v>
       </c>
-      <c r="H3" s="130" t="s">
+      <c r="H3" s="129" t="s">
         <v>305</v>
       </c>
       <c r="I3" s="105" t="s">
@@ -8168,20 +8173,20 @@
       <c r="B4" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="125" t="s">
         <v>269</v>
       </c>
       <c r="D4" s="113"/>
-      <c r="E4" s="130" t="s">
+      <c r="E4" s="129" t="s">
         <v>305</v>
       </c>
       <c r="F4" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="G4" s="130" t="s">
+      <c r="G4" s="129" t="s">
         <v>305</v>
       </c>
-      <c r="H4" s="130" t="s">
+      <c r="H4" s="129" t="s">
         <v>305</v>
       </c>
       <c r="I4" s="105" t="s">
@@ -8266,20 +8271,20 @@
       <c r="B5" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="126" t="s">
+      <c r="C5" s="125" t="s">
         <v>269</v>
       </c>
       <c r="D5" s="113"/>
-      <c r="E5" s="130" t="s">
+      <c r="E5" s="129" t="s">
         <v>305</v>
       </c>
       <c r="F5" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="130" t="s">
+      <c r="G5" s="129" t="s">
         <v>305</v>
       </c>
-      <c r="H5" s="130" t="s">
+      <c r="H5" s="129" t="s">
         <v>305</v>
       </c>
       <c r="I5" s="105" t="s">
@@ -8368,14 +8373,14 @@
         <v>273</v>
       </c>
       <c r="D6" s="113"/>
-      <c r="E6" s="137" t="s">
+      <c r="E6" s="136" t="s">
         <v>283</v>
       </c>
       <c r="F6" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
       <c r="I6" s="105" t="s">
         <v>293</v>
       </c>
@@ -8463,14 +8468,14 @@
         <v>273</v>
       </c>
       <c r="D7" s="113"/>
-      <c r="E7" s="137" t="s">
+      <c r="E7" s="136" t="s">
         <v>283</v>
       </c>
       <c r="F7" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
       <c r="I7" s="105" t="s">
         <v>293</v>
       </c>
@@ -8558,14 +8563,14 @@
         <v>273</v>
       </c>
       <c r="D8" s="113"/>
-      <c r="E8" s="137" t="s">
+      <c r="E8" s="136" t="s">
         <v>283</v>
       </c>
       <c r="F8" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
       <c r="I8" s="105" t="s">
         <v>293</v>
       </c>
@@ -8653,14 +8658,14 @@
         <v>273</v>
       </c>
       <c r="D9" s="113"/>
-      <c r="E9" s="137" t="s">
+      <c r="E9" s="136" t="s">
         <v>283</v>
       </c>
       <c r="F9" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
       <c r="I9" s="105" t="s">
         <v>293</v>
       </c>
@@ -8738,7 +8743,7 @@
       </c>
     </row>
     <row r="10" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="141" t="s">
+      <c r="A10" s="140" t="s">
         <v>206</v>
       </c>
       <c r="B10" s="92" t="s">
@@ -8750,18 +8755,18 @@
       <c r="D10" s="105" t="s">
         <v>281</v>
       </c>
-      <c r="E10" s="137" t="s">
+      <c r="E10" s="136" t="s">
         <v>283</v>
       </c>
       <c r="F10" s="95" t="s">
         <v>223</v>
       </c>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
       <c r="I10" s="95" t="s">
         <v>291</v>
       </c>
-      <c r="J10" s="129" t="s">
+      <c r="J10" s="128" t="s">
         <v>297</v>
       </c>
       <c r="K10" s="95" t="s">
@@ -8818,7 +8823,7 @@
       </c>
     </row>
     <row r="11" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="141" t="s">
+      <c r="A11" s="140" t="s">
         <v>206</v>
       </c>
       <c r="B11" s="92" t="s">
@@ -8830,18 +8835,18 @@
       <c r="D11" s="105" t="s">
         <v>281</v>
       </c>
-      <c r="E11" s="137" t="s">
+      <c r="E11" s="136" t="s">
         <v>283</v>
       </c>
       <c r="F11" s="95" t="s">
         <v>223</v>
       </c>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
       <c r="I11" s="95" t="s">
         <v>291</v>
       </c>
-      <c r="J11" s="129" t="s">
+      <c r="J11" s="128" t="s">
         <v>296</v>
       </c>
       <c r="K11" s="95" t="s">
@@ -8910,14 +8915,14 @@
       <c r="D12" s="115" t="s">
         <v>275</v>
       </c>
-      <c r="E12" s="137" t="s">
+      <c r="E12" s="136" t="s">
         <v>283</v>
       </c>
       <c r="F12" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
       <c r="I12" s="108" t="s">
         <v>300</v>
       </c>
@@ -8980,14 +8985,14 @@
       <c r="D13" s="115" t="s">
         <v>275</v>
       </c>
-      <c r="E13" s="137" t="s">
+      <c r="E13" s="136" t="s">
         <v>283</v>
       </c>
       <c r="F13" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
       <c r="I13" s="108" t="s">
         <v>300</v>
       </c>
@@ -9052,7 +9057,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -9153,14 +9158,14 @@
       <c r="A2" s="110" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="141" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="125" t="s">
+      <c r="C2" s="142" t="s">
         <v>277</v>
       </c>
       <c r="D2" s="105"/>
-      <c r="E2" s="105" t="s">
+      <c r="E2" s="141" t="s">
         <v>283</v>
       </c>
       <c r="F2" s="110" t="s">
@@ -9219,14 +9224,14 @@
       <c r="A3" s="110" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="141" t="s">
         <v>276</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="142" t="s">
         <v>277</v>
       </c>
       <c r="D3" s="105"/>
-      <c r="E3" s="105" t="s">
+      <c r="E3" s="141" t="s">
         <v>283</v>
       </c>
       <c r="F3" s="110" t="s">
@@ -9282,19 +9287,19 @@
       <c r="Y3" s="110"/>
     </row>
     <row r="4" spans="1:25" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="139" t="s">
         <v>278</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="141" t="s">
         <v>276</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="142" t="s">
         <v>277</v>
       </c>
       <c r="D4" s="105" t="s">
         <v>306</v>
       </c>
-      <c r="E4" s="105" t="s">
+      <c r="E4" s="141" t="s">
         <v>283</v>
       </c>
       <c r="F4" s="91" t="s">
@@ -9352,19 +9357,19 @@
       </c>
     </row>
     <row r="5" spans="1:25" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="139" t="s">
         <v>206</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="141" t="s">
         <v>276</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="142" t="s">
         <v>277</v>
       </c>
       <c r="D5" s="105" t="s">
         <v>306</v>
       </c>
-      <c r="E5" s="105" t="s">
+      <c r="E5" s="141" t="s">
         <v>283</v>
       </c>
       <c r="F5" s="91" t="s">
@@ -9425,14 +9430,14 @@
       <c r="A6" s="91" t="s">
         <v>279</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="141" t="s">
         <v>276</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="141" t="s">
         <v>277</v>
       </c>
       <c r="D6" s="105"/>
-      <c r="E6" s="105" t="s">
+      <c r="E6" s="141" t="s">
         <v>283</v>
       </c>
       <c r="F6" s="97" t="s">
@@ -9481,17 +9486,17 @@
       </c>
     </row>
     <row r="7" spans="1:25" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="139" t="s">
+      <c r="A7" s="138" t="s">
         <v>292</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="141" t="s">
         <v>276</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="142" t="s">
         <v>277</v>
       </c>
       <c r="D7" s="105"/>
-      <c r="E7" s="105" t="s">
+      <c r="E7" s="141" t="s">
         <v>283</v>
       </c>
       <c r="F7" s="91" t="s">

--- a/Muscle_gene_summary_includeMF.xlsx
+++ b/Muscle_gene_summary_includeMF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Documents/Bioinformatics/MetaAnalysisProject_Apr2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2DB221-E870-E942-97D4-733EE9778568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C350F8-A276-614E-82DC-4D8382E858C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1660" windowWidth="27200" windowHeight="13000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="600" windowWidth="27180" windowHeight="13000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acute" sheetId="11" r:id="rId1"/>
@@ -1627,7 +1627,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1710,6 +1709,7 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -7815,8 +7815,8 @@
   <dimension ref="A1:AM13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I16" sqref="I16"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -7825,9 +7825,9 @@
     <col min="2" max="2" width="9.83203125" style="111"/>
     <col min="3" max="3" width="11.33203125" style="111" customWidth="1"/>
     <col min="4" max="4" width="28" style="111" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="137" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="136" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33" style="99" customWidth="1"/>
-    <col min="7" max="8" width="17" style="134" customWidth="1"/>
+    <col min="7" max="8" width="17" style="133" customWidth="1"/>
     <col min="9" max="9" width="69" style="99" customWidth="1"/>
     <col min="10" max="10" width="62.5" style="99" customWidth="1"/>
     <col min="11" max="11" width="15.83203125" style="99" bestFit="1" customWidth="1"/>
@@ -7851,122 +7851,122 @@
     <col min="40" max="16384" width="9.83203125" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="121" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:39" s="120" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="117" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="117" t="s">
         <v>266</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="116" t="s">
         <v>270</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="116" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="135" t="s">
+      <c r="E1" s="134" t="s">
         <v>282</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="117" t="s">
         <v>267</v>
       </c>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="129" t="s">
         <v>285</v>
       </c>
-      <c r="H1" s="130" t="s">
+      <c r="H1" s="129" t="s">
         <v>286</v>
       </c>
-      <c r="I1" s="118" t="s">
+      <c r="I1" s="117" t="s">
         <v>287</v>
       </c>
-      <c r="J1" s="118" t="s">
+      <c r="J1" s="117" t="s">
         <v>288</v>
       </c>
-      <c r="K1" s="118" t="s">
+      <c r="K1" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="118" t="s">
+      <c r="L1" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="M1" s="118" t="s">
+      <c r="M1" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="126" t="s">
+      <c r="N1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="127" t="s">
+      <c r="O1" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="127" t="s">
+      <c r="P1" s="126" t="s">
         <v>122</v>
       </c>
-      <c r="Q1" s="118" t="s">
+      <c r="Q1" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="127" t="s">
+      <c r="R1" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="127" t="s">
+      <c r="S1" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="T1" s="118" t="s">
+      <c r="T1" s="117" t="s">
         <v>139</v>
       </c>
-      <c r="U1" s="118" t="s">
+      <c r="U1" s="117" t="s">
         <v>189</v>
       </c>
-      <c r="V1" s="118" t="s">
+      <c r="V1" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="118" t="s">
+      <c r="W1" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="X1" s="118" t="s">
+      <c r="X1" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="Y1" s="118" t="s">
+      <c r="Y1" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="118" t="s">
+      <c r="Z1" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="AA1" s="118" t="s">
+      <c r="AA1" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" s="126" t="s">
+      <c r="AB1" s="125" t="s">
         <v>121</v>
       </c>
-      <c r="AC1" s="126" t="s">
+      <c r="AC1" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="AD1" s="126" t="s">
+      <c r="AD1" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="AE1" s="127" t="s">
+      <c r="AE1" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="127" t="s">
+      <c r="AF1" s="126" t="s">
         <v>169</v>
       </c>
-      <c r="AG1" s="118" t="s">
+      <c r="AG1" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="AH1" s="118" t="s">
+      <c r="AH1" s="117" t="s">
         <v>183</v>
       </c>
-      <c r="AI1" s="121" t="s">
+      <c r="AI1" s="120" t="s">
         <v>181</v>
       </c>
-      <c r="AJ1" s="121" t="s">
+      <c r="AJ1" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="AK1" s="121" t="s">
+      <c r="AK1" s="120" t="s">
         <v>215</v>
       </c>
-      <c r="AL1" s="121" t="s">
+      <c r="AL1" s="120" t="s">
         <v>218</v>
       </c>
-      <c r="AM1" s="121" t="s">
+      <c r="AM1" s="120" t="s">
         <v>219</v>
       </c>
     </row>
@@ -7974,23 +7974,23 @@
       <c r="A2" s="104" t="s">
         <v>302</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="125" t="s">
+      <c r="C2" s="124" t="s">
         <v>269</v>
       </c>
-      <c r="D2" s="113"/>
-      <c r="E2" s="129" t="s">
+      <c r="D2" s="112"/>
+      <c r="E2" s="128" t="s">
         <v>305</v>
       </c>
       <c r="F2" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="129" t="s">
+      <c r="G2" s="128" t="s">
         <v>305</v>
       </c>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="128" t="s">
         <v>305</v>
       </c>
       <c r="I2" s="105" t="s">
@@ -8072,23 +8072,23 @@
       <c r="A3" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="124" t="s">
         <v>269</v>
       </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="129" t="s">
+      <c r="D3" s="112"/>
+      <c r="E3" s="128" t="s">
         <v>305</v>
       </c>
       <c r="F3" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="129" t="s">
+      <c r="G3" s="128" t="s">
         <v>305</v>
       </c>
-      <c r="H3" s="129" t="s">
+      <c r="H3" s="128" t="s">
         <v>305</v>
       </c>
       <c r="I3" s="105" t="s">
@@ -8170,23 +8170,23 @@
       <c r="A4" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="124" t="s">
         <v>269</v>
       </c>
-      <c r="D4" s="113"/>
-      <c r="E4" s="129" t="s">
+      <c r="D4" s="112"/>
+      <c r="E4" s="128" t="s">
         <v>305</v>
       </c>
       <c r="F4" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="G4" s="129" t="s">
+      <c r="G4" s="128" t="s">
         <v>305</v>
       </c>
-      <c r="H4" s="129" t="s">
+      <c r="H4" s="128" t="s">
         <v>305</v>
       </c>
       <c r="I4" s="105" t="s">
@@ -8268,23 +8268,23 @@
       <c r="A5" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="124" t="s">
         <v>269</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="129" t="s">
+      <c r="D5" s="112"/>
+      <c r="E5" s="128" t="s">
         <v>305</v>
       </c>
       <c r="F5" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="129" t="s">
+      <c r="G5" s="128" t="s">
         <v>305</v>
       </c>
-      <c r="H5" s="129" t="s">
+      <c r="H5" s="128" t="s">
         <v>305</v>
       </c>
       <c r="I5" s="105" t="s">
@@ -8363,24 +8363,24 @@
       </c>
     </row>
     <row r="6" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="142" t="s">
         <v>292</v>
       </c>
       <c r="B6" s="92" t="s">
         <v>272</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="113" t="s">
         <v>273</v>
       </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="136" t="s">
+      <c r="D6" s="112"/>
+      <c r="E6" s="135" t="s">
         <v>283</v>
       </c>
       <c r="F6" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
       <c r="I6" s="105" t="s">
         <v>293</v>
       </c>
@@ -8458,24 +8458,24 @@
       </c>
     </row>
     <row r="7" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="142" t="s">
         <v>196</v>
       </c>
       <c r="B7" s="92" t="s">
         <v>272</v>
       </c>
-      <c r="C7" s="114" t="s">
+      <c r="C7" s="113" t="s">
         <v>273</v>
       </c>
-      <c r="D7" s="113"/>
-      <c r="E7" s="136" t="s">
+      <c r="D7" s="112"/>
+      <c r="E7" s="135" t="s">
         <v>283</v>
       </c>
       <c r="F7" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
       <c r="I7" s="105" t="s">
         <v>293</v>
       </c>
@@ -8553,24 +8553,24 @@
       </c>
     </row>
     <row r="8" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="142" t="s">
         <v>196</v>
       </c>
       <c r="B8" s="92" t="s">
         <v>272</v>
       </c>
-      <c r="C8" s="114" t="s">
+      <c r="C8" s="113" t="s">
         <v>273</v>
       </c>
-      <c r="D8" s="113"/>
-      <c r="E8" s="136" t="s">
+      <c r="D8" s="112"/>
+      <c r="E8" s="135" t="s">
         <v>283</v>
       </c>
       <c r="F8" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
       <c r="I8" s="105" t="s">
         <v>293</v>
       </c>
@@ -8648,24 +8648,24 @@
       </c>
     </row>
     <row r="9" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="142" t="s">
         <v>196</v>
       </c>
       <c r="B9" s="92" t="s">
         <v>272</v>
       </c>
-      <c r="C9" s="114" t="s">
+      <c r="C9" s="113" t="s">
         <v>273</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="136" t="s">
+      <c r="D9" s="112"/>
+      <c r="E9" s="135" t="s">
         <v>283</v>
       </c>
       <c r="F9" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
       <c r="I9" s="105" t="s">
         <v>293</v>
       </c>
@@ -8743,30 +8743,30 @@
       </c>
     </row>
     <row r="10" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="140" t="s">
+      <c r="A10" s="139" t="s">
         <v>206</v>
       </c>
       <c r="B10" s="92" t="s">
         <v>272</v>
       </c>
-      <c r="C10" s="114" t="s">
+      <c r="C10" s="113" t="s">
         <v>273</v>
       </c>
       <c r="D10" s="105" t="s">
         <v>281</v>
       </c>
-      <c r="E10" s="136" t="s">
+      <c r="E10" s="135" t="s">
         <v>283</v>
       </c>
       <c r="F10" s="95" t="s">
         <v>223</v>
       </c>
-      <c r="G10" s="132"/>
-      <c r="H10" s="132"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
       <c r="I10" s="95" t="s">
         <v>291</v>
       </c>
-      <c r="J10" s="128" t="s">
+      <c r="J10" s="127" t="s">
         <v>297</v>
       </c>
       <c r="K10" s="95" t="s">
@@ -8823,30 +8823,30 @@
       </c>
     </row>
     <row r="11" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="140" t="s">
+      <c r="A11" s="139" t="s">
         <v>206</v>
       </c>
       <c r="B11" s="92" t="s">
         <v>272</v>
       </c>
-      <c r="C11" s="114" t="s">
+      <c r="C11" s="113" t="s">
         <v>273</v>
       </c>
       <c r="D11" s="105" t="s">
         <v>281</v>
       </c>
-      <c r="E11" s="136" t="s">
+      <c r="E11" s="135" t="s">
         <v>283</v>
       </c>
       <c r="F11" s="95" t="s">
         <v>223</v>
       </c>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
       <c r="I11" s="95" t="s">
         <v>291</v>
       </c>
-      <c r="J11" s="128" t="s">
+      <c r="J11" s="127" t="s">
         <v>296</v>
       </c>
       <c r="K11" s="95" t="s">
@@ -8903,26 +8903,26 @@
       </c>
     </row>
     <row r="12" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="115" t="s">
         <v>240</v>
       </c>
       <c r="B12" s="92" t="s">
         <v>272</v>
       </c>
-      <c r="C12" s="114" t="s">
+      <c r="C12" s="113" t="s">
         <v>273</v>
       </c>
-      <c r="D12" s="115" t="s">
+      <c r="D12" s="114" t="s">
         <v>275</v>
       </c>
-      <c r="E12" s="136" t="s">
+      <c r="E12" s="135" t="s">
         <v>283</v>
       </c>
       <c r="F12" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
       <c r="I12" s="108" t="s">
         <v>300</v>
       </c>
@@ -8973,26 +8973,26 @@
       </c>
     </row>
     <row r="13" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="116" t="s">
+      <c r="A13" s="115" t="s">
         <v>240</v>
       </c>
       <c r="B13" s="92" t="s">
         <v>272</v>
       </c>
-      <c r="C13" s="114" t="s">
+      <c r="C13" s="113" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="115" t="s">
+      <c r="D13" s="114" t="s">
         <v>275</v>
       </c>
-      <c r="E13" s="136" t="s">
+      <c r="E13" s="135" t="s">
         <v>283</v>
       </c>
       <c r="F13" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
       <c r="I13" s="108" t="s">
         <v>300</v>
       </c>
@@ -9057,13 +9057,13 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="103" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" style="124"/>
+    <col min="2" max="2" width="9.83203125" style="123"/>
     <col min="3" max="3" width="11.33203125" style="98" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" style="98" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="98" bestFit="1" customWidth="1"/>
@@ -9080,77 +9080,77 @@
     <col min="21" max="16384" width="9" style="103"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="121" customFormat="1" ht="38" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
+    <row r="1" spans="1:25" s="120" customFormat="1" ht="38" x14ac:dyDescent="0.2">
+      <c r="A1" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="117" t="s">
         <v>268</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="116" t="s">
         <v>270</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="116" t="s">
         <v>280</v>
       </c>
-      <c r="E1" s="117" t="s">
+      <c r="E1" s="116" t="s">
         <v>284</v>
       </c>
-      <c r="F1" s="117" t="s">
+      <c r="F1" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="118" t="s">
+      <c r="G1" s="117" t="s">
         <v>285</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="117" t="s">
         <v>286</v>
       </c>
-      <c r="I1" s="118" t="s">
+      <c r="I1" s="117" t="s">
         <v>287</v>
       </c>
-      <c r="J1" s="118" t="s">
+      <c r="J1" s="117" t="s">
         <v>288</v>
       </c>
-      <c r="K1" s="117" t="s">
+      <c r="K1" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="117" t="s">
+      <c r="L1" s="116" t="s">
         <v>145</v>
       </c>
-      <c r="M1" s="117" t="s">
+      <c r="M1" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="119" t="s">
+      <c r="N1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="120" t="s">
+      <c r="O1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="120" t="s">
+      <c r="P1" s="119" t="s">
         <v>122</v>
       </c>
-      <c r="Q1" s="117" t="s">
+      <c r="Q1" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="R1" s="117" t="s">
+      <c r="R1" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="118" t="s">
+      <c r="S1" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="117" t="s">
+      <c r="T1" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="121" t="s">
+      <c r="U1" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="V1" s="121" t="s">
+      <c r="V1" s="120" t="s">
         <v>215</v>
       </c>
-      <c r="W1" s="121" t="s">
+      <c r="W1" s="120" t="s">
         <v>218</v>
       </c>
-      <c r="X1" s="121" t="s">
+      <c r="X1" s="120" t="s">
         <v>219</v>
       </c>
     </row>
@@ -9158,14 +9158,14 @@
       <c r="A2" s="110" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="140" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="142" t="s">
+      <c r="C2" s="141" t="s">
         <v>277</v>
       </c>
       <c r="D2" s="105"/>
-      <c r="E2" s="141" t="s">
+      <c r="E2" s="140" t="s">
         <v>283</v>
       </c>
       <c r="F2" s="110" t="s">
@@ -9224,14 +9224,14 @@
       <c r="A3" s="110" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="140" t="s">
         <v>276</v>
       </c>
-      <c r="C3" s="142" t="s">
+      <c r="C3" s="141" t="s">
         <v>277</v>
       </c>
       <c r="D3" s="105"/>
-      <c r="E3" s="141" t="s">
+      <c r="E3" s="140" t="s">
         <v>283</v>
       </c>
       <c r="F3" s="110" t="s">
@@ -9287,19 +9287,19 @@
       <c r="Y3" s="110"/>
     </row>
     <row r="4" spans="1:25" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="138" t="s">
         <v>278</v>
       </c>
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>276</v>
       </c>
-      <c r="C4" s="142" t="s">
+      <c r="C4" s="141" t="s">
         <v>277</v>
       </c>
       <c r="D4" s="105" t="s">
         <v>306</v>
       </c>
-      <c r="E4" s="141" t="s">
+      <c r="E4" s="140" t="s">
         <v>283</v>
       </c>
       <c r="F4" s="91" t="s">
@@ -9357,19 +9357,19 @@
       </c>
     </row>
     <row r="5" spans="1:25" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="138" t="s">
         <v>206</v>
       </c>
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>276</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="141" t="s">
         <v>277</v>
       </c>
       <c r="D5" s="105" t="s">
         <v>306</v>
       </c>
-      <c r="E5" s="141" t="s">
+      <c r="E5" s="140" t="s">
         <v>283</v>
       </c>
       <c r="F5" s="91" t="s">
@@ -9430,14 +9430,14 @@
       <c r="A6" s="91" t="s">
         <v>279</v>
       </c>
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>276</v>
       </c>
       <c r="C6" s="141" t="s">
         <v>277</v>
       </c>
       <c r="D6" s="105"/>
-      <c r="E6" s="141" t="s">
+      <c r="E6" s="140" t="s">
         <v>283</v>
       </c>
       <c r="F6" s="97" t="s">
@@ -9486,17 +9486,17 @@
       </c>
     </row>
     <row r="7" spans="1:25" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="138" t="s">
+      <c r="A7" s="137" t="s">
         <v>292</v>
       </c>
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="140" t="s">
         <v>276</v>
       </c>
-      <c r="C7" s="142" t="s">
+      <c r="C7" s="141" t="s">
         <v>277</v>
       </c>
       <c r="D7" s="105"/>
-      <c r="E7" s="141" t="s">
+      <c r="E7" s="140" t="s">
         <v>283</v>
       </c>
       <c r="F7" s="91" t="s">
@@ -9542,7 +9542,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B8" s="122"/>
+      <c r="B8" s="121"/>
       <c r="C8" s="107"/>
       <c r="D8" s="107"/>
       <c r="E8" s="107"/>
@@ -9552,7 +9552,7 @@
       <c r="J8" s="105"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B9" s="122"/>
+      <c r="B9" s="121"/>
       <c r="C9" s="107"/>
       <c r="D9" s="107"/>
       <c r="E9" s="107"/>
@@ -9562,7 +9562,7 @@
       <c r="J9" s="105"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B10" s="123"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="96"/>
       <c r="D10" s="96"/>
       <c r="E10" s="96"/>
@@ -9572,7 +9572,7 @@
       <c r="J10" s="95"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B11" s="123"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="96"/>
       <c r="D11" s="96"/>
       <c r="E11" s="96"/>
@@ -9582,7 +9582,7 @@
       <c r="J11" s="95"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B12" s="123"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="96"/>
       <c r="D12" s="96"/>
       <c r="E12" s="96"/>
@@ -9592,7 +9592,7 @@
       <c r="J12" s="108"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B13" s="123"/>
+      <c r="B13" s="122"/>
       <c r="C13" s="96"/>
       <c r="D13" s="96"/>
       <c r="E13" s="96"/>

--- a/Muscle_gene_summary_includeMF.xlsx
+++ b/Muscle_gene_summary_includeMF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Documents/Bioinformatics/MetaAnalysisProject_Apr2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HDD24TB/MetaAnalysisProject_Apr2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C350F8-A276-614E-82DC-4D8382E858C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE93F2C-1A3E-224B-9ADC-8C56FB1EC554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="600" windowWidth="27180" windowHeight="13000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="2540" windowWidth="36180" windowHeight="13000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acute" sheetId="11" r:id="rId1"/>
@@ -19,18 +19,27 @@
     <sheet name="Aging" sheetId="19" r:id="rId4"/>
     <sheet name="Annotation" sheetId="18" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="312">
   <si>
     <t>Age</t>
   </si>
@@ -876,22 +885,9 @@
     <t>Type</t>
   </si>
   <si>
-    <t>rawdata</t>
-  </si>
-  <si>
-    <t>Plateform
-(copied)</t>
-  </si>
-  <si>
-    <t>rawdata?</t>
-  </si>
-  <si>
     <t>geo</t>
   </si>
   <si>
-    <t>data from</t>
-  </si>
-  <si>
     <t>oldしかない, RNAseq and Riboseq</t>
   </si>
   <si>
@@ -902,9 +898,6 @@
   </si>
   <si>
     <t>memo</t>
-  </si>
-  <si>
-    <t>ids?(gender/supplement)</t>
   </si>
   <si>
     <t>y</t>
@@ -931,26 +924,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve"> Library</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>se</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Library</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>kit</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>strandness</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>GEO</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1027,6 +1008,60 @@
   </si>
   <si>
     <t>no young samples? miRna-seq / Ribo-seq</t>
+  </si>
+  <si>
+    <t>strand</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>fastp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>fastqc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>star</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>fc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>deseq</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Platform</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>raw
+data?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>data
+from</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>library</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>plateform</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>id, supplement info missing</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1034,13 +1069,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1048,20 +1083,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1316,7 +1351,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1327,7 +1362,7 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1345,7 +1380,7 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1403,7 +1438,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1412,7 +1447,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1431,7 +1466,7 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1450,7 +1485,7 @@
     <xf numFmtId="1" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1483,13 +1518,13 @@
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1513,10 +1548,10 @@
     <xf numFmtId="1" fontId="18" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1528,10 +1563,10 @@
     <xf numFmtId="1" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1546,10 +1581,10 @@
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1571,7 +1606,7 @@
     <xf numFmtId="1" fontId="13" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1587,7 +1622,7 @@
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1609,7 +1644,7 @@
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1648,7 +1683,7 @@
     <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1669,7 +1704,7 @@
     <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1710,11 +1745,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2015,7 +2056,7 @@
       <selection pane="bottomRight" activeCell="Q6" sqref="Q6:Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="11" bestFit="1" customWidth="1"/>
@@ -2047,7 +2088,7 @@
     <col min="29" max="16384" width="13" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="7" customFormat="1" ht="39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="7" customFormat="1" ht="39">
       <c r="A1" s="15" t="s">
         <v>79</v>
       </c>
@@ -2145,7 +2186,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" s="31" customFormat="1" ht="13">
       <c r="A2" s="26" t="s">
         <v>41</v>
       </c>
@@ -2230,7 +2271,7 @@
         <v>GSE43219_N.A_F_YNG_ACT_OWE_HLY_IMM</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" s="31" customFormat="1" ht="13">
       <c r="A3" s="26" t="s">
         <v>41</v>
       </c>
@@ -2315,7 +2356,7 @@
         <v>GSE43219_N.A_M_YNG_ACT_OWE_HLY_IMM</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" s="31" customFormat="1" ht="13">
       <c r="A4" s="43" t="s">
         <v>45</v>
       </c>
@@ -2400,7 +2441,7 @@
         <v>GSE68585_VAL_F_MDL_SED_OWE_CKD_IMM</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" s="31" customFormat="1" ht="13">
       <c r="A5" s="43" t="s">
         <v>45</v>
       </c>
@@ -2485,7 +2526,7 @@
         <v>GSE68585_VAL_M_MDL_SED_OWE_CKD_IMM</v>
       </c>
     </row>
-    <row r="6" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" s="31" customFormat="1" ht="13">
       <c r="A6" s="26" t="s">
         <v>46</v>
       </c>
@@ -2568,7 +2609,7 @@
         <v>GSE71972_VAL_F_YNG_ACT_LEA_HLY_IMM</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" s="31" customFormat="1" ht="13">
       <c r="A7" s="26" t="s">
         <v>46</v>
       </c>
@@ -2651,7 +2692,7 @@
         <v>GSE71972_VAL_F_YNG_ACT_LEA_HLY_REC</v>
       </c>
     </row>
-    <row r="8" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" s="31" customFormat="1" ht="13">
       <c r="A8" s="26" t="s">
         <v>46</v>
       </c>
@@ -2734,7 +2775,7 @@
         <v>GSE71972_VAL_M_YNG_ACT_LEA_HLY_IMM</v>
       </c>
     </row>
-    <row r="9" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" s="31" customFormat="1" ht="13">
       <c r="A9" s="26" t="s">
         <v>46</v>
       </c>
@@ -2817,7 +2858,7 @@
         <v>GSE71972_VAL_M_YNG_ACT_LEA_HLY_REC</v>
       </c>
     </row>
-    <row r="10" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" s="31" customFormat="1" ht="13">
       <c r="A10" s="26" t="s">
         <v>60</v>
       </c>
@@ -2902,7 +2943,7 @@
         <v>GSE24235_BIB_M_YNG_SED_LEA_HLY_REC_MIX</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" s="36" customFormat="1" ht="13">
       <c r="A11" s="26" t="s">
         <v>60</v>
       </c>
@@ -2987,7 +3028,7 @@
         <v>GSE24235_BIB_F_YNG_SED_LEA_HLY_REC_MIX</v>
       </c>
     </row>
-    <row r="12" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" s="31" customFormat="1" ht="13">
       <c r="A12" s="26" t="s">
         <v>64</v>
       </c>
@@ -3070,7 +3111,7 @@
         <v>GSE28422_VAL_F_ELD_SED_OWE_HLY_REC_MIX</v>
       </c>
     </row>
-    <row r="13" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" s="31" customFormat="1" ht="13">
       <c r="A13" s="26" t="s">
         <v>64</v>
       </c>
@@ -3153,7 +3194,7 @@
         <v>GSE28422_VAL_F_ELD_ACT_OWE_HLY_REC_MIX</v>
       </c>
     </row>
-    <row r="14" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" s="31" customFormat="1" ht="13">
       <c r="A14" s="26" t="s">
         <v>64</v>
       </c>
@@ -3236,7 +3277,7 @@
         <v>GSE28422_VAL_F_YNG_SED_LEA_HLY_REC_MIX</v>
       </c>
     </row>
-    <row r="15" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" s="31" customFormat="1" ht="13">
       <c r="A15" s="26" t="s">
         <v>64</v>
       </c>
@@ -3319,7 +3360,7 @@
         <v>GSE28422_VAL_F_YNG_ACT_LEA_HLY_REC_MIX</v>
       </c>
     </row>
-    <row r="16" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" s="31" customFormat="1" ht="13">
       <c r="A16" s="26" t="s">
         <v>64</v>
       </c>
@@ -3402,7 +3443,7 @@
         <v>GSE28422_VAL_M_ELD_SED_OWE_HLY_REC_MIX</v>
       </c>
     </row>
-    <row r="17" spans="1:31" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" s="31" customFormat="1" ht="13">
       <c r="A17" s="26" t="s">
         <v>64</v>
       </c>
@@ -3485,7 +3526,7 @@
         <v>GSE28422_VAL_M_ELD_ACT_OWE_HLY_REC_MIX</v>
       </c>
     </row>
-    <row r="18" spans="1:31" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" s="31" customFormat="1" ht="13">
       <c r="A18" s="26" t="s">
         <v>64</v>
       </c>
@@ -3568,7 +3609,7 @@
         <v>GSE28422_VAL_M_YNG_SED_LEA_HLY_REC_MIX</v>
       </c>
     </row>
-    <row r="19" spans="1:31" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" s="31" customFormat="1" ht="13">
       <c r="A19" s="26" t="s">
         <v>64</v>
       </c>
@@ -3651,7 +3692,7 @@
         <v>GSE28422_VAL_M_YNG_ACT_LEA_HLY_REC_MIX</v>
       </c>
     </row>
-    <row r="20" spans="1:31" s="31" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:31" s="31" customFormat="1" ht="26">
       <c r="A20" s="37" t="s">
         <v>253</v>
       </c>
@@ -3699,7 +3740,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="1:31" s="31" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:31" s="31" customFormat="1" ht="26">
       <c r="A21" s="37" t="s">
         <v>253</v>
       </c>
@@ -3747,7 +3788,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:31">
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="N22" s="13"/>
@@ -3762,7 +3803,7 @@
       <c r="Z22" s="11"/>
       <c r="AA22" s="11"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:31">
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="N23" s="13"/>
@@ -3777,7 +3818,7 @@
       <c r="Z23" s="11"/>
       <c r="AA23" s="11"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:31">
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="N24" s="13"/>
@@ -3792,7 +3833,7 @@
       <c r="Z24" s="11"/>
       <c r="AA24" s="11"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:31">
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="N25" s="13"/>
@@ -3807,7 +3848,7 @@
       <c r="Z25" s="11"/>
       <c r="AA25" s="11"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:31">
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="N26" s="13"/>
@@ -3822,7 +3863,7 @@
       <c r="Z26" s="11"/>
       <c r="AA26" s="11"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:31">
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="N27" s="13"/>
@@ -3837,7 +3878,7 @@
       <c r="Z27" s="11"/>
       <c r="AA27" s="11"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:31">
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="N28" s="13"/>
@@ -3852,7 +3893,7 @@
       <c r="Z28" s="11"/>
       <c r="AA28" s="11"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:31">
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="N29" s="13"/>
@@ -3867,7 +3908,7 @@
       <c r="Z29" s="11"/>
       <c r="AA29" s="11"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:31">
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="N30" s="13"/>
@@ -3882,7 +3923,7 @@
       <c r="Z30" s="11"/>
       <c r="AA30" s="11"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:31">
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="N31" s="13"/>
@@ -3897,7 +3938,7 @@
       <c r="Z31" s="11"/>
       <c r="AA31" s="11"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:31">
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="N32" s="13"/>
@@ -3912,7 +3953,7 @@
       <c r="Z32" s="11"/>
       <c r="AA32" s="11"/>
     </row>
-    <row r="33" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="33" spans="11:27">
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="N33" s="13"/>
@@ -3927,7 +3968,7 @@
       <c r="Z33" s="11"/>
       <c r="AA33" s="11"/>
     </row>
-    <row r="34" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="34" spans="11:27">
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="N34" s="13"/>
@@ -3942,7 +3983,7 @@
       <c r="Z34" s="11"/>
       <c r="AA34" s="11"/>
     </row>
-    <row r="35" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="35" spans="11:27">
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="N35" s="13"/>
@@ -3957,7 +3998,7 @@
       <c r="Z35" s="11"/>
       <c r="AA35" s="11"/>
     </row>
-    <row r="36" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="36" spans="11:27">
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="N36" s="13"/>
@@ -3972,7 +4013,7 @@
       <c r="Z36" s="11"/>
       <c r="AA36" s="11"/>
     </row>
-    <row r="37" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="37" spans="11:27">
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="N37" s="13"/>
@@ -3987,7 +4028,7 @@
       <c r="Z37" s="11"/>
       <c r="AA37" s="11"/>
     </row>
-    <row r="38" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="38" spans="11:27">
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="N38" s="13"/>
@@ -4002,7 +4043,7 @@
       <c r="Z38" s="11"/>
       <c r="AA38" s="11"/>
     </row>
-    <row r="39" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="39" spans="11:27">
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="N39" s="13"/>
@@ -4017,7 +4058,7 @@
       <c r="Z39" s="11"/>
       <c r="AA39" s="11"/>
     </row>
-    <row r="40" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="40" spans="11:27">
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="N40" s="13"/>
@@ -4032,7 +4073,7 @@
       <c r="Z40" s="11"/>
       <c r="AA40" s="11"/>
     </row>
-    <row r="41" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="41" spans="11:27">
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="N41" s="13"/>
@@ -4047,7 +4088,7 @@
       <c r="Z41" s="11"/>
       <c r="AA41" s="11"/>
     </row>
-    <row r="42" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="42" spans="11:27">
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="N42" s="13"/>
@@ -4062,7 +4103,7 @@
       <c r="Z42" s="11"/>
       <c r="AA42" s="11"/>
     </row>
-    <row r="43" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="43" spans="11:27">
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="N43" s="13"/>
@@ -4077,7 +4118,7 @@
       <c r="Z43" s="11"/>
       <c r="AA43" s="11"/>
     </row>
-    <row r="44" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="44" spans="11:27">
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="N44" s="13"/>
@@ -4092,7 +4133,7 @@
       <c r="Z44" s="11"/>
       <c r="AA44" s="11"/>
     </row>
-    <row r="45" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="45" spans="11:27">
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="N45" s="13"/>
@@ -4107,7 +4148,7 @@
       <c r="Z45" s="11"/>
       <c r="AA45" s="11"/>
     </row>
-    <row r="46" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="46" spans="11:27">
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="N46" s="13"/>
@@ -4122,7 +4163,7 @@
       <c r="Z46" s="11"/>
       <c r="AA46" s="11"/>
     </row>
-    <row r="47" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="47" spans="11:27">
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="N47" s="13"/>
@@ -4137,7 +4178,7 @@
       <c r="Z47" s="11"/>
       <c r="AA47" s="11"/>
     </row>
-    <row r="48" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="48" spans="11:27">
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
       <c r="N48" s="13"/>
@@ -4152,7 +4193,7 @@
       <c r="Z48" s="11"/>
       <c r="AA48" s="11"/>
     </row>
-    <row r="49" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="49" spans="11:27">
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="N49" s="13"/>
@@ -4167,7 +4208,7 @@
       <c r="Z49" s="11"/>
       <c r="AA49" s="11"/>
     </row>
-    <row r="50" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="50" spans="11:27">
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="N50" s="13"/>
@@ -4182,7 +4223,7 @@
       <c r="Z50" s="11"/>
       <c r="AA50" s="11"/>
     </row>
-    <row r="51" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="51" spans="11:27">
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
       <c r="N51" s="13"/>
@@ -4197,7 +4238,7 @@
       <c r="Z51" s="11"/>
       <c r="AA51" s="11"/>
     </row>
-    <row r="52" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="52" spans="11:27">
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
       <c r="N52" s="13"/>
@@ -4212,7 +4253,7 @@
       <c r="Z52" s="11"/>
       <c r="AA52" s="11"/>
     </row>
-    <row r="53" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="53" spans="11:27">
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
       <c r="N53" s="13"/>
@@ -4227,7 +4268,7 @@
       <c r="Z53" s="11"/>
       <c r="AA53" s="11"/>
     </row>
-    <row r="54" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="54" spans="11:27">
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
       <c r="N54" s="13"/>
@@ -4242,7 +4283,7 @@
       <c r="Z54" s="11"/>
       <c r="AA54" s="11"/>
     </row>
-    <row r="55" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="55" spans="11:27">
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
       <c r="N55" s="13"/>
@@ -4257,7 +4298,7 @@
       <c r="Z55" s="11"/>
       <c r="AA55" s="11"/>
     </row>
-    <row r="56" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="56" spans="11:27">
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
       <c r="N56" s="13"/>
@@ -4272,7 +4313,7 @@
       <c r="Z56" s="11"/>
       <c r="AA56" s="11"/>
     </row>
-    <row r="57" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="57" spans="11:27">
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
       <c r="N57" s="13"/>
@@ -4287,7 +4328,7 @@
       <c r="Z57" s="11"/>
       <c r="AA57" s="11"/>
     </row>
-    <row r="58" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="58" spans="11:27">
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
       <c r="N58" s="13"/>
@@ -4302,7 +4343,7 @@
       <c r="Z58" s="11"/>
       <c r="AA58" s="11"/>
     </row>
-    <row r="59" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="59" spans="11:27">
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
       <c r="N59" s="13"/>
@@ -4317,7 +4358,7 @@
       <c r="Z59" s="11"/>
       <c r="AA59" s="11"/>
     </row>
-    <row r="60" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="60" spans="11:27">
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
       <c r="N60" s="13"/>
@@ -4332,7 +4373,7 @@
       <c r="Z60" s="11"/>
       <c r="AA60" s="11"/>
     </row>
-    <row r="61" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="61" spans="11:27">
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
       <c r="N61" s="13"/>
@@ -4347,7 +4388,7 @@
       <c r="Z61" s="11"/>
       <c r="AA61" s="11"/>
     </row>
-    <row r="62" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="62" spans="11:27">
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
       <c r="N62" s="13"/>
@@ -4362,7 +4403,7 @@
       <c r="Z62" s="11"/>
       <c r="AA62" s="11"/>
     </row>
-    <row r="63" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="63" spans="11:27">
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
       <c r="N63" s="13"/>
@@ -4377,7 +4418,7 @@
       <c r="Z63" s="11"/>
       <c r="AA63" s="11"/>
     </row>
-    <row r="64" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="64" spans="11:27">
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
       <c r="N64" s="13"/>
@@ -4392,7 +4433,7 @@
       <c r="Z64" s="11"/>
       <c r="AA64" s="11"/>
     </row>
-    <row r="65" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="65" spans="11:27">
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
       <c r="N65" s="13"/>
@@ -4407,7 +4448,7 @@
       <c r="Z65" s="11"/>
       <c r="AA65" s="11"/>
     </row>
-    <row r="66" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="66" spans="11:27">
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
       <c r="N66" s="13"/>
@@ -4422,7 +4463,7 @@
       <c r="Z66" s="11"/>
       <c r="AA66" s="11"/>
     </row>
-    <row r="67" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="67" spans="11:27">
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
       <c r="N67" s="13"/>
@@ -4437,7 +4478,7 @@
       <c r="Z67" s="11"/>
       <c r="AA67" s="11"/>
     </row>
-    <row r="68" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="68" spans="11:27">
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
       <c r="N68" s="13"/>
@@ -4452,7 +4493,7 @@
       <c r="Z68" s="11"/>
       <c r="AA68" s="11"/>
     </row>
-    <row r="69" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="69" spans="11:27">
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
       <c r="N69" s="13"/>
@@ -4467,7 +4508,7 @@
       <c r="Z69" s="11"/>
       <c r="AA69" s="11"/>
     </row>
-    <row r="70" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="70" spans="11:27">
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="N70" s="13"/>
@@ -4482,7 +4523,7 @@
       <c r="Z70" s="11"/>
       <c r="AA70" s="11"/>
     </row>
-    <row r="71" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="71" spans="11:27">
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
       <c r="N71" s="13"/>
@@ -4497,7 +4538,7 @@
       <c r="Z71" s="11"/>
       <c r="AA71" s="11"/>
     </row>
-    <row r="72" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="72" spans="11:27">
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="N72" s="13"/>
@@ -4512,7 +4553,7 @@
       <c r="Z72" s="11"/>
       <c r="AA72" s="11"/>
     </row>
-    <row r="73" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="73" spans="11:27">
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
       <c r="N73" s="13"/>
@@ -4527,7 +4568,7 @@
       <c r="Z73" s="11"/>
       <c r="AA73" s="11"/>
     </row>
-    <row r="74" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="74" spans="11:27">
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
       <c r="N74" s="13"/>
@@ -4542,7 +4583,7 @@
       <c r="Z74" s="11"/>
       <c r="AA74" s="11"/>
     </row>
-    <row r="75" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="75" spans="11:27">
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
       <c r="N75" s="13"/>
@@ -4557,7 +4598,7 @@
       <c r="Z75" s="11"/>
       <c r="AA75" s="11"/>
     </row>
-    <row r="76" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="76" spans="11:27">
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
       <c r="N76" s="13"/>
@@ -4572,7 +4613,7 @@
       <c r="Z76" s="11"/>
       <c r="AA76" s="11"/>
     </row>
-    <row r="77" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="77" spans="11:27">
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
       <c r="N77" s="13"/>
@@ -4587,7 +4628,7 @@
       <c r="Z77" s="11"/>
       <c r="AA77" s="11"/>
     </row>
-    <row r="78" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="78" spans="11:27">
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
       <c r="N78" s="13"/>
@@ -4602,7 +4643,7 @@
       <c r="Z78" s="11"/>
       <c r="AA78" s="11"/>
     </row>
-    <row r="79" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="79" spans="11:27">
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
       <c r="N79" s="13"/>
@@ -4617,7 +4658,7 @@
       <c r="Z79" s="11"/>
       <c r="AA79" s="11"/>
     </row>
-    <row r="80" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="80" spans="11:27">
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
       <c r="N80" s="13"/>
@@ -4632,7 +4673,7 @@
       <c r="Z80" s="11"/>
       <c r="AA80" s="11"/>
     </row>
-    <row r="81" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="81" spans="11:27">
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
       <c r="N81" s="13"/>
@@ -4647,7 +4688,7 @@
       <c r="Z81" s="11"/>
       <c r="AA81" s="11"/>
     </row>
-    <row r="82" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="82" spans="11:27">
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
       <c r="N82" s="13"/>
@@ -4662,7 +4703,7 @@
       <c r="Z82" s="11"/>
       <c r="AA82" s="11"/>
     </row>
-    <row r="83" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="83" spans="11:27">
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
       <c r="N83" s="13"/>
@@ -4677,7 +4718,7 @@
       <c r="Z83" s="11"/>
       <c r="AA83" s="11"/>
     </row>
-    <row r="84" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="84" spans="11:27">
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
       <c r="N84" s="13"/>
@@ -4692,7 +4733,7 @@
       <c r="Z84" s="11"/>
       <c r="AA84" s="11"/>
     </row>
-    <row r="85" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="85" spans="11:27">
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
       <c r="N85" s="13"/>
@@ -4707,7 +4748,7 @@
       <c r="Z85" s="11"/>
       <c r="AA85" s="11"/>
     </row>
-    <row r="86" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="86" spans="11:27">
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
       <c r="N86" s="13"/>
@@ -4722,7 +4763,7 @@
       <c r="Z86" s="11"/>
       <c r="AA86" s="11"/>
     </row>
-    <row r="87" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="87" spans="11:27">
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
       <c r="N87" s="13"/>
@@ -4737,7 +4778,7 @@
       <c r="Z87" s="11"/>
       <c r="AA87" s="11"/>
     </row>
-    <row r="88" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="88" spans="11:27">
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
       <c r="N88" s="13"/>
@@ -4752,7 +4793,7 @@
       <c r="Z88" s="11"/>
       <c r="AA88" s="11"/>
     </row>
-    <row r="89" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="89" spans="11:27">
       <c r="K89" s="8"/>
       <c r="L89" s="8"/>
       <c r="N89" s="13"/>
@@ -4767,7 +4808,7 @@
       <c r="Z89" s="11"/>
       <c r="AA89" s="11"/>
     </row>
-    <row r="90" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="90" spans="11:27">
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
       <c r="N90" s="13"/>
@@ -4782,7 +4823,7 @@
       <c r="Z90" s="11"/>
       <c r="AA90" s="11"/>
     </row>
-    <row r="91" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="91" spans="11:27">
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
       <c r="N91" s="13"/>
@@ -4797,7 +4838,7 @@
       <c r="Z91" s="11"/>
       <c r="AA91" s="11"/>
     </row>
-    <row r="92" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="92" spans="11:27">
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
       <c r="N92" s="13"/>
@@ -4812,7 +4853,7 @@
       <c r="Z92" s="11"/>
       <c r="AA92" s="11"/>
     </row>
-    <row r="93" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="93" spans="11:27">
       <c r="K93" s="8"/>
       <c r="L93" s="8"/>
       <c r="N93" s="13"/>
@@ -4827,7 +4868,7 @@
       <c r="Z93" s="11"/>
       <c r="AA93" s="11"/>
     </row>
-    <row r="94" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="94" spans="11:27">
       <c r="K94" s="8"/>
       <c r="L94" s="8"/>
       <c r="N94" s="13"/>
@@ -4842,7 +4883,7 @@
       <c r="Z94" s="11"/>
       <c r="AA94" s="11"/>
     </row>
-    <row r="95" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="95" spans="11:27">
       <c r="K95" s="8"/>
       <c r="L95" s="8"/>
       <c r="N95" s="13"/>
@@ -4857,7 +4898,7 @@
       <c r="Z95" s="11"/>
       <c r="AA95" s="11"/>
     </row>
-    <row r="96" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="96" spans="11:27">
       <c r="K96" s="8"/>
       <c r="L96" s="8"/>
       <c r="N96" s="13"/>
@@ -4872,7 +4913,7 @@
       <c r="Z96" s="11"/>
       <c r="AA96" s="11"/>
     </row>
-    <row r="97" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="97" spans="11:27">
       <c r="K97" s="8"/>
       <c r="L97" s="8"/>
       <c r="N97" s="13"/>
@@ -4887,7 +4928,7 @@
       <c r="Z97" s="11"/>
       <c r="AA97" s="11"/>
     </row>
-    <row r="98" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="98" spans="11:27">
       <c r="K98" s="8"/>
       <c r="L98" s="8"/>
       <c r="N98" s="13"/>
@@ -4902,7 +4943,7 @@
       <c r="Z98" s="11"/>
       <c r="AA98" s="11"/>
     </row>
-    <row r="99" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="99" spans="11:27">
       <c r="K99" s="8"/>
       <c r="L99" s="8"/>
       <c r="N99" s="13"/>
@@ -4917,7 +4958,7 @@
       <c r="Z99" s="11"/>
       <c r="AA99" s="11"/>
     </row>
-    <row r="100" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="100" spans="11:27">
       <c r="K100" s="8"/>
       <c r="L100" s="8"/>
       <c r="N100" s="13"/>
@@ -4932,7 +4973,7 @@
       <c r="Z100" s="11"/>
       <c r="AA100" s="11"/>
     </row>
-    <row r="101" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="101" spans="11:27">
       <c r="K101" s="8"/>
       <c r="L101" s="8"/>
       <c r="N101" s="13"/>
@@ -4947,7 +4988,7 @@
       <c r="Z101" s="11"/>
       <c r="AA101" s="11"/>
     </row>
-    <row r="102" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="102" spans="11:27">
       <c r="K102" s="8"/>
       <c r="L102" s="8"/>
       <c r="N102" s="13"/>
@@ -4962,7 +5003,7 @@
       <c r="Z102" s="11"/>
       <c r="AA102" s="11"/>
     </row>
-    <row r="103" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="103" spans="11:27">
       <c r="K103" s="8"/>
       <c r="L103" s="8"/>
       <c r="N103" s="13"/>
@@ -4977,7 +5018,7 @@
       <c r="Z103" s="11"/>
       <c r="AA103" s="11"/>
     </row>
-    <row r="104" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="104" spans="11:27">
       <c r="K104" s="8"/>
       <c r="L104" s="8"/>
       <c r="N104" s="13"/>
@@ -4992,7 +5033,7 @@
       <c r="Z104" s="11"/>
       <c r="AA104" s="11"/>
     </row>
-    <row r="105" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="105" spans="11:27">
       <c r="K105" s="8"/>
       <c r="L105" s="8"/>
       <c r="N105" s="13"/>
@@ -5007,7 +5048,7 @@
       <c r="Z105" s="11"/>
       <c r="AA105" s="11"/>
     </row>
-    <row r="106" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="106" spans="11:27">
       <c r="K106" s="8"/>
       <c r="L106" s="8"/>
       <c r="N106" s="13"/>
@@ -5022,7 +5063,7 @@
       <c r="Z106" s="11"/>
       <c r="AA106" s="11"/>
     </row>
-    <row r="107" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="107" spans="11:27">
       <c r="K107" s="8"/>
       <c r="L107" s="8"/>
       <c r="N107" s="13"/>
@@ -5037,7 +5078,7 @@
       <c r="Z107" s="11"/>
       <c r="AA107" s="11"/>
     </row>
-    <row r="108" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="108" spans="11:27">
       <c r="K108" s="8"/>
       <c r="L108" s="8"/>
       <c r="N108" s="13"/>
@@ -5052,7 +5093,7 @@
       <c r="Z108" s="11"/>
       <c r="AA108" s="11"/>
     </row>
-    <row r="109" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="109" spans="11:27">
       <c r="K109" s="8"/>
       <c r="L109" s="8"/>
       <c r="N109" s="13"/>
@@ -5067,7 +5108,7 @@
       <c r="Z109" s="11"/>
       <c r="AA109" s="11"/>
     </row>
-    <row r="110" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="110" spans="11:27">
       <c r="K110" s="8"/>
       <c r="L110" s="8"/>
       <c r="N110" s="13"/>
@@ -5082,7 +5123,7 @@
       <c r="Z110" s="11"/>
       <c r="AA110" s="11"/>
     </row>
-    <row r="111" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="111" spans="11:27">
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
       <c r="N111" s="13"/>
@@ -5097,7 +5138,7 @@
       <c r="Z111" s="11"/>
       <c r="AA111" s="11"/>
     </row>
-    <row r="112" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="112" spans="11:27">
       <c r="K112" s="8"/>
       <c r="L112" s="8"/>
       <c r="N112" s="13"/>
@@ -5112,7 +5153,7 @@
       <c r="Z112" s="11"/>
       <c r="AA112" s="11"/>
     </row>
-    <row r="113" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="113" spans="11:27">
       <c r="K113" s="8"/>
       <c r="L113" s="8"/>
       <c r="N113" s="13"/>
@@ -5127,7 +5168,7 @@
       <c r="Z113" s="11"/>
       <c r="AA113" s="11"/>
     </row>
-    <row r="114" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="114" spans="11:27">
       <c r="K114" s="8"/>
       <c r="L114" s="8"/>
       <c r="N114" s="13"/>
@@ -5142,7 +5183,7 @@
       <c r="Z114" s="11"/>
       <c r="AA114" s="11"/>
     </row>
-    <row r="115" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="115" spans="11:27">
       <c r="K115" s="8"/>
       <c r="L115" s="8"/>
       <c r="N115" s="13"/>
@@ -5157,7 +5198,7 @@
       <c r="Z115" s="11"/>
       <c r="AA115" s="11"/>
     </row>
-    <row r="116" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="116" spans="11:27">
       <c r="K116" s="8"/>
       <c r="L116" s="8"/>
       <c r="N116" s="13"/>
@@ -5172,7 +5213,7 @@
       <c r="Z116" s="11"/>
       <c r="AA116" s="11"/>
     </row>
-    <row r="117" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="117" spans="11:27">
       <c r="K117" s="8"/>
       <c r="L117" s="8"/>
       <c r="N117" s="13"/>
@@ -5187,7 +5228,7 @@
       <c r="Z117" s="11"/>
       <c r="AA117" s="11"/>
     </row>
-    <row r="118" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="118" spans="11:27">
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
       <c r="N118" s="13"/>
@@ -5202,7 +5243,7 @@
       <c r="Z118" s="11"/>
       <c r="AA118" s="11"/>
     </row>
-    <row r="119" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="119" spans="11:27">
       <c r="K119" s="8"/>
       <c r="L119" s="8"/>
       <c r="N119" s="13"/>
@@ -5217,7 +5258,7 @@
       <c r="Z119" s="11"/>
       <c r="AA119" s="11"/>
     </row>
-    <row r="120" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="120" spans="11:27">
       <c r="K120" s="8"/>
       <c r="L120" s="8"/>
       <c r="N120" s="13"/>
@@ -5232,7 +5273,7 @@
       <c r="Z120" s="11"/>
       <c r="AA120" s="11"/>
     </row>
-    <row r="121" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="121" spans="11:27">
       <c r="K121" s="8"/>
       <c r="L121" s="8"/>
       <c r="N121" s="13"/>
@@ -5247,7 +5288,7 @@
       <c r="Z121" s="11"/>
       <c r="AA121" s="11"/>
     </row>
-    <row r="122" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="122" spans="11:27">
       <c r="K122" s="8"/>
       <c r="L122" s="8"/>
       <c r="N122" s="13"/>
@@ -5262,7 +5303,7 @@
       <c r="Z122" s="11"/>
       <c r="AA122" s="11"/>
     </row>
-    <row r="123" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="123" spans="11:27">
       <c r="K123" s="8"/>
       <c r="L123" s="8"/>
       <c r="N123" s="13"/>
@@ -5277,7 +5318,7 @@
       <c r="Z123" s="11"/>
       <c r="AA123" s="11"/>
     </row>
-    <row r="124" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="124" spans="11:27">
       <c r="K124" s="8"/>
       <c r="L124" s="8"/>
       <c r="N124" s="13"/>
@@ -5292,7 +5333,7 @@
       <c r="Z124" s="11"/>
       <c r="AA124" s="11"/>
     </row>
-    <row r="125" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="125" spans="11:27">
       <c r="K125" s="8"/>
       <c r="L125" s="8"/>
       <c r="N125" s="13"/>
@@ -5307,7 +5348,7 @@
       <c r="Z125" s="11"/>
       <c r="AA125" s="11"/>
     </row>
-    <row r="126" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="126" spans="11:27">
       <c r="K126" s="8"/>
       <c r="L126" s="8"/>
       <c r="N126" s="13"/>
@@ -5322,7 +5363,7 @@
       <c r="Z126" s="11"/>
       <c r="AA126" s="11"/>
     </row>
-    <row r="127" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="127" spans="11:27">
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
       <c r="N127" s="13"/>
@@ -5337,7 +5378,7 @@
       <c r="Z127" s="11"/>
       <c r="AA127" s="11"/>
     </row>
-    <row r="128" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="128" spans="11:27">
       <c r="K128" s="8"/>
       <c r="L128" s="8"/>
       <c r="N128" s="13"/>
@@ -5352,7 +5393,7 @@
       <c r="Z128" s="11"/>
       <c r="AA128" s="11"/>
     </row>
-    <row r="129" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="129" spans="11:27">
       <c r="K129" s="8"/>
       <c r="L129" s="8"/>
       <c r="N129" s="13"/>
@@ -5367,7 +5408,7 @@
       <c r="Z129" s="11"/>
       <c r="AA129" s="11"/>
     </row>
-    <row r="130" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="130" spans="11:27">
       <c r="K130" s="8"/>
       <c r="L130" s="8"/>
       <c r="N130" s="13"/>
@@ -5382,7 +5423,7 @@
       <c r="Z130" s="11"/>
       <c r="AA130" s="11"/>
     </row>
-    <row r="131" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="131" spans="11:27">
       <c r="K131" s="8"/>
       <c r="L131" s="8"/>
       <c r="N131" s="13"/>
@@ -5397,7 +5438,7 @@
       <c r="Z131" s="11"/>
       <c r="AA131" s="11"/>
     </row>
-    <row r="132" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="132" spans="11:27">
       <c r="K132" s="8"/>
       <c r="L132" s="8"/>
       <c r="N132" s="13"/>
@@ -5412,7 +5453,7 @@
       <c r="Z132" s="11"/>
       <c r="AA132" s="11"/>
     </row>
-    <row r="133" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="133" spans="11:27">
       <c r="K133" s="8"/>
       <c r="L133" s="8"/>
       <c r="N133" s="13"/>
@@ -5427,7 +5468,7 @@
       <c r="Z133" s="11"/>
       <c r="AA133" s="11"/>
     </row>
-    <row r="134" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="134" spans="11:27">
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
       <c r="N134" s="13"/>
@@ -5442,7 +5483,7 @@
       <c r="Z134" s="11"/>
       <c r="AA134" s="11"/>
     </row>
-    <row r="135" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="135" spans="11:27">
       <c r="K135" s="8"/>
       <c r="L135" s="8"/>
       <c r="N135" s="13"/>
@@ -5457,7 +5498,7 @@
       <c r="Z135" s="11"/>
       <c r="AA135" s="11"/>
     </row>
-    <row r="136" spans="11:27" x14ac:dyDescent="0.15">
+    <row r="136" spans="11:27">
       <c r="K136" s="8"/>
       <c r="L136" s="8"/>
       <c r="N136" s="13"/>
@@ -5490,7 +5531,7 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="54" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" style="55" customWidth="1"/>
@@ -5523,7 +5564,7 @@
     <col min="34" max="16384" width="13" style="48" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="89" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="89" customFormat="1">
       <c r="A1" s="86" t="s">
         <v>79</v>
       </c>
@@ -5624,7 +5665,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33">
       <c r="A2" s="90" t="s">
         <v>53</v>
       </c>
@@ -5711,7 +5752,7 @@
       <c r="AF2" s="61"/>
       <c r="AG2" s="61"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33">
       <c r="A3" s="90" t="s">
         <v>53</v>
       </c>
@@ -5798,7 +5839,7 @@
       <c r="AF3" s="61"/>
       <c r="AG3" s="61"/>
     </row>
-    <row r="4" spans="1:33" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" s="51" customFormat="1">
       <c r="A4" s="71" t="s">
         <v>60</v>
       </c>
@@ -5878,7 +5919,7 @@
         <v>GSE24235_BIB_F_YNG_SED_LEA_HLY</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" s="51" customFormat="1">
       <c r="A5" s="71" t="s">
         <v>60</v>
       </c>
@@ -5958,7 +5999,7 @@
         <v>GSE24235_BIB_M_YNG_SED_LEA_HLY</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33">
       <c r="A6" s="90" t="s">
         <v>64</v>
       </c>
@@ -6041,7 +6082,7 @@
       <c r="AF6" s="76"/>
       <c r="AG6" s="76"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33">
       <c r="A7" s="90" t="s">
         <v>64</v>
       </c>
@@ -6124,7 +6165,7 @@
       <c r="AF7" s="76"/>
       <c r="AG7" s="76"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33">
       <c r="A8" s="90" t="s">
         <v>64</v>
       </c>
@@ -6207,7 +6248,7 @@
       <c r="AF8" s="76"/>
       <c r="AG8" s="76"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33">
       <c r="A9" s="90" t="s">
         <v>64</v>
       </c>
@@ -6290,7 +6331,7 @@
       <c r="AF9" s="76"/>
       <c r="AG9" s="76"/>
     </row>
-    <row r="10" spans="1:33" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" s="51" customFormat="1">
       <c r="A10" s="71" t="s">
         <v>65</v>
       </c>
@@ -6370,7 +6411,7 @@
         <v>GSE28998_BIB_F_YNG_SED_OWE_HLY</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" s="51" customFormat="1">
       <c r="A11" s="71" t="s">
         <v>65</v>
       </c>
@@ -6451,7 +6492,7 @@
       </c>
       <c r="AF11" s="53"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33">
       <c r="A12" s="90" t="s">
         <v>56</v>
       </c>
@@ -6539,7 +6580,7 @@
       <c r="AF12" s="61"/>
       <c r="AG12" s="61"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33">
       <c r="A13" s="90" t="s">
         <v>56</v>
       </c>
@@ -6627,7 +6668,7 @@
       <c r="AF13" s="61"/>
       <c r="AG13" s="61"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33">
       <c r="A14" s="90" t="s">
         <v>56</v>
       </c>
@@ -6715,7 +6756,7 @@
       <c r="AF14" s="76"/>
       <c r="AG14" s="76"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33">
       <c r="A15" s="90" t="s">
         <v>56</v>
       </c>
@@ -6803,7 +6844,7 @@
       <c r="AF15" s="76"/>
       <c r="AG15" s="76"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33">
       <c r="A16" s="90" t="s">
         <v>57</v>
       </c>
@@ -6888,7 +6929,7 @@
       <c r="AF16" s="76"/>
       <c r="AG16" s="76"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33">
       <c r="A17" s="90" t="s">
         <v>57</v>
       </c>
@@ -6973,7 +7014,7 @@
       <c r="AF17" s="76"/>
       <c r="AG17" s="76"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33">
       <c r="A18" s="90" t="s">
         <v>57</v>
       </c>
@@ -7058,7 +7099,7 @@
       <c r="AF18" s="61"/>
       <c r="AG18" s="61"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33">
       <c r="A19" s="90" t="s">
         <v>57</v>
       </c>
@@ -7143,7 +7184,7 @@
       <c r="AF19" s="61"/>
       <c r="AG19" s="61"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33">
       <c r="A20" s="90" t="s">
         <v>58</v>
       </c>
@@ -7228,7 +7269,7 @@
       <c r="AF20" s="76"/>
       <c r="AG20" s="76"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33">
       <c r="A21" s="90" t="s">
         <v>58</v>
       </c>
@@ -7313,7 +7354,7 @@
       <c r="AF21" s="76"/>
       <c r="AG21" s="76"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33">
       <c r="A22" s="90" t="s">
         <v>165</v>
       </c>
@@ -7398,7 +7439,7 @@
       <c r="AF22" s="76"/>
       <c r="AG22" s="76"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33">
       <c r="A23" s="90" t="s">
         <v>165</v>
       </c>
@@ -7481,7 +7522,7 @@
       <c r="AF23" s="76"/>
       <c r="AG23" s="76"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33">
       <c r="A24" s="90" t="s">
         <v>165</v>
       </c>
@@ -7564,7 +7605,7 @@
       <c r="AF24" s="76"/>
       <c r="AG24" s="76"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33">
       <c r="A25" s="90" t="s">
         <v>165</v>
       </c>
@@ -7647,7 +7688,7 @@
       <c r="AF25" s="76"/>
       <c r="AG25" s="76"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33">
       <c r="A26" s="90" t="s">
         <v>231</v>
       </c>
@@ -7710,7 +7751,7 @@
       </c>
       <c r="AG26" s="61"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33">
       <c r="A27" s="90" t="s">
         <v>231</v>
       </c>
@@ -7812,263 +7853,294 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AM13"/>
+  <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E14" sqref="E14"/>
+      <selection pane="topRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="98" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" style="111"/>
     <col min="3" max="3" width="11.33203125" style="111" customWidth="1"/>
     <col min="4" max="4" width="28" style="111" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="136" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33" style="99" customWidth="1"/>
-    <col min="7" max="8" width="17" style="133" customWidth="1"/>
-    <col min="9" max="9" width="69" style="99" customWidth="1"/>
-    <col min="10" max="10" width="62.5" style="99" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" style="99" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.83203125" style="100"/>
-    <col min="14" max="14" width="9.83203125" style="101"/>
-    <col min="15" max="16" width="9.83203125" style="102"/>
-    <col min="17" max="17" width="20.33203125" style="99" customWidth="1"/>
-    <col min="18" max="18" width="9.83203125" style="102"/>
-    <col min="19" max="20" width="9.83203125" style="109"/>
-    <col min="21" max="21" width="9.83203125" style="99"/>
-    <col min="22" max="23" width="9.83203125" style="100"/>
-    <col min="24" max="27" width="9.83203125" style="99"/>
-    <col min="28" max="29" width="9.83203125" style="100"/>
-    <col min="30" max="30" width="9.83203125" style="101"/>
-    <col min="31" max="32" width="9.83203125" style="102"/>
+    <col min="6" max="6" width="27.33203125" style="99" customWidth="1"/>
+    <col min="7" max="8" width="7.83203125" style="133" customWidth="1"/>
+    <col min="9" max="13" width="10" style="56" customWidth="1"/>
+    <col min="14" max="14" width="69" style="99" customWidth="1"/>
+    <col min="15" max="15" width="62.5" style="99" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" style="99" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.83203125" style="100"/>
+    <col min="19" max="19" width="9.83203125" style="101"/>
+    <col min="20" max="21" width="9.83203125" style="102"/>
+    <col min="22" max="22" width="20.33203125" style="99" customWidth="1"/>
+    <col min="23" max="23" width="9.83203125" style="102"/>
+    <col min="24" max="25" width="9.83203125" style="109"/>
+    <col min="26" max="26" width="9.83203125" style="99"/>
+    <col min="27" max="28" width="9.83203125" style="100"/>
+    <col min="29" max="32" width="9.83203125" style="99"/>
     <col min="33" max="34" width="9.83203125" style="100"/>
-    <col min="35" max="35" width="9.83203125" style="99"/>
-    <col min="36" max="36" width="31.6640625" style="99" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="39.83203125" style="99" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="74.83203125" style="99" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="9.83203125" style="99"/>
+    <col min="35" max="35" width="9.83203125" style="101"/>
+    <col min="36" max="37" width="9.83203125" style="102"/>
+    <col min="38" max="39" width="9.83203125" style="100"/>
+    <col min="40" max="40" width="9.83203125" style="99"/>
+    <col min="41" max="41" width="31.6640625" style="99" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="39.83203125" style="99" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="74.83203125" style="99" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="9.83203125" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="120" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" s="120" customFormat="1" ht="38">
       <c r="A1" s="117" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="117" t="s">
-        <v>266</v>
+      <c r="B1" s="116" t="s">
+        <v>307</v>
       </c>
       <c r="C1" s="116" t="s">
+        <v>308</v>
+      </c>
+      <c r="D1" s="116" t="s">
         <v>270</v>
       </c>
-      <c r="D1" s="116" t="s">
-        <v>274</v>
-      </c>
       <c r="E1" s="134" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="F1" s="117" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="G1" s="129" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="H1" s="129" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="I1" s="117" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="J1" s="117" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="K1" s="117" t="s">
+        <v>302</v>
+      </c>
+      <c r="L1" s="117" t="s">
+        <v>303</v>
+      </c>
+      <c r="M1" s="117" t="s">
+        <v>304</v>
+      </c>
+      <c r="N1" s="117" t="s">
+        <v>279</v>
+      </c>
+      <c r="O1" s="117" t="s">
+        <v>280</v>
+      </c>
+      <c r="P1" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="117" t="s">
+      <c r="Q1" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="M1" s="117" t="s">
+      <c r="R1" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="125" t="s">
+      <c r="S1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="126" t="s">
+      <c r="T1" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="126" t="s">
+      <c r="U1" s="126" t="s">
         <v>122</v>
       </c>
-      <c r="Q1" s="117" t="s">
+      <c r="V1" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="126" t="s">
+      <c r="W1" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="126" t="s">
+      <c r="X1" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="T1" s="117" t="s">
+      <c r="Y1" s="117" t="s">
         <v>139</v>
       </c>
-      <c r="U1" s="117" t="s">
+      <c r="Z1" s="117" t="s">
         <v>189</v>
       </c>
-      <c r="V1" s="117" t="s">
+      <c r="AA1" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="117" t="s">
+      <c r="AB1" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="X1" s="117" t="s">
+      <c r="AC1" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="Y1" s="117" t="s">
+      <c r="AD1" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="117" t="s">
+      <c r="AE1" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="AA1" s="117" t="s">
+      <c r="AF1" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" s="125" t="s">
+      <c r="AG1" s="125" t="s">
         <v>121</v>
       </c>
-      <c r="AC1" s="125" t="s">
+      <c r="AH1" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="AD1" s="125" t="s">
+      <c r="AI1" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="AE1" s="126" t="s">
+      <c r="AJ1" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="126" t="s">
+      <c r="AK1" s="126" t="s">
         <v>169</v>
       </c>
-      <c r="AG1" s="117" t="s">
+      <c r="AL1" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="AH1" s="117" t="s">
+      <c r="AM1" s="117" t="s">
         <v>183</v>
       </c>
-      <c r="AI1" s="120" t="s">
+      <c r="AN1" s="120" t="s">
         <v>181</v>
       </c>
-      <c r="AJ1" s="120" t="s">
+      <c r="AO1" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="AK1" s="120" t="s">
+      <c r="AP1" s="120" t="s">
         <v>215</v>
       </c>
-      <c r="AL1" s="120" t="s">
+      <c r="AQ1" s="120" t="s">
         <v>218</v>
       </c>
-      <c r="AM1" s="120" t="s">
+      <c r="AR1" s="120" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" s="95" customFormat="1">
       <c r="A2" s="104" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B2" s="112" t="s">
         <v>145</v>
       </c>
       <c r="C2" s="124" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D2" s="112"/>
       <c r="E2" s="128" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F2" s="105" t="s">
         <v>143</v>
       </c>
       <c r="G2" s="128" t="s">
+        <v>297</v>
+      </c>
+      <c r="H2" s="128" t="s">
+        <v>297</v>
+      </c>
+      <c r="I2" s="128" t="s">
+        <v>297</v>
+      </c>
+      <c r="J2" s="128" t="s">
+        <v>297</v>
+      </c>
+      <c r="K2" s="128" t="s">
+        <v>297</v>
+      </c>
+      <c r="L2" s="128" t="s">
+        <v>297</v>
+      </c>
+      <c r="M2" s="140" t="s">
         <v>305</v>
       </c>
-      <c r="H2" s="128" t="s">
-        <v>305</v>
-      </c>
-      <c r="I2" s="105" t="s">
-        <v>303</v>
-      </c>
-      <c r="J2" s="105" t="s">
-        <v>304</v>
-      </c>
-      <c r="K2" s="106" t="s">
+      <c r="N2" s="105" t="s">
+        <v>295</v>
+      </c>
+      <c r="O2" s="105" t="s">
+        <v>296</v>
+      </c>
+      <c r="P2" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="92">
+      <c r="Q2" s="92">
         <v>12</v>
       </c>
-      <c r="M2" s="92" t="s">
+      <c r="R2" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="93">
+      <c r="S2" s="93">
         <v>20.8</v>
       </c>
-      <c r="O2" s="94">
+      <c r="T2" s="94">
         <v>24</v>
       </c>
-      <c r="P2" s="94" t="s">
+      <c r="U2" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="Q2" s="105" t="s">
+      <c r="V2" s="105" t="s">
         <v>151</v>
       </c>
-      <c r="R2" s="94"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105" t="s">
+      <c r="W2" s="94"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="U2" s="95" t="s">
+      <c r="Z2" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="V2" s="92">
+      <c r="AA2" s="92">
         <v>14</v>
       </c>
-      <c r="W2" s="92"/>
-      <c r="X2" s="105" t="s">
+      <c r="AB2" s="92"/>
+      <c r="AC2" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="Y2" s="105" t="s">
+      <c r="AD2" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="Z2" s="95" t="s">
+      <c r="AE2" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="92" t="s">
+      <c r="AG2" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="AC2" s="92" t="str">
-        <f t="shared" ref="AC2:AC9" si="0">M2</f>
+      <c r="AH2" s="92" t="str">
+        <f t="shared" ref="AH2:AH9" si="0">R2</f>
         <v>M</v>
       </c>
-      <c r="AD2" s="93" t="s">
+      <c r="AI2" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="AE2" s="94" t="s">
+      <c r="AJ2" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="AF2" s="94" t="s">
+      <c r="AK2" s="94" t="s">
         <v>170</v>
       </c>
-      <c r="AG2" s="92" t="s">
+      <c r="AL2" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="AH2" s="92" t="s">
+      <c r="AM2" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="AI2" s="95" t="str">
-        <f t="shared" ref="AI2:AI9" si="1">CONCATENATE(A2,"_",AB2,"_",AC2,"_",AD2,"_",AE2,"_",AF2,"_",AG2,"_",AH2)</f>
+      <c r="AN2" s="95" t="str">
+        <f t="shared" ref="AN2:AN9" si="1">CONCATENATE(A2,"_",AG2,"_",AH2,"_",AI2,"_",AJ2,"_",AK2,"_",AL2,"_",AM2)</f>
         <v>GSE14901_VAL_M_YNG_SED_LEA_HLY_MED</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" s="95" customFormat="1">
       <c r="A3" s="104" t="s">
         <v>146</v>
       </c>
@@ -8076,97 +8148,112 @@
         <v>145</v>
       </c>
       <c r="C3" s="124" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D3" s="112"/>
       <c r="E3" s="128" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F3" s="105" t="s">
         <v>143</v>
       </c>
       <c r="G3" s="128" t="s">
+        <v>297</v>
+      </c>
+      <c r="H3" s="128" t="s">
+        <v>297</v>
+      </c>
+      <c r="I3" s="128" t="s">
+        <v>297</v>
+      </c>
+      <c r="J3" s="128" t="s">
+        <v>297</v>
+      </c>
+      <c r="K3" s="128" t="s">
+        <v>297</v>
+      </c>
+      <c r="L3" s="128" t="s">
+        <v>297</v>
+      </c>
+      <c r="M3" s="140" t="s">
         <v>305</v>
       </c>
-      <c r="H3" s="128" t="s">
-        <v>305</v>
-      </c>
-      <c r="I3" s="105" t="s">
-        <v>303</v>
-      </c>
-      <c r="J3" s="105" t="s">
-        <v>304</v>
-      </c>
-      <c r="K3" s="106" t="s">
+      <c r="N3" s="105" t="s">
+        <v>295</v>
+      </c>
+      <c r="O3" s="105" t="s">
+        <v>296</v>
+      </c>
+      <c r="P3" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="92">
+      <c r="Q3" s="92">
         <v>12</v>
       </c>
-      <c r="M3" s="92" t="s">
+      <c r="R3" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="93">
+      <c r="S3" s="93">
         <v>21.1</v>
       </c>
-      <c r="O3" s="94">
+      <c r="T3" s="94">
         <v>22.9</v>
       </c>
-      <c r="P3" s="94" t="s">
+      <c r="U3" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="Q3" s="105" t="s">
+      <c r="V3" s="105" t="s">
         <v>151</v>
       </c>
-      <c r="R3" s="94"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105" t="s">
+      <c r="W3" s="94"/>
+      <c r="X3" s="105"/>
+      <c r="Y3" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="U3" s="95" t="s">
+      <c r="Z3" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="V3" s="92">
+      <c r="AA3" s="92">
         <v>14</v>
       </c>
-      <c r="W3" s="92"/>
-      <c r="X3" s="105" t="s">
+      <c r="AB3" s="92"/>
+      <c r="AC3" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="Y3" s="105" t="s">
+      <c r="AD3" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="Z3" s="95" t="s">
+      <c r="AE3" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="AB3" s="92" t="s">
+      <c r="AG3" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="AC3" s="92" t="str">
+      <c r="AH3" s="92" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="AD3" s="93" t="s">
+      <c r="AI3" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="AE3" s="94" t="s">
+      <c r="AJ3" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="AF3" s="94" t="s">
+      <c r="AK3" s="94" t="s">
         <v>170</v>
       </c>
-      <c r="AG3" s="92" t="s">
+      <c r="AL3" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="AH3" s="92" t="s">
+      <c r="AM3" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="AI3" s="95" t="str">
+      <c r="AN3" s="95" t="str">
         <f t="shared" si="1"/>
         <v>GSE14901_VAL_F_YNG_SED_LEA_HLY_MED</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" s="95" customFormat="1">
       <c r="A4" s="104" t="s">
         <v>146</v>
       </c>
@@ -8174,97 +8261,112 @@
         <v>145</v>
       </c>
       <c r="C4" s="124" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D4" s="112"/>
       <c r="E4" s="128" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F4" s="105" t="s">
         <v>143</v>
       </c>
       <c r="G4" s="128" t="s">
+        <v>297</v>
+      </c>
+      <c r="H4" s="128" t="s">
+        <v>297</v>
+      </c>
+      <c r="I4" s="128" t="s">
+        <v>297</v>
+      </c>
+      <c r="J4" s="128" t="s">
+        <v>297</v>
+      </c>
+      <c r="K4" s="128" t="s">
+        <v>297</v>
+      </c>
+      <c r="L4" s="128" t="s">
+        <v>297</v>
+      </c>
+      <c r="M4" s="140" t="s">
         <v>305</v>
       </c>
-      <c r="H4" s="128" t="s">
-        <v>305</v>
-      </c>
-      <c r="I4" s="105" t="s">
-        <v>303</v>
-      </c>
-      <c r="J4" s="105" t="s">
-        <v>304</v>
-      </c>
-      <c r="K4" s="106" t="s">
+      <c r="N4" s="105" t="s">
+        <v>295</v>
+      </c>
+      <c r="O4" s="105" t="s">
+        <v>296</v>
+      </c>
+      <c r="P4" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="92">
+      <c r="Q4" s="92">
         <v>12</v>
       </c>
-      <c r="M4" s="92" t="s">
+      <c r="R4" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="93">
+      <c r="S4" s="93">
         <v>20.8</v>
       </c>
-      <c r="O4" s="94">
+      <c r="T4" s="94">
         <v>24</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="U4" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="Q4" s="105" t="s">
+      <c r="V4" s="105" t="s">
         <v>151</v>
       </c>
-      <c r="R4" s="94"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105" t="s">
+      <c r="W4" s="94"/>
+      <c r="X4" s="105"/>
+      <c r="Y4" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="U4" s="95" t="s">
+      <c r="Z4" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="V4" s="92">
+      <c r="AA4" s="92">
         <v>2</v>
       </c>
-      <c r="W4" s="92"/>
-      <c r="X4" s="105" t="s">
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="Y4" s="105" t="s">
+      <c r="AD4" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="Z4" s="95" t="s">
+      <c r="AE4" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="AB4" s="92" t="s">
+      <c r="AG4" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="AC4" s="92" t="str">
+      <c r="AH4" s="92" t="str">
         <f t="shared" si="0"/>
         <v>M</v>
       </c>
-      <c r="AD4" s="93" t="s">
+      <c r="AI4" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="AE4" s="94" t="s">
+      <c r="AJ4" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="AF4" s="94" t="s">
+      <c r="AK4" s="94" t="s">
         <v>170</v>
       </c>
-      <c r="AG4" s="92" t="s">
+      <c r="AL4" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="AH4" s="92" t="s">
+      <c r="AM4" s="92" t="s">
         <v>154</v>
       </c>
-      <c r="AI4" s="95" t="str">
+      <c r="AN4" s="95" t="str">
         <f t="shared" si="1"/>
         <v>GSE14901_VAL_M_YNG_SED_LEA_HLY_SHO</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" s="95" customFormat="1">
       <c r="A5" s="104" t="s">
         <v>146</v>
       </c>
@@ -8272,778 +8374,893 @@
         <v>145</v>
       </c>
       <c r="C5" s="124" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D5" s="112"/>
       <c r="E5" s="128" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F5" s="105" t="s">
         <v>143</v>
       </c>
       <c r="G5" s="128" t="s">
+        <v>297</v>
+      </c>
+      <c r="H5" s="128" t="s">
+        <v>297</v>
+      </c>
+      <c r="I5" s="128" t="s">
+        <v>297</v>
+      </c>
+      <c r="J5" s="128" t="s">
+        <v>297</v>
+      </c>
+      <c r="K5" s="128" t="s">
+        <v>297</v>
+      </c>
+      <c r="L5" s="128" t="s">
+        <v>297</v>
+      </c>
+      <c r="M5" s="140" t="s">
         <v>305</v>
       </c>
-      <c r="H5" s="128" t="s">
-        <v>305</v>
-      </c>
-      <c r="I5" s="105" t="s">
-        <v>303</v>
-      </c>
-      <c r="J5" s="105" t="s">
-        <v>304</v>
-      </c>
-      <c r="K5" s="106" t="s">
+      <c r="N5" s="105" t="s">
+        <v>295</v>
+      </c>
+      <c r="O5" s="105" t="s">
+        <v>296</v>
+      </c>
+      <c r="P5" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="92">
+      <c r="Q5" s="92">
         <v>12</v>
       </c>
-      <c r="M5" s="92" t="s">
+      <c r="R5" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="93">
+      <c r="S5" s="93">
         <v>21.1</v>
       </c>
-      <c r="O5" s="94">
+      <c r="T5" s="94">
         <v>22.9</v>
       </c>
-      <c r="P5" s="94" t="s">
+      <c r="U5" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="Q5" s="105" t="s">
+      <c r="V5" s="105" t="s">
         <v>151</v>
       </c>
-      <c r="R5" s="94"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105" t="s">
+      <c r="W5" s="94"/>
+      <c r="X5" s="105"/>
+      <c r="Y5" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="U5" s="95" t="s">
+      <c r="Z5" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="V5" s="92">
+      <c r="AA5" s="92">
         <v>2</v>
       </c>
-      <c r="W5" s="92"/>
-      <c r="X5" s="105" t="s">
+      <c r="AB5" s="92"/>
+      <c r="AC5" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="Y5" s="105" t="s">
+      <c r="AD5" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="Z5" s="95" t="s">
+      <c r="AE5" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="92" t="s">
+      <c r="AG5" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="AC5" s="92" t="str">
+      <c r="AH5" s="92" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="AD5" s="93" t="s">
+      <c r="AI5" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="AE5" s="94" t="s">
+      <c r="AJ5" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="AF5" s="94" t="s">
+      <c r="AK5" s="94" t="s">
         <v>170</v>
       </c>
-      <c r="AG5" s="92" t="s">
+      <c r="AL5" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="AH5" s="92" t="s">
+      <c r="AM5" s="92" t="s">
         <v>154</v>
       </c>
-      <c r="AI5" s="95" t="str">
+      <c r="AN5" s="95" t="str">
         <f t="shared" si="1"/>
         <v>GSE14901_VAL_F_YNG_SED_LEA_HLY_SHO</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" s="95" customFormat="1">
       <c r="A6" s="142" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C6" s="113" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D6" s="112"/>
       <c r="E6" s="135" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F6" s="105" t="s">
         <v>141</v>
       </c>
       <c r="G6" s="130"/>
       <c r="H6" s="130"/>
-      <c r="I6" s="105" t="s">
-        <v>293</v>
-      </c>
-      <c r="J6" s="105" t="s">
-        <v>294</v>
-      </c>
-      <c r="K6" s="106" t="s">
+      <c r="I6" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="J6" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="K6" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="L6" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="M6" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="N6" s="105" t="s">
+        <v>285</v>
+      </c>
+      <c r="O6" s="105" t="s">
+        <v>286</v>
+      </c>
+      <c r="P6" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="92">
+      <c r="Q6" s="92">
         <v>2</v>
       </c>
-      <c r="M6" s="92" t="s">
+      <c r="R6" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="92">
+      <c r="S6" s="92">
         <v>23</v>
       </c>
-      <c r="O6" s="95">
+      <c r="T6" s="95">
         <f>66/(1.72*1.72)</f>
         <v>22.309356408869661</v>
       </c>
-      <c r="P6" s="94" t="s">
+      <c r="U6" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="Q6" s="95" t="s">
+      <c r="V6" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="R6" s="94"/>
-      <c r="S6" s="105"/>
-      <c r="T6" s="105" t="s">
+      <c r="W6" s="94"/>
+      <c r="X6" s="105"/>
+      <c r="Y6" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="U6" s="95" t="s">
+      <c r="Z6" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="V6" s="92">
+      <c r="AA6" s="92">
         <v>5</v>
       </c>
-      <c r="W6" s="92"/>
-      <c r="X6" s="95" t="s">
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="95" t="s">
         <v>197</v>
       </c>
-      <c r="Y6" s="105" t="s">
+      <c r="AD6" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="Z6" s="95" t="s">
+      <c r="AE6" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="AB6" s="92" t="s">
+      <c r="AG6" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="AC6" s="92" t="str">
+      <c r="AH6" s="92" t="str">
         <f t="shared" si="0"/>
         <v>M</v>
       </c>
-      <c r="AD6" s="93" t="s">
+      <c r="AI6" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="AE6" s="94" t="s">
+      <c r="AJ6" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="AF6" s="94" t="s">
+      <c r="AK6" s="94" t="s">
         <v>170</v>
       </c>
-      <c r="AG6" s="92" t="s">
+      <c r="AL6" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="AH6" s="92" t="s">
+      <c r="AM6" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="AI6" s="95" t="str">
+      <c r="AN6" s="95" t="str">
         <f t="shared" si="1"/>
         <v>GSE113165_VAL_M_YNG_ACT_LEA_HLY_MED</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" s="95" customFormat="1">
       <c r="A7" s="142" t="s">
         <v>196</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C7" s="113" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D7" s="112"/>
       <c r="E7" s="135" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F7" s="105" t="s">
         <v>141</v>
       </c>
       <c r="G7" s="130"/>
       <c r="H7" s="130"/>
-      <c r="I7" s="105" t="s">
-        <v>293</v>
-      </c>
-      <c r="J7" s="105" t="s">
-        <v>294</v>
-      </c>
-      <c r="K7" s="106" t="s">
+      <c r="I7" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="J7" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="K7" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="L7" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="M7" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="N7" s="105" t="s">
+        <v>285</v>
+      </c>
+      <c r="O7" s="105" t="s">
+        <v>286</v>
+      </c>
+      <c r="P7" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="92">
+      <c r="Q7" s="92">
         <v>11</v>
       </c>
-      <c r="M7" s="92" t="s">
+      <c r="R7" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="92">
+      <c r="S7" s="92">
         <v>68</v>
       </c>
-      <c r="O7" s="95">
+      <c r="T7" s="95">
         <f>76/(1.74*1.74)</f>
         <v>25.102391333069097</v>
       </c>
-      <c r="P7" s="94" t="s">
+      <c r="U7" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="Q7" s="95" t="s">
+      <c r="V7" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="R7" s="94"/>
-      <c r="S7" s="105"/>
-      <c r="T7" s="105" t="s">
+      <c r="W7" s="94"/>
+      <c r="X7" s="105"/>
+      <c r="Y7" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="U7" s="95" t="s">
+      <c r="Z7" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="V7" s="92">
+      <c r="AA7" s="92">
         <v>5</v>
       </c>
-      <c r="W7" s="92"/>
-      <c r="X7" s="95" t="s">
+      <c r="AB7" s="92"/>
+      <c r="AC7" s="95" t="s">
         <v>197</v>
       </c>
-      <c r="Y7" s="105" t="s">
+      <c r="AD7" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="Z7" s="95" t="s">
+      <c r="AE7" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="AB7" s="92" t="s">
+      <c r="AG7" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="AC7" s="92" t="str">
+      <c r="AH7" s="92" t="str">
         <f t="shared" si="0"/>
         <v>M</v>
       </c>
-      <c r="AD7" s="93" t="s">
+      <c r="AI7" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="AE7" s="94" t="s">
+      <c r="AJ7" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="AF7" s="94" t="s">
+      <c r="AK7" s="94" t="s">
         <v>171</v>
       </c>
-      <c r="AG7" s="92" t="s">
+      <c r="AL7" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="AH7" s="92" t="s">
+      <c r="AM7" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="AI7" s="95" t="str">
+      <c r="AN7" s="95" t="str">
         <f t="shared" si="1"/>
         <v>GSE113165_VAL_M_ELD_ACT_OWE_HLY_MED</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" s="95" customFormat="1">
       <c r="A8" s="142" t="s">
         <v>196</v>
       </c>
       <c r="B8" s="92" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C8" s="113" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D8" s="112"/>
       <c r="E8" s="135" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F8" s="105" t="s">
         <v>141</v>
       </c>
       <c r="G8" s="130"/>
       <c r="H8" s="130"/>
-      <c r="I8" s="105" t="s">
-        <v>293</v>
-      </c>
-      <c r="J8" s="105" t="s">
-        <v>294</v>
-      </c>
-      <c r="K8" s="106" t="s">
+      <c r="I8" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="J8" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="K8" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="L8" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="M8" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="N8" s="105" t="s">
+        <v>285</v>
+      </c>
+      <c r="O8" s="105" t="s">
+        <v>286</v>
+      </c>
+      <c r="P8" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="92">
+      <c r="Q8" s="92">
         <v>7</v>
       </c>
-      <c r="M8" s="92" t="s">
+      <c r="R8" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="92">
+      <c r="S8" s="92">
         <v>23</v>
       </c>
-      <c r="O8" s="95">
+      <c r="T8" s="95">
         <f>66/(1.72*1.72)</f>
         <v>22.309356408869661</v>
       </c>
-      <c r="P8" s="94" t="s">
+      <c r="U8" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="Q8" s="95" t="s">
+      <c r="V8" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="R8" s="94"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="105" t="s">
+      <c r="W8" s="94"/>
+      <c r="X8" s="105"/>
+      <c r="Y8" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="U8" s="95" t="s">
+      <c r="Z8" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="V8" s="92">
+      <c r="AA8" s="92">
         <v>5</v>
       </c>
-      <c r="W8" s="92"/>
-      <c r="X8" s="95" t="s">
+      <c r="AB8" s="92"/>
+      <c r="AC8" s="95" t="s">
         <v>197</v>
       </c>
-      <c r="Y8" s="105" t="s">
+      <c r="AD8" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="Z8" s="95" t="s">
+      <c r="AE8" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="AB8" s="92" t="s">
+      <c r="AG8" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="AC8" s="92" t="str">
+      <c r="AH8" s="92" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="AD8" s="93" t="s">
+      <c r="AI8" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="AE8" s="94" t="s">
+      <c r="AJ8" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="AF8" s="94" t="s">
+      <c r="AK8" s="94" t="s">
         <v>170</v>
       </c>
-      <c r="AG8" s="92" t="s">
+      <c r="AL8" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="AH8" s="92" t="s">
+      <c r="AM8" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="AI8" s="95" t="str">
+      <c r="AN8" s="95" t="str">
         <f t="shared" si="1"/>
         <v>GSE113165_VAL_F_YNG_ACT_LEA_HLY_MED</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" s="95" customFormat="1">
       <c r="A9" s="142" t="s">
         <v>196</v>
       </c>
       <c r="B9" s="92" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C9" s="113" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D9" s="112"/>
       <c r="E9" s="135" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F9" s="105" t="s">
         <v>141</v>
       </c>
       <c r="G9" s="130"/>
       <c r="H9" s="130"/>
-      <c r="I9" s="105" t="s">
-        <v>293</v>
-      </c>
-      <c r="J9" s="105" t="s">
-        <v>294</v>
-      </c>
-      <c r="K9" s="106" t="s">
+      <c r="I9" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="J9" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="K9" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="L9" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="M9" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="N9" s="105" t="s">
+        <v>285</v>
+      </c>
+      <c r="O9" s="105" t="s">
+        <v>286</v>
+      </c>
+      <c r="P9" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="92">
+      <c r="Q9" s="92">
         <v>7</v>
       </c>
-      <c r="M9" s="92" t="s">
+      <c r="R9" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="92">
+      <c r="S9" s="92">
         <v>68</v>
       </c>
-      <c r="O9" s="95">
+      <c r="T9" s="95">
         <f>76/(1.74*1.74)</f>
         <v>25.102391333069097</v>
       </c>
-      <c r="P9" s="94" t="s">
+      <c r="U9" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="Q9" s="95" t="s">
+      <c r="V9" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="R9" s="94"/>
-      <c r="S9" s="105"/>
-      <c r="T9" s="105" t="s">
+      <c r="W9" s="94"/>
+      <c r="X9" s="105"/>
+      <c r="Y9" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="U9" s="95" t="s">
+      <c r="Z9" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="V9" s="92">
+      <c r="AA9" s="92">
         <v>5</v>
       </c>
-      <c r="W9" s="92"/>
-      <c r="X9" s="95" t="s">
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="95" t="s">
         <v>197</v>
       </c>
-      <c r="Y9" s="105" t="s">
+      <c r="AD9" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="Z9" s="95" t="s">
+      <c r="AE9" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="AB9" s="92" t="s">
+      <c r="AG9" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="AC9" s="92" t="str">
+      <c r="AH9" s="92" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="AD9" s="93" t="s">
+      <c r="AI9" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="AE9" s="94" t="s">
+      <c r="AJ9" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="AF9" s="94" t="s">
+      <c r="AK9" s="94" t="s">
         <v>171</v>
       </c>
-      <c r="AG9" s="92" t="s">
+      <c r="AL9" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="AH9" s="92" t="s">
+      <c r="AM9" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="AI9" s="95" t="str">
+      <c r="AN9" s="95" t="str">
         <f t="shared" si="1"/>
         <v>GSE113165_VAL_F_ELD_ACT_OWE_HLY_MED</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" s="95" customFormat="1">
       <c r="A10" s="139" t="s">
         <v>206</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C10" s="113" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D10" s="105" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E10" s="135" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F10" s="95" t="s">
         <v>223</v>
       </c>
       <c r="G10" s="131"/>
       <c r="H10" s="131"/>
-      <c r="I10" s="95" t="s">
-        <v>291</v>
-      </c>
-      <c r="J10" s="127" t="s">
-        <v>297</v>
-      </c>
-      <c r="K10" s="95" t="s">
+      <c r="I10" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="J10" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="K10" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="L10" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="M10" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="N10" s="95" t="s">
+        <v>283</v>
+      </c>
+      <c r="O10" s="127" t="s">
+        <v>289</v>
+      </c>
+      <c r="P10" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="92">
+      <c r="Q10" s="92">
         <v>2</v>
       </c>
-      <c r="M10" s="92" t="s">
+      <c r="R10" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="93"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="105" t="s">
+      <c r="S10" s="93"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="94"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="105"/>
+      <c r="Y10" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="U10" s="95" t="s">
+      <c r="Z10" s="95" t="s">
         <v>225</v>
       </c>
-      <c r="V10" s="92">
+      <c r="AA10" s="92">
         <v>14</v>
       </c>
-      <c r="W10" s="92"/>
-      <c r="X10" s="95" t="s">
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="95" t="s">
         <v>216</v>
       </c>
-      <c r="Y10" s="95" t="s">
+      <c r="AD10" s="95" t="s">
         <v>223</v>
       </c>
-      <c r="Z10" s="95" t="s">
+      <c r="AE10" s="95" t="s">
         <v>226</v>
       </c>
-      <c r="AB10" s="92"/>
-      <c r="AC10" s="92"/>
-      <c r="AD10" s="93"/>
-      <c r="AE10" s="94"/>
-      <c r="AF10" s="94"/>
       <c r="AG10" s="92"/>
       <c r="AH10" s="92"/>
-      <c r="AJ10" s="95" t="s">
+      <c r="AI10" s="93"/>
+      <c r="AJ10" s="94"/>
+      <c r="AK10" s="94"/>
+      <c r="AL10" s="92"/>
+      <c r="AM10" s="92"/>
+      <c r="AO10" s="95" t="s">
         <v>227</v>
       </c>
-      <c r="AK10" s="95" t="s">
+      <c r="AP10" s="95" t="s">
         <v>208</v>
       </c>
-      <c r="AL10" s="95" t="s">
+      <c r="AQ10" s="95" t="s">
         <v>228</v>
       </c>
-      <c r="AM10" s="95" t="s">
+      <c r="AR10" s="95" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44" s="95" customFormat="1">
       <c r="A11" s="139" t="s">
         <v>206</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C11" s="113" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D11" s="105" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E11" s="135" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F11" s="95" t="s">
         <v>223</v>
       </c>
       <c r="G11" s="131"/>
       <c r="H11" s="131"/>
-      <c r="I11" s="95" t="s">
-        <v>291</v>
-      </c>
-      <c r="J11" s="127" t="s">
-        <v>296</v>
-      </c>
-      <c r="K11" s="95" t="s">
+      <c r="I11" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="J11" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="K11" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="L11" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="M11" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="N11" s="95" t="s">
+        <v>283</v>
+      </c>
+      <c r="O11" s="127" t="s">
+        <v>288</v>
+      </c>
+      <c r="P11" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="92">
+      <c r="Q11" s="92">
         <v>6</v>
       </c>
-      <c r="M11" s="92" t="s">
+      <c r="R11" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="93"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="105"/>
-      <c r="T11" s="105" t="s">
+      <c r="S11" s="93"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="94"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="105"/>
+      <c r="Y11" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="U11" s="95" t="s">
+      <c r="Z11" s="95" t="s">
         <v>225</v>
       </c>
-      <c r="V11" s="92">
+      <c r="AA11" s="92">
         <v>14</v>
       </c>
-      <c r="W11" s="92"/>
-      <c r="X11" s="95" t="s">
+      <c r="AB11" s="92"/>
+      <c r="AC11" s="95" t="s">
         <v>216</v>
       </c>
-      <c r="Y11" s="95" t="s">
+      <c r="AD11" s="95" t="s">
         <v>223</v>
       </c>
-      <c r="Z11" s="95" t="s">
+      <c r="AE11" s="95" t="s">
         <v>226</v>
       </c>
-      <c r="AB11" s="92"/>
-      <c r="AC11" s="92"/>
-      <c r="AD11" s="93"/>
-      <c r="AE11" s="94"/>
-      <c r="AF11" s="94"/>
       <c r="AG11" s="92"/>
       <c r="AH11" s="92"/>
-      <c r="AJ11" s="95" t="s">
+      <c r="AI11" s="93"/>
+      <c r="AJ11" s="94"/>
+      <c r="AK11" s="94"/>
+      <c r="AL11" s="92"/>
+      <c r="AM11" s="92"/>
+      <c r="AO11" s="95" t="s">
         <v>227</v>
       </c>
-      <c r="AK11" s="95" t="s">
+      <c r="AP11" s="95" t="s">
         <v>208</v>
       </c>
-      <c r="AL11" s="95" t="s">
+      <c r="AQ11" s="95" t="s">
         <v>228</v>
       </c>
-      <c r="AM11" s="95" t="s">
+      <c r="AR11" s="95" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" s="95" customFormat="1">
       <c r="A12" s="115" t="s">
         <v>240</v>
       </c>
       <c r="B12" s="92" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C12" s="113" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D12" s="114" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="E12" s="135" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F12" s="108" t="s">
         <v>141</v>
       </c>
       <c r="G12" s="132"/>
       <c r="H12" s="132"/>
-      <c r="I12" s="108" t="s">
-        <v>300</v>
-      </c>
-      <c r="J12" s="108" t="s">
-        <v>301</v>
-      </c>
-      <c r="K12" s="106" t="s">
+      <c r="I12" s="144"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="144"/>
+      <c r="N12" s="108" t="s">
+        <v>292</v>
+      </c>
+      <c r="O12" s="108" t="s">
+        <v>293</v>
+      </c>
+      <c r="P12" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="92">
+      <c r="Q12" s="92">
         <v>6</v>
       </c>
-      <c r="M12" s="92" t="s">
+      <c r="R12" s="92" t="s">
         <v>211</v>
       </c>
-      <c r="N12" s="93"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94" t="s">
+      <c r="S12" s="93"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="R12" s="94"/>
-      <c r="S12" s="105"/>
-      <c r="T12" s="105" t="s">
+      <c r="W12" s="94"/>
+      <c r="X12" s="105"/>
+      <c r="Y12" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="U12" s="95" t="s">
+      <c r="Z12" s="95" t="s">
         <v>235</v>
       </c>
-      <c r="V12" s="92">
+      <c r="AA12" s="92">
         <v>10</v>
       </c>
-      <c r="W12" s="92"/>
-      <c r="Y12" s="108" t="s">
+      <c r="AB12" s="92"/>
+      <c r="AD12" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="Z12" s="95" t="s">
+      <c r="AE12" s="95" t="s">
         <v>226</v>
       </c>
-      <c r="AB12" s="92"/>
-      <c r="AC12" s="92"/>
-      <c r="AD12" s="93"/>
-      <c r="AE12" s="94"/>
-      <c r="AF12" s="94"/>
       <c r="AG12" s="92"/>
       <c r="AH12" s="92"/>
-      <c r="AL12" s="95" t="s">
+      <c r="AI12" s="93"/>
+      <c r="AJ12" s="94"/>
+      <c r="AK12" s="94"/>
+      <c r="AL12" s="92"/>
+      <c r="AM12" s="92"/>
+      <c r="AQ12" s="95" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="95" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" s="95" customFormat="1">
       <c r="A13" s="115" t="s">
         <v>240</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C13" s="113" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D13" s="114" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="E13" s="135" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F13" s="108" t="s">
         <v>141</v>
       </c>
       <c r="G13" s="132"/>
       <c r="H13" s="132"/>
-      <c r="I13" s="108" t="s">
-        <v>300</v>
-      </c>
-      <c r="J13" s="108" t="s">
-        <v>301</v>
-      </c>
-      <c r="K13" s="106" t="s">
+      <c r="I13" s="144"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="144"/>
+      <c r="N13" s="108" t="s">
+        <v>292</v>
+      </c>
+      <c r="O13" s="108" t="s">
+        <v>293</v>
+      </c>
+      <c r="P13" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="L13" s="92">
+      <c r="Q13" s="92">
         <v>3</v>
       </c>
-      <c r="M13" s="92" t="s">
+      <c r="R13" s="92" t="s">
         <v>212</v>
       </c>
-      <c r="N13" s="93"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94" t="s">
+      <c r="S13" s="93"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="R13" s="94"/>
-      <c r="S13" s="105"/>
-      <c r="T13" s="105" t="s">
+      <c r="W13" s="94"/>
+      <c r="X13" s="105"/>
+      <c r="Y13" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="U13" s="95" t="s">
+      <c r="Z13" s="95" t="s">
         <v>235</v>
       </c>
-      <c r="V13" s="92">
+      <c r="AA13" s="92">
         <v>10</v>
       </c>
-      <c r="W13" s="92"/>
-      <c r="Y13" s="108" t="s">
+      <c r="AB13" s="92"/>
+      <c r="AD13" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="Z13" s="95" t="s">
+      <c r="AE13" s="95" t="s">
         <v>226</v>
       </c>
-      <c r="AB13" s="92"/>
-      <c r="AC13" s="92"/>
-      <c r="AD13" s="93"/>
-      <c r="AE13" s="94"/>
-      <c r="AF13" s="94"/>
       <c r="AG13" s="92"/>
       <c r="AH13" s="92"/>
-      <c r="AL13" s="95" t="s">
+      <c r="AI13" s="93"/>
+      <c r="AJ13" s="94"/>
+      <c r="AK13" s="94"/>
+      <c r="AL13" s="92"/>
+      <c r="AM13" s="92"/>
+      <c r="AQ13" s="95" t="s">
         <v>241</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL6">
     <sortCondition ref="A2:A6"/>
   </sortState>
   <phoneticPr fontId="2"/>
@@ -9054,551 +9271,664 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E983AE-3E94-4A77-A645-69889912A19D}">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:AD13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="103" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" style="123"/>
     <col min="3" max="3" width="11.33203125" style="98" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" style="98" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="98" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.83203125" style="103" customWidth="1"/>
-    <col min="7" max="8" width="21.5" style="99" customWidth="1"/>
-    <col min="9" max="9" width="74.83203125" style="99" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5" style="99" customWidth="1"/>
-    <col min="11" max="11" width="22" style="103" customWidth="1"/>
-    <col min="12" max="16" width="9" style="103"/>
-    <col min="17" max="17" width="11" style="103" customWidth="1"/>
-    <col min="18" max="18" width="35.83203125" style="103" customWidth="1"/>
-    <col min="19" max="19" width="18.6640625" style="103" customWidth="1"/>
-    <col min="20" max="20" width="40.5" style="103" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="103"/>
+    <col min="6" max="6" width="26.1640625" style="103" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" style="99" customWidth="1"/>
+    <col min="8" max="8" width="10" style="99" customWidth="1"/>
+    <col min="9" max="13" width="10" style="56" customWidth="1"/>
+    <col min="14" max="14" width="74.83203125" style="99" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5" style="99" customWidth="1"/>
+    <col min="16" max="16" width="22" style="103" customWidth="1"/>
+    <col min="17" max="21" width="9" style="103"/>
+    <col min="22" max="22" width="11" style="103" customWidth="1"/>
+    <col min="23" max="23" width="35.83203125" style="103" customWidth="1"/>
+    <col min="24" max="24" width="18.6640625" style="103" customWidth="1"/>
+    <col min="25" max="25" width="40.5" style="103" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="103"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="120" customFormat="1" ht="38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" s="120" customFormat="1" ht="38">
       <c r="A1" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="117" t="s">
-        <v>268</v>
+      <c r="B1" s="116" t="s">
+        <v>307</v>
       </c>
       <c r="C1" s="116" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="D1" s="116" t="s">
+        <v>275</v>
+      </c>
+      <c r="E1" s="116" t="s">
+        <v>309</v>
+      </c>
+      <c r="F1" s="116" t="s">
+        <v>306</v>
+      </c>
+      <c r="G1" s="117" t="s">
+        <v>278</v>
+      </c>
+      <c r="H1" s="117" t="s">
+        <v>299</v>
+      </c>
+      <c r="I1" s="117" t="s">
+        <v>301</v>
+      </c>
+      <c r="J1" s="117" t="s">
+        <v>300</v>
+      </c>
+      <c r="K1" s="117" t="s">
+        <v>302</v>
+      </c>
+      <c r="L1" s="117" t="s">
+        <v>303</v>
+      </c>
+      <c r="M1" s="117" t="s">
+        <v>304</v>
+      </c>
+      <c r="N1" s="117" t="s">
+        <v>279</v>
+      </c>
+      <c r="O1" s="117" t="s">
         <v>280</v>
       </c>
-      <c r="E1" s="116" t="s">
-        <v>284</v>
-      </c>
-      <c r="F1" s="116" t="s">
+      <c r="P1" s="116" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="116" t="s">
+        <v>145</v>
+      </c>
+      <c r="R1" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="119" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="119" t="s">
+        <v>122</v>
+      </c>
+      <c r="V1" s="116" t="s">
+        <v>77</v>
+      </c>
+      <c r="W1" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="117" t="s">
-        <v>285</v>
-      </c>
-      <c r="H1" s="117" t="s">
-        <v>286</v>
-      </c>
-      <c r="I1" s="117" t="s">
-        <v>287</v>
-      </c>
-      <c r="J1" s="117" t="s">
-        <v>288</v>
-      </c>
-      <c r="K1" s="116" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" s="116" t="s">
-        <v>145</v>
-      </c>
-      <c r="M1" s="116" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="119" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="119" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q1" s="116" t="s">
-        <v>77</v>
-      </c>
-      <c r="R1" s="116" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" s="117" t="s">
+      <c r="X1" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="116" t="s">
+      <c r="Y1" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="120" t="s">
+      <c r="Z1" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="V1" s="120" t="s">
+      <c r="AA1" s="120" t="s">
         <v>215</v>
       </c>
-      <c r="W1" s="120" t="s">
+      <c r="AB1" s="120" t="s">
         <v>218</v>
       </c>
-      <c r="X1" s="120" t="s">
+      <c r="AC1" s="120" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="91" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" s="91" customFormat="1">
       <c r="A2" s="110" t="s">
         <v>198</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C2" s="141" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D2" s="105"/>
       <c r="E2" s="140" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F2" s="110" t="s">
         <v>200</v>
       </c>
       <c r="G2" s="105"/>
       <c r="H2" s="105"/>
-      <c r="I2" s="105" t="s">
+      <c r="I2" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="J2" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="105" t="s">
+        <v>282</v>
+      </c>
+      <c r="O2" s="105" t="s">
         <v>290</v>
       </c>
-      <c r="J2" s="105" t="s">
-        <v>298</v>
-      </c>
-      <c r="K2" s="110" t="s">
+      <c r="P2" s="110" t="s">
         <v>199</v>
       </c>
-      <c r="L2" s="91">
+      <c r="Q2" s="91">
         <v>35</v>
       </c>
-      <c r="M2" s="91" t="s">
+      <c r="R2" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="N2" s="91" t="s">
+      <c r="S2" s="91" t="s">
         <v>213</v>
       </c>
-      <c r="P2" s="91" t="s">
+      <c r="U2" s="91" t="s">
         <v>216</v>
       </c>
-      <c r="Q2" s="91" t="s">
+      <c r="V2" s="91" t="s">
         <v>216</v>
       </c>
-      <c r="R2" s="110" t="s">
+      <c r="W2" s="110" t="s">
         <v>200</v>
       </c>
-      <c r="S2" s="91" t="s">
+      <c r="X2" s="91" t="s">
         <v>217</v>
       </c>
-      <c r="T2" s="110" t="s">
+      <c r="Y2" s="110" t="s">
         <v>203</v>
       </c>
-      <c r="U2" s="110" t="s">
+      <c r="Z2" s="110" t="s">
         <v>201</v>
       </c>
-      <c r="V2" s="110" t="s">
+      <c r="AA2" s="110" t="s">
         <v>202</v>
       </c>
-      <c r="W2" s="110" t="s">
+      <c r="AB2" s="110" t="s">
         <v>204</v>
       </c>
-      <c r="X2" s="110" t="s">
+      <c r="AC2" s="110" t="s">
         <v>205</v>
       </c>
-      <c r="Y2" s="110"/>
-    </row>
-    <row r="3" spans="1:25" s="91" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD2" s="110"/>
+    </row>
+    <row r="3" spans="1:30" s="91" customFormat="1">
       <c r="A3" s="110" t="s">
         <v>198</v>
       </c>
       <c r="B3" s="140" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C3" s="141" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D3" s="105"/>
       <c r="E3" s="140" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F3" s="110" t="s">
         <v>200</v>
       </c>
       <c r="G3" s="105"/>
       <c r="H3" s="105"/>
-      <c r="I3" s="105" t="s">
+      <c r="I3" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="J3" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="105" t="s">
+        <v>282</v>
+      </c>
+      <c r="O3" s="105" t="s">
         <v>290</v>
       </c>
-      <c r="J3" s="105" t="s">
+      <c r="P3" s="110" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q3" s="91">
+        <v>18</v>
+      </c>
+      <c r="R3" s="91" t="s">
+        <v>212</v>
+      </c>
+      <c r="S3" s="91" t="s">
+        <v>213</v>
+      </c>
+      <c r="U3" s="91" t="s">
+        <v>216</v>
+      </c>
+      <c r="V3" s="91" t="s">
+        <v>216</v>
+      </c>
+      <c r="W3" s="110" t="s">
+        <v>200</v>
+      </c>
+      <c r="X3" s="91" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y3" s="110" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z3" s="110" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA3" s="110" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB3" s="110" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC3" s="110" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD3" s="110"/>
+    </row>
+    <row r="4" spans="1:30" s="91" customFormat="1">
+      <c r="A4" s="138" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" s="140" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" s="141" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="105" t="s">
         <v>298</v>
       </c>
-      <c r="K3" s="110" t="s">
-        <v>199</v>
-      </c>
-      <c r="L3" s="91">
-        <v>18</v>
-      </c>
-      <c r="M3" s="91" t="s">
-        <v>212</v>
-      </c>
-      <c r="N3" s="91" t="s">
-        <v>213</v>
-      </c>
-      <c r="P3" s="91" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q3" s="91" t="s">
-        <v>216</v>
-      </c>
-      <c r="R3" s="110" t="s">
-        <v>200</v>
-      </c>
-      <c r="S3" s="91" t="s">
-        <v>217</v>
-      </c>
-      <c r="T3" s="110" t="s">
-        <v>203</v>
-      </c>
-      <c r="U3" s="110" t="s">
-        <v>201</v>
-      </c>
-      <c r="V3" s="110" t="s">
-        <v>202</v>
-      </c>
-      <c r="W3" s="110" t="s">
-        <v>204</v>
-      </c>
-      <c r="X3" s="110" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y3" s="110"/>
-    </row>
-    <row r="4" spans="1:25" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="138" t="s">
-        <v>278</v>
-      </c>
-      <c r="B4" s="140" t="s">
-        <v>276</v>
-      </c>
-      <c r="C4" s="141" t="s">
+      <c r="E4" s="140" t="s">
         <v>277</v>
-      </c>
-      <c r="D4" s="105" t="s">
-        <v>306</v>
-      </c>
-      <c r="E4" s="140" t="s">
-        <v>283</v>
       </c>
       <c r="F4" s="91" t="s">
         <v>223</v>
       </c>
       <c r="G4" s="105"/>
       <c r="H4" s="105"/>
-      <c r="I4" s="105" t="s">
-        <v>291</v>
-      </c>
-      <c r="J4" s="105" t="s">
-        <v>297</v>
-      </c>
-      <c r="K4" s="110" t="s">
+      <c r="I4" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="J4" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="K4" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="L4" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="M4" s="140"/>
+      <c r="N4" s="105" t="s">
+        <v>283</v>
+      </c>
+      <c r="O4" s="105" t="s">
+        <v>289</v>
+      </c>
+      <c r="P4" s="110" t="s">
         <v>221</v>
       </c>
-      <c r="L4" s="91">
+      <c r="Q4" s="91">
         <v>2</v>
       </c>
-      <c r="M4" s="91" t="s">
+      <c r="R4" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="N4" s="91" t="s">
+      <c r="S4" s="91" t="s">
         <v>222</v>
       </c>
-      <c r="O4" s="91" t="s">
+      <c r="T4" s="91" t="s">
         <v>216</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="U4" s="91" t="s">
         <v>216</v>
       </c>
-      <c r="Q4" s="91" t="s">
+      <c r="V4" s="91" t="s">
         <v>216</v>
       </c>
-      <c r="R4" s="91" t="s">
+      <c r="W4" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="X4" s="91" t="s">
         <v>217</v>
       </c>
-      <c r="T4" s="91" t="s">
-        <v>271</v>
-      </c>
-      <c r="U4" s="110" t="s">
+      <c r="Y4" s="91" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z4" s="110" t="s">
         <v>207</v>
       </c>
-      <c r="V4" s="110" t="s">
+      <c r="AA4" s="110" t="s">
         <v>208</v>
       </c>
-      <c r="W4" s="110" t="s">
+      <c r="AB4" s="110" t="s">
         <v>209</v>
       </c>
-      <c r="X4" s="110" t="s">
+      <c r="AC4" s="110" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="91" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" s="91" customFormat="1">
       <c r="A5" s="138" t="s">
         <v>206</v>
       </c>
       <c r="B5" s="140" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C5" s="141" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" s="105" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5" s="140" t="s">
         <v>277</v>
-      </c>
-      <c r="D5" s="105" t="s">
-        <v>306</v>
-      </c>
-      <c r="E5" s="140" t="s">
-        <v>283</v>
       </c>
       <c r="F5" s="91" t="s">
         <v>223</v>
       </c>
       <c r="G5" s="105"/>
       <c r="H5" s="105"/>
-      <c r="I5" s="105" t="s">
-        <v>291</v>
-      </c>
-      <c r="J5" s="105" t="s">
-        <v>297</v>
-      </c>
-      <c r="K5" s="110" t="s">
+      <c r="I5" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="J5" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="K5" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="L5" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="M5" s="140"/>
+      <c r="N5" s="105" t="s">
+        <v>283</v>
+      </c>
+      <c r="O5" s="105" t="s">
+        <v>289</v>
+      </c>
+      <c r="P5" s="110" t="s">
         <v>221</v>
       </c>
-      <c r="L5" s="91">
+      <c r="Q5" s="91">
         <v>6</v>
       </c>
-      <c r="M5" s="91" t="s">
+      <c r="R5" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="N5" s="91" t="s">
+      <c r="S5" s="91" t="s">
         <v>222</v>
       </c>
-      <c r="O5" s="91" t="s">
+      <c r="T5" s="91" t="s">
         <v>216</v>
       </c>
-      <c r="P5" s="91" t="s">
+      <c r="U5" s="91" t="s">
         <v>216</v>
       </c>
-      <c r="Q5" s="91" t="s">
+      <c r="V5" s="91" t="s">
         <v>216</v>
       </c>
-      <c r="R5" s="91" t="s">
+      <c r="W5" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="S5" s="91" t="s">
+      <c r="X5" s="91" t="s">
         <v>217</v>
       </c>
-      <c r="T5" s="91" t="s">
+      <c r="Y5" s="91" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z5" s="110" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA5" s="110" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB5" s="110" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC5" s="110" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" s="91" customFormat="1">
+      <c r="A6" s="91" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="140" t="s">
         <v>271</v>
       </c>
-      <c r="U5" s="110" t="s">
-        <v>207</v>
-      </c>
-      <c r="V5" s="110" t="s">
-        <v>208</v>
-      </c>
-      <c r="W5" s="110" t="s">
-        <v>209</v>
-      </c>
-      <c r="X5" s="110" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" s="91" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="91" t="s">
-        <v>279</v>
-      </c>
-      <c r="B6" s="140" t="s">
-        <v>276</v>
-      </c>
       <c r="C6" s="141" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D6" s="105"/>
       <c r="E6" s="140" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F6" s="97" t="s">
         <v>141</v>
       </c>
       <c r="G6" s="105"/>
       <c r="H6" s="105"/>
-      <c r="I6" s="105" t="s">
-        <v>289</v>
-      </c>
-      <c r="J6" s="91" t="s">
-        <v>299</v>
-      </c>
-      <c r="K6" s="110" t="s">
+      <c r="I6" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="J6" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="105" t="s">
+        <v>281</v>
+      </c>
+      <c r="O6" s="91" t="s">
+        <v>291</v>
+      </c>
+      <c r="P6" s="110" t="s">
         <v>229</v>
       </c>
-      <c r="L6" s="91">
+      <c r="Q6" s="91">
         <v>53</v>
       </c>
-      <c r="M6" s="91" t="s">
+      <c r="R6" s="91" t="s">
         <v>230</v>
       </c>
-      <c r="N6" s="91" t="s">
+      <c r="S6" s="91" t="s">
         <v>213</v>
       </c>
-      <c r="Q6" s="91" t="s">
+      <c r="V6" s="91" t="s">
         <v>220</v>
       </c>
-      <c r="R6" s="97" t="s">
+      <c r="W6" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="S6" s="91" t="s">
+      <c r="X6" s="91" t="s">
         <v>220</v>
       </c>
-      <c r="U6" s="91" t="s">
+      <c r="Z6" s="91" t="s">
         <v>237</v>
       </c>
-      <c r="V6" s="91" t="s">
+      <c r="AA6" s="91" t="s">
         <v>217</v>
       </c>
-      <c r="W6" s="91" t="s">
+      <c r="AB6" s="91" t="s">
         <v>238</v>
       </c>
-      <c r="X6" s="91" t="s">
+      <c r="AC6" s="91" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="91" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" s="91" customFormat="1">
       <c r="A7" s="137" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B7" s="140" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C7" s="141" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D7" s="105"/>
       <c r="E7" s="140" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F7" s="91" t="s">
         <v>246</v>
       </c>
       <c r="G7" s="105"/>
       <c r="H7" s="105"/>
-      <c r="I7" s="105" t="s">
-        <v>293</v>
-      </c>
-      <c r="J7" s="105" t="s">
-        <v>295</v>
-      </c>
-      <c r="K7" s="91" t="s">
+      <c r="I7" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="J7" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="K7" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="L7" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="M7" s="140"/>
+      <c r="N7" s="105" t="s">
+        <v>285</v>
+      </c>
+      <c r="O7" s="105" t="s">
+        <v>287</v>
+      </c>
+      <c r="P7" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="91">
+      <c r="Q7" s="91">
         <v>27</v>
       </c>
-      <c r="M7" s="91" t="s">
+      <c r="R7" s="91" t="s">
         <v>244</v>
       </c>
-      <c r="N7" s="91" t="s">
+      <c r="S7" s="91" t="s">
         <v>245</v>
       </c>
-      <c r="R7" s="91" t="s">
+      <c r="W7" s="91" t="s">
         <v>246</v>
       </c>
-      <c r="S7" s="91" t="s">
+      <c r="X7" s="91" t="s">
         <v>243</v>
       </c>
-      <c r="T7" s="91" t="s">
+      <c r="Y7" s="91" t="s">
         <v>247</v>
       </c>
-      <c r="U7" s="91" t="s">
+      <c r="Z7" s="91" t="s">
         <v>248</v>
       </c>
-      <c r="V7" s="91" t="s">
+      <c r="AA7" s="91" t="s">
         <v>242</v>
       </c>
-      <c r="W7" s="91" t="s">
+      <c r="AB7" s="91" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30">
       <c r="B8" s="121"/>
       <c r="C8" s="107"/>
       <c r="D8" s="107"/>
       <c r="E8" s="107"/>
       <c r="G8" s="105"/>
       <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="I8" s="140"/>
+      <c r="J8" s="140"/>
+      <c r="K8" s="140"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="140"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+    </row>
+    <row r="9" spans="1:30">
       <c r="B9" s="121"/>
       <c r="C9" s="107"/>
       <c r="D9" s="107"/>
       <c r="E9" s="107"/>
       <c r="G9" s="105"/>
       <c r="H9" s="105"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="105"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="I9" s="140"/>
+      <c r="J9" s="140"/>
+      <c r="K9" s="140"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="140"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="105"/>
+    </row>
+    <row r="10" spans="1:30">
       <c r="B10" s="122"/>
       <c r="C10" s="96"/>
       <c r="D10" s="96"/>
       <c r="E10" s="96"/>
       <c r="G10" s="95"/>
       <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="I10" s="143"/>
+      <c r="J10" s="143"/>
+      <c r="K10" s="143"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="143"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+    </row>
+    <row r="11" spans="1:30">
       <c r="B11" s="122"/>
       <c r="C11" s="96"/>
       <c r="D11" s="96"/>
       <c r="E11" s="96"/>
       <c r="G11" s="95"/>
       <c r="H11" s="95"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="95"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="143"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="95"/>
+    </row>
+    <row r="12" spans="1:30">
       <c r="B12" s="122"/>
       <c r="C12" s="96"/>
       <c r="D12" s="96"/>
       <c r="E12" s="96"/>
       <c r="G12" s="108"/>
       <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="I12" s="144"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="144"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
+    </row>
+    <row r="13" spans="1:30">
       <c r="B13" s="122"/>
       <c r="C13" s="96"/>
       <c r="D13" s="96"/>
       <c r="E13" s="96"/>
       <c r="G13" s="108"/>
       <c r="H13" s="108"/>
-      <c r="J13" s="108"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="144"/>
+      <c r="O13" s="108"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -9614,7 +9944,7 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="17" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.6640625" style="18" bestFit="1" customWidth="1"/>
@@ -9622,7 +9952,7 @@
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
         <v>92</v>
       </c>
@@ -9633,7 +9963,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="20" t="s">
         <v>74</v>
       </c>
@@ -9644,7 +9974,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="20" t="s">
         <v>74</v>
       </c>
@@ -9655,7 +9985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="20" t="s">
         <v>74</v>
       </c>
@@ -9666,7 +9996,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="20" t="s">
         <v>74</v>
       </c>
@@ -9677,7 +10007,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="21" t="s">
         <v>23</v>
       </c>
@@ -9688,7 +10018,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="21" t="s">
         <v>23</v>
       </c>
@@ -9699,7 +10029,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="21" t="s">
         <v>23</v>
       </c>
@@ -9710,7 +10040,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="22" t="s">
         <v>0</v>
       </c>
@@ -9721,7 +10051,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="22" t="s">
         <v>0</v>
       </c>
@@ -9732,7 +10062,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="22" t="s">
         <v>0</v>
       </c>
@@ -9743,7 +10073,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="21" t="s">
         <v>107</v>
       </c>
@@ -9754,7 +10084,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="21" t="s">
         <v>107</v>
       </c>
@@ -9765,7 +10095,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="21" t="s">
         <v>107</v>
       </c>
@@ -9776,7 +10106,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="23" t="s">
         <v>168</v>
       </c>
@@ -9787,7 +10117,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="23" t="s">
         <v>168</v>
       </c>
@@ -9798,7 +10128,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="23" t="s">
         <v>168</v>
       </c>
@@ -9809,7 +10139,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="23" t="s">
         <v>168</v>
       </c>
@@ -9820,7 +10150,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="21" t="s">
         <v>109</v>
       </c>
@@ -9831,7 +10161,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="21" t="s">
         <v>109</v>
       </c>
@@ -9842,7 +10172,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="21" t="s">
         <v>109</v>
       </c>
@@ -9853,7 +10183,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="21" t="s">
         <v>109</v>
       </c>
@@ -9864,7 +10194,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="21" t="s">
         <v>109</v>
       </c>
@@ -9875,7 +10205,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="21" t="s">
         <v>109</v>
       </c>
@@ -9886,7 +10216,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="24" t="s">
         <v>113</v>
       </c>
@@ -9897,7 +10227,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="24" t="s">
         <v>113</v>
       </c>
@@ -9908,7 +10238,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="21" t="s">
         <v>26</v>
       </c>
@@ -9919,7 +10249,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" s="21" t="s">
         <v>26</v>
       </c>
@@ -9930,7 +10260,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="21" t="s">
         <v>26</v>
       </c>
@@ -9941,7 +10271,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" s="25" t="s">
         <v>157</v>
       </c>
@@ -9952,7 +10282,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="25" t="s">
         <v>157</v>
       </c>
@@ -9963,7 +10293,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="25" t="s">
         <v>157</v>
       </c>
@@ -9974,7 +10304,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="21" t="s">
         <v>161</v>
       </c>
@@ -9985,7 +10315,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" s="21" t="s">
         <v>161</v>
       </c>
@@ -9996,7 +10326,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" s="21" t="s">
         <v>161</v>
       </c>

--- a/Muscle_gene_summary_includeMF.xlsx
+++ b/Muscle_gene_summary_includeMF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HDD24TB/MetaAnalysisProject_Apr2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE93F2C-1A3E-224B-9ADC-8C56FB1EC554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8BC0FB-4EAD-8243-8A2B-8DD7BC58157B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="2540" windowWidth="36180" windowHeight="13000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="3760" windowWidth="36180" windowHeight="13000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acute" sheetId="11" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="316">
   <si>
     <t>Age</t>
   </si>
@@ -925,10 +925,6 @@
   </si>
   <si>
     <t>se</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>kit</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1061,6 +1057,27 @@
   </si>
   <si>
     <t>id, supplement info missing</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Qiagen miRNeasy mini kit; amplified both polyA-tailed and non-polyA tailed RNA, removed ribosomal RNA, </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>fr-forward, first</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cDNA
+synthesis</t>
+  </si>
+  <si>
+    <t>cDNA
+synthesis</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NuGen Ovation v2 system, TruSeq ChIP Library Preparation Kit</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1071,7 +1088,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1235,8 +1252,15 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7"/>
+      <name val="Hiragino Maru Gothic Pro W4"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1321,6 +1345,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1351,7 +1381,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1715,9 +1745,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1750,6 +1777,19 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7857,7 +7897,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D14" sqref="D14"/>
+      <selection pane="topRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="18"/>
@@ -7866,9 +7906,10 @@
     <col min="2" max="2" width="9.83203125" style="111"/>
     <col min="3" max="3" width="11.33203125" style="111" customWidth="1"/>
     <col min="4" max="4" width="28" style="111" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="136" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="135" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.33203125" style="99" customWidth="1"/>
-    <col min="7" max="8" width="7.83203125" style="133" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="132" customWidth="1"/>
+    <col min="8" max="8" width="7.83203125" style="132" customWidth="1"/>
     <col min="9" max="13" width="10" style="56" customWidth="1"/>
     <col min="14" max="14" width="69" style="99" customWidth="1"/>
     <col min="15" max="15" width="62.5" style="99" customWidth="1"/>
@@ -7893,51 +7934,51 @@
     <col min="45" max="16384" width="9.83203125" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="120" customFormat="1" ht="38">
+    <row r="1" spans="1:44" s="120" customFormat="1" ht="57">
       <c r="A1" s="117" t="s">
         <v>79</v>
       </c>
       <c r="B1" s="116" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="116" t="s">
         <v>307</v>
-      </c>
-      <c r="C1" s="116" t="s">
-        <v>308</v>
       </c>
       <c r="D1" s="116" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="134" t="s">
+      <c r="E1" s="133" t="s">
+        <v>308</v>
+      </c>
+      <c r="F1" s="117" t="s">
         <v>309</v>
       </c>
-      <c r="F1" s="117" t="s">
-        <v>310</v>
-      </c>
-      <c r="G1" s="129" t="s">
+      <c r="G1" s="148" t="s">
+        <v>313</v>
+      </c>
+      <c r="H1" s="129" t="s">
+        <v>298</v>
+      </c>
+      <c r="I1" s="117" t="s">
+        <v>300</v>
+      </c>
+      <c r="J1" s="117" t="s">
+        <v>299</v>
+      </c>
+      <c r="K1" s="117" t="s">
+        <v>301</v>
+      </c>
+      <c r="L1" s="117" t="s">
+        <v>302</v>
+      </c>
+      <c r="M1" s="117" t="s">
+        <v>303</v>
+      </c>
+      <c r="N1" s="117" t="s">
         <v>278</v>
       </c>
-      <c r="H1" s="129" t="s">
-        <v>299</v>
-      </c>
-      <c r="I1" s="117" t="s">
-        <v>301</v>
-      </c>
-      <c r="J1" s="117" t="s">
-        <v>300</v>
-      </c>
-      <c r="K1" s="117" t="s">
-        <v>302</v>
-      </c>
-      <c r="L1" s="117" t="s">
-        <v>303</v>
-      </c>
-      <c r="M1" s="117" t="s">
-        <v>304</v>
-      </c>
-      <c r="N1" s="117" t="s">
+      <c r="O1" s="117" t="s">
         <v>279</v>
-      </c>
-      <c r="O1" s="117" t="s">
-        <v>280</v>
       </c>
       <c r="P1" s="117" t="s">
         <v>74</v>
@@ -8029,7 +8070,7 @@
     </row>
     <row r="2" spans="1:44" s="95" customFormat="1">
       <c r="A2" s="104" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B2" s="112" t="s">
         <v>145</v>
@@ -8039,37 +8080,37 @@
       </c>
       <c r="D2" s="112"/>
       <c r="E2" s="128" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F2" s="105" t="s">
         <v>143</v>
       </c>
       <c r="G2" s="128" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H2" s="128" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I2" s="128" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J2" s="128" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K2" s="128" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L2" s="128" t="s">
-        <v>297</v>
-      </c>
-      <c r="M2" s="140" t="s">
-        <v>305</v>
+        <v>296</v>
+      </c>
+      <c r="M2" s="139" t="s">
+        <v>304</v>
       </c>
       <c r="N2" s="105" t="s">
+        <v>294</v>
+      </c>
+      <c r="O2" s="105" t="s">
         <v>295</v>
-      </c>
-      <c r="O2" s="105" t="s">
-        <v>296</v>
       </c>
       <c r="P2" s="106" t="s">
         <v>5</v>
@@ -8152,37 +8193,37 @@
       </c>
       <c r="D3" s="112"/>
       <c r="E3" s="128" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F3" s="105" t="s">
         <v>143</v>
       </c>
       <c r="G3" s="128" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H3" s="128" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I3" s="128" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J3" s="128" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K3" s="128" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L3" s="128" t="s">
-        <v>297</v>
-      </c>
-      <c r="M3" s="140" t="s">
-        <v>305</v>
+        <v>296</v>
+      </c>
+      <c r="M3" s="139" t="s">
+        <v>304</v>
       </c>
       <c r="N3" s="105" t="s">
+        <v>294</v>
+      </c>
+      <c r="O3" s="105" t="s">
         <v>295</v>
-      </c>
-      <c r="O3" s="105" t="s">
-        <v>296</v>
       </c>
       <c r="P3" s="106" t="s">
         <v>5</v>
@@ -8265,37 +8306,37 @@
       </c>
       <c r="D4" s="112"/>
       <c r="E4" s="128" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F4" s="105" t="s">
         <v>143</v>
       </c>
       <c r="G4" s="128" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H4" s="128" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I4" s="128" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J4" s="128" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K4" s="128" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L4" s="128" t="s">
-        <v>297</v>
-      </c>
-      <c r="M4" s="140" t="s">
-        <v>305</v>
+        <v>296</v>
+      </c>
+      <c r="M4" s="139" t="s">
+        <v>304</v>
       </c>
       <c r="N4" s="105" t="s">
+        <v>294</v>
+      </c>
+      <c r="O4" s="105" t="s">
         <v>295</v>
-      </c>
-      <c r="O4" s="105" t="s">
-        <v>296</v>
       </c>
       <c r="P4" s="106" t="s">
         <v>5</v>
@@ -8378,37 +8419,37 @@
       </c>
       <c r="D5" s="112"/>
       <c r="E5" s="128" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F5" s="105" t="s">
         <v>143</v>
       </c>
       <c r="G5" s="128" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H5" s="128" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I5" s="128" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J5" s="128" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K5" s="128" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L5" s="128" t="s">
-        <v>297</v>
-      </c>
-      <c r="M5" s="140" t="s">
-        <v>305</v>
+        <v>296</v>
+      </c>
+      <c r="M5" s="139" t="s">
+        <v>304</v>
       </c>
       <c r="N5" s="105" t="s">
+        <v>294</v>
+      </c>
+      <c r="O5" s="105" t="s">
         <v>295</v>
-      </c>
-      <c r="O5" s="105" t="s">
-        <v>296</v>
       </c>
       <c r="P5" s="106" t="s">
         <v>5</v>
@@ -8480,8 +8521,8 @@
       </c>
     </row>
     <row r="6" spans="1:44" s="95" customFormat="1">
-      <c r="A6" s="142" t="s">
-        <v>284</v>
+      <c r="A6" s="141" t="s">
+        <v>283</v>
       </c>
       <c r="B6" s="92" t="s">
         <v>268</v>
@@ -8490,7 +8531,7 @@
         <v>269</v>
       </c>
       <c r="D6" s="112"/>
-      <c r="E6" s="135" t="s">
+      <c r="E6" s="134" t="s">
         <v>277</v>
       </c>
       <c r="F6" s="105" t="s">
@@ -8498,26 +8539,26 @@
       </c>
       <c r="G6" s="130"/>
       <c r="H6" s="130"/>
-      <c r="I6" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="J6" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="K6" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="L6" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="M6" s="140" t="s">
-        <v>305</v>
+      <c r="I6" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="J6" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="K6" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="L6" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="M6" s="139" t="s">
+        <v>304</v>
       </c>
       <c r="N6" s="105" t="s">
+        <v>284</v>
+      </c>
+      <c r="O6" s="105" t="s">
         <v>285</v>
-      </c>
-      <c r="O6" s="105" t="s">
-        <v>286</v>
       </c>
       <c r="P6" s="106" t="s">
         <v>5</v>
@@ -8590,7 +8631,7 @@
       </c>
     </row>
     <row r="7" spans="1:44" s="95" customFormat="1">
-      <c r="A7" s="142" t="s">
+      <c r="A7" s="141" t="s">
         <v>196</v>
       </c>
       <c r="B7" s="92" t="s">
@@ -8600,7 +8641,7 @@
         <v>269</v>
       </c>
       <c r="D7" s="112"/>
-      <c r="E7" s="135" t="s">
+      <c r="E7" s="134" t="s">
         <v>277</v>
       </c>
       <c r="F7" s="105" t="s">
@@ -8608,26 +8649,26 @@
       </c>
       <c r="G7" s="130"/>
       <c r="H7" s="130"/>
-      <c r="I7" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="J7" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="K7" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="L7" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="M7" s="140" t="s">
-        <v>305</v>
+      <c r="I7" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="J7" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="K7" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="L7" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="M7" s="139" t="s">
+        <v>304</v>
       </c>
       <c r="N7" s="105" t="s">
+        <v>284</v>
+      </c>
+      <c r="O7" s="105" t="s">
         <v>285</v>
-      </c>
-      <c r="O7" s="105" t="s">
-        <v>286</v>
       </c>
       <c r="P7" s="106" t="s">
         <v>5</v>
@@ -8700,7 +8741,7 @@
       </c>
     </row>
     <row r="8" spans="1:44" s="95" customFormat="1">
-      <c r="A8" s="142" t="s">
+      <c r="A8" s="141" t="s">
         <v>196</v>
       </c>
       <c r="B8" s="92" t="s">
@@ -8710,7 +8751,7 @@
         <v>269</v>
       </c>
       <c r="D8" s="112"/>
-      <c r="E8" s="135" t="s">
+      <c r="E8" s="134" t="s">
         <v>277</v>
       </c>
       <c r="F8" s="105" t="s">
@@ -8718,26 +8759,26 @@
       </c>
       <c r="G8" s="130"/>
       <c r="H8" s="130"/>
-      <c r="I8" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="J8" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="K8" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="L8" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="M8" s="140" t="s">
-        <v>305</v>
+      <c r="I8" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="J8" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="K8" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="L8" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="M8" s="139" t="s">
+        <v>304</v>
       </c>
       <c r="N8" s="105" t="s">
+        <v>284</v>
+      </c>
+      <c r="O8" s="105" t="s">
         <v>285</v>
-      </c>
-      <c r="O8" s="105" t="s">
-        <v>286</v>
       </c>
       <c r="P8" s="106" t="s">
         <v>5</v>
@@ -8810,7 +8851,7 @@
       </c>
     </row>
     <row r="9" spans="1:44" s="95" customFormat="1">
-      <c r="A9" s="142" t="s">
+      <c r="A9" s="141" t="s">
         <v>196</v>
       </c>
       <c r="B9" s="92" t="s">
@@ -8820,7 +8861,7 @@
         <v>269</v>
       </c>
       <c r="D9" s="112"/>
-      <c r="E9" s="135" t="s">
+      <c r="E9" s="134" t="s">
         <v>277</v>
       </c>
       <c r="F9" s="105" t="s">
@@ -8828,26 +8869,26 @@
       </c>
       <c r="G9" s="130"/>
       <c r="H9" s="130"/>
-      <c r="I9" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="J9" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="K9" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="L9" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="M9" s="140" t="s">
-        <v>305</v>
+      <c r="I9" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="J9" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="K9" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="L9" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="M9" s="139" t="s">
+        <v>304</v>
       </c>
       <c r="N9" s="105" t="s">
+        <v>284</v>
+      </c>
+      <c r="O9" s="105" t="s">
         <v>285</v>
-      </c>
-      <c r="O9" s="105" t="s">
-        <v>286</v>
       </c>
       <c r="P9" s="106" t="s">
         <v>5</v>
@@ -8920,7 +8961,7 @@
       </c>
     </row>
     <row r="10" spans="1:44" s="95" customFormat="1">
-      <c r="A10" s="139" t="s">
+      <c r="A10" s="138" t="s">
         <v>206</v>
       </c>
       <c r="B10" s="92" t="s">
@@ -8932,34 +8973,38 @@
       <c r="D10" s="105" t="s">
         <v>276</v>
       </c>
-      <c r="E10" s="135" t="s">
+      <c r="E10" s="134" t="s">
         <v>277</v>
       </c>
       <c r="F10" s="95" t="s">
         <v>223</v>
       </c>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="J10" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="K10" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="L10" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="M10" s="140" t="s">
-        <v>305</v>
+      <c r="G10" s="105" t="s">
+        <v>311</v>
+      </c>
+      <c r="H10" s="145" t="s">
+        <v>312</v>
+      </c>
+      <c r="I10" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="J10" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="K10" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="L10" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="M10" s="139" t="s">
+        <v>304</v>
       </c>
       <c r="N10" s="95" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O10" s="127" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P10" s="95" t="s">
         <v>10</v>
@@ -9015,7 +9060,7 @@
       </c>
     </row>
     <row r="11" spans="1:44" s="95" customFormat="1">
-      <c r="A11" s="139" t="s">
+      <c r="A11" s="138" t="s">
         <v>206</v>
       </c>
       <c r="B11" s="92" t="s">
@@ -9027,34 +9072,38 @@
       <c r="D11" s="105" t="s">
         <v>276</v>
       </c>
-      <c r="E11" s="135" t="s">
+      <c r="E11" s="134" t="s">
         <v>277</v>
       </c>
       <c r="F11" s="95" t="s">
         <v>223</v>
       </c>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="J11" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="K11" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="L11" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="M11" s="140" t="s">
-        <v>305</v>
+      <c r="G11" s="105" t="s">
+        <v>311</v>
+      </c>
+      <c r="H11" s="145" t="s">
+        <v>312</v>
+      </c>
+      <c r="I11" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="J11" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="K11" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="L11" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="M11" s="139" t="s">
+        <v>304</v>
       </c>
       <c r="N11" s="95" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O11" s="127" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P11" s="95" t="s">
         <v>10</v>
@@ -9120,26 +9169,26 @@
         <v>269</v>
       </c>
       <c r="D12" s="114" t="s">
-        <v>311</v>
-      </c>
-      <c r="E12" s="135" t="s">
+        <v>310</v>
+      </c>
+      <c r="E12" s="134" t="s">
         <v>277</v>
       </c>
       <c r="F12" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="144"/>
-      <c r="M12" s="144"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="143"/>
+      <c r="K12" s="143"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="143"/>
       <c r="N12" s="108" t="s">
+        <v>291</v>
+      </c>
+      <c r="O12" s="108" t="s">
         <v>292</v>
-      </c>
-      <c r="O12" s="108" t="s">
-        <v>293</v>
       </c>
       <c r="P12" s="106" t="s">
         <v>5</v>
@@ -9195,26 +9244,26 @@
         <v>269</v>
       </c>
       <c r="D13" s="114" t="s">
-        <v>311</v>
-      </c>
-      <c r="E13" s="135" t="s">
+        <v>310</v>
+      </c>
+      <c r="E13" s="134" t="s">
         <v>277</v>
       </c>
       <c r="F13" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="144"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="143"/>
       <c r="N13" s="108" t="s">
+        <v>291</v>
+      </c>
+      <c r="O13" s="108" t="s">
         <v>292</v>
-      </c>
-      <c r="O13" s="108" t="s">
-        <v>293</v>
       </c>
       <c r="P13" s="106" t="s">
         <v>5</v>
@@ -9274,7 +9323,10 @@
   <dimension ref="A1:AD13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -9285,65 +9337,67 @@
     <col min="4" max="4" width="24.33203125" style="98" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="98" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.1640625" style="103" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="99" customWidth="1"/>
-    <col min="8" max="8" width="10" style="99" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" style="99" customWidth="1"/>
+    <col min="8" max="8" width="10" style="100" customWidth="1"/>
     <col min="9" max="13" width="10" style="56" customWidth="1"/>
     <col min="14" max="14" width="74.83203125" style="99" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5" style="99" customWidth="1"/>
+    <col min="15" max="15" width="56.5" style="99" customWidth="1"/>
     <col min="16" max="16" width="22" style="103" customWidth="1"/>
     <col min="17" max="21" width="9" style="103"/>
     <col min="22" max="22" width="11" style="103" customWidth="1"/>
     <col min="23" max="23" width="35.83203125" style="103" customWidth="1"/>
     <col min="24" max="24" width="18.6640625" style="103" customWidth="1"/>
     <col min="25" max="25" width="40.5" style="103" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="103"/>
+    <col min="26" max="26" width="36.5" style="103" customWidth="1"/>
+    <col min="27" max="27" width="14.33203125" style="103" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="103"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="120" customFormat="1" ht="38">
+    <row r="1" spans="1:30" s="120" customFormat="1" ht="57">
       <c r="A1" s="116" t="s">
         <v>79</v>
       </c>
       <c r="B1" s="116" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="116" t="s">
         <v>307</v>
-      </c>
-      <c r="C1" s="116" t="s">
-        <v>308</v>
       </c>
       <c r="D1" s="116" t="s">
         <v>275</v>
       </c>
       <c r="E1" s="116" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F1" s="116" t="s">
-        <v>306</v>
-      </c>
-      <c r="G1" s="117" t="s">
+        <v>305</v>
+      </c>
+      <c r="G1" s="116" t="s">
+        <v>314</v>
+      </c>
+      <c r="H1" s="117" t="s">
+        <v>298</v>
+      </c>
+      <c r="I1" s="117" t="s">
+        <v>300</v>
+      </c>
+      <c r="J1" s="117" t="s">
+        <v>299</v>
+      </c>
+      <c r="K1" s="117" t="s">
+        <v>301</v>
+      </c>
+      <c r="L1" s="117" t="s">
+        <v>302</v>
+      </c>
+      <c r="M1" s="117" t="s">
+        <v>303</v>
+      </c>
+      <c r="N1" s="117" t="s">
         <v>278</v>
       </c>
-      <c r="H1" s="117" t="s">
-        <v>299</v>
-      </c>
-      <c r="I1" s="117" t="s">
-        <v>301</v>
-      </c>
-      <c r="J1" s="117" t="s">
-        <v>300</v>
-      </c>
-      <c r="K1" s="117" t="s">
-        <v>302</v>
-      </c>
-      <c r="L1" s="117" t="s">
-        <v>303</v>
-      </c>
-      <c r="M1" s="117" t="s">
-        <v>304</v>
-      </c>
-      <c r="N1" s="117" t="s">
+      <c r="O1" s="117" t="s">
         <v>279</v>
-      </c>
-      <c r="O1" s="117" t="s">
-        <v>280</v>
       </c>
       <c r="P1" s="116" t="s">
         <v>74</v>
@@ -9389,38 +9443,40 @@
       </c>
     </row>
     <row r="2" spans="1:30" s="91" customFormat="1">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="147" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="139" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="140" t="s">
         <v>272</v>
       </c>
       <c r="D2" s="105"/>
-      <c r="E2" s="140" t="s">
+      <c r="E2" s="139" t="s">
         <v>277</v>
       </c>
       <c r="F2" s="110" t="s">
         <v>200</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="J2" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
+      <c r="G2" s="105" t="s">
+        <v>315</v>
+      </c>
+      <c r="H2" s="112"/>
+      <c r="I2" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="J2" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
       <c r="N2" s="105" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O2" s="105" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P2" s="110" t="s">
         <v>199</v>
@@ -9464,38 +9520,40 @@
       <c r="AD2" s="110"/>
     </row>
     <row r="3" spans="1:30" s="91" customFormat="1">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="147" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="139" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="140" t="s">
         <v>272</v>
       </c>
       <c r="D3" s="105"/>
-      <c r="E3" s="140" t="s">
+      <c r="E3" s="139" t="s">
         <v>277</v>
       </c>
       <c r="F3" s="110" t="s">
         <v>200</v>
       </c>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="J3" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
+      <c r="G3" s="105" t="s">
+        <v>315</v>
+      </c>
+      <c r="H3" s="112"/>
+      <c r="I3" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="J3" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
       <c r="N3" s="105" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O3" s="105" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P3" s="110" t="s">
         <v>199</v>
@@ -9539,44 +9597,48 @@
       <c r="AD3" s="110"/>
     </row>
     <row r="4" spans="1:30" s="91" customFormat="1">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="137" t="s">
         <v>273</v>
       </c>
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="139" t="s">
         <v>271</v>
       </c>
-      <c r="C4" s="141" t="s">
+      <c r="C4" s="140" t="s">
         <v>272</v>
       </c>
       <c r="D4" s="105" t="s">
-        <v>298</v>
-      </c>
-      <c r="E4" s="140" t="s">
+        <v>297</v>
+      </c>
+      <c r="E4" s="139" t="s">
         <v>277</v>
       </c>
       <c r="F4" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="J4" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="K4" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="L4" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="M4" s="140"/>
+      <c r="G4" s="105" t="s">
+        <v>311</v>
+      </c>
+      <c r="H4" s="145" t="s">
+        <v>312</v>
+      </c>
+      <c r="I4" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="J4" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="K4" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="L4" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="M4" s="139"/>
       <c r="N4" s="105" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O4" s="105" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P4" s="110" t="s">
         <v>221</v>
@@ -9622,44 +9684,48 @@
       </c>
     </row>
     <row r="5" spans="1:30" s="91" customFormat="1">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="137" t="s">
         <v>206</v>
       </c>
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="139" t="s">
         <v>271</v>
       </c>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="140" t="s">
         <v>272</v>
       </c>
       <c r="D5" s="105" t="s">
-        <v>298</v>
-      </c>
-      <c r="E5" s="140" t="s">
+        <v>297</v>
+      </c>
+      <c r="E5" s="139" t="s">
         <v>277</v>
       </c>
       <c r="F5" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="J5" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="K5" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="L5" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="M5" s="140"/>
+      <c r="G5" s="105" t="s">
+        <v>311</v>
+      </c>
+      <c r="H5" s="145" t="s">
+        <v>312</v>
+      </c>
+      <c r="I5" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="J5" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="K5" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="L5" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="M5" s="139"/>
       <c r="N5" s="105" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O5" s="105" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P5" s="110" t="s">
         <v>221</v>
@@ -9705,38 +9771,42 @@
       </c>
     </row>
     <row r="6" spans="1:30" s="91" customFormat="1">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="146" t="s">
         <v>274</v>
       </c>
-      <c r="B6" s="140" t="s">
+      <c r="B6" s="139" t="s">
         <v>271</v>
       </c>
-      <c r="C6" s="141" t="s">
+      <c r="C6" s="140" t="s">
         <v>272</v>
       </c>
       <c r="D6" s="105"/>
-      <c r="E6" s="140" t="s">
+      <c r="E6" s="139" t="s">
         <v>277</v>
       </c>
       <c r="F6" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="J6" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="K6" s="140"/>
-      <c r="L6" s="140"/>
-      <c r="M6" s="140"/>
+      <c r="G6" s="105" t="s">
+        <v>311</v>
+      </c>
+      <c r="H6" s="145" t="s">
+        <v>312</v>
+      </c>
+      <c r="I6" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="J6" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="139"/>
       <c r="N6" s="105" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O6" s="91" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P6" s="110" t="s">
         <v>229</v>
@@ -9773,42 +9843,42 @@
       </c>
     </row>
     <row r="7" spans="1:30" s="91" customFormat="1">
-      <c r="A7" s="137" t="s">
-        <v>284</v>
-      </c>
-      <c r="B7" s="140" t="s">
+      <c r="A7" s="136" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" s="139" t="s">
         <v>271</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="140" t="s">
         <v>272</v>
       </c>
       <c r="D7" s="105"/>
-      <c r="E7" s="140" t="s">
+      <c r="E7" s="139" t="s">
         <v>277</v>
       </c>
       <c r="F7" s="91" t="s">
         <v>246</v>
       </c>
       <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="J7" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="K7" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="L7" s="140" t="s">
-        <v>305</v>
-      </c>
-      <c r="M7" s="140"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="J7" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="K7" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="L7" s="139" t="s">
+        <v>304</v>
+      </c>
+      <c r="M7" s="139"/>
       <c r="N7" s="105" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O7" s="105" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P7" s="91" t="s">
         <v>5</v>
@@ -9847,12 +9917,12 @@
       <c r="D8" s="107"/>
       <c r="E8" s="107"/>
       <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="140"/>
-      <c r="K8" s="140"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="140"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
       <c r="N8" s="105"/>
       <c r="O8" s="105"/>
     </row>
@@ -9862,12 +9932,12 @@
       <c r="D9" s="107"/>
       <c r="E9" s="107"/>
       <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="140"/>
-      <c r="K9" s="140"/>
-      <c r="L9" s="140"/>
-      <c r="M9" s="140"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="139"/>
+      <c r="L9" s="139"/>
+      <c r="M9" s="139"/>
       <c r="N9" s="95"/>
       <c r="O9" s="105"/>
     </row>
@@ -9877,12 +9947,12 @@
       <c r="D10" s="96"/>
       <c r="E10" s="96"/>
       <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="143"/>
-      <c r="K10" s="143"/>
-      <c r="L10" s="143"/>
-      <c r="M10" s="143"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="142"/>
+      <c r="M10" s="142"/>
       <c r="N10" s="95"/>
       <c r="O10" s="95"/>
     </row>
@@ -9892,12 +9962,12 @@
       <c r="D11" s="96"/>
       <c r="E11" s="96"/>
       <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="143"/>
-      <c r="K11" s="143"/>
-      <c r="L11" s="143"/>
-      <c r="M11" s="143"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="142"/>
+      <c r="K11" s="142"/>
+      <c r="L11" s="142"/>
+      <c r="M11" s="142"/>
       <c r="N11" s="108"/>
       <c r="O11" s="95"/>
     </row>
@@ -9907,12 +9977,12 @@
       <c r="D12" s="96"/>
       <c r="E12" s="96"/>
       <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="144"/>
-      <c r="M12" s="144"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="143"/>
+      <c r="K12" s="143"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="143"/>
       <c r="N12" s="108"/>
       <c r="O12" s="108"/>
     </row>
@@ -9922,12 +9992,12 @@
       <c r="D13" s="96"/>
       <c r="E13" s="96"/>
       <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="144"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="143"/>
       <c r="O13" s="108"/>
     </row>
   </sheetData>

--- a/Muscle_gene_summary_includeMF.xlsx
+++ b/Muscle_gene_summary_includeMF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HDD24TB/MetaAnalysisProject_Apr2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Documents/Bioinformatics/MetaAnalysisProject_Apr2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8BC0FB-4EAD-8243-8A2B-8DD7BC58157B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598B354A-C400-D644-9C76-C74424D682C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="3760" windowWidth="36180" windowHeight="13000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2360" windowWidth="27200" windowHeight="13000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acute" sheetId="11" r:id="rId1"/>
@@ -1086,13 +1086,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1100,20 +1100,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1392,7 +1392,7 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1410,7 +1410,7 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1468,7 +1468,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1477,7 +1477,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1496,7 +1496,7 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1515,7 +1515,7 @@
     <xf numFmtId="1" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1548,13 +1548,13 @@
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1578,10 +1578,10 @@
     <xf numFmtId="1" fontId="18" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1593,10 +1593,10 @@
     <xf numFmtId="1" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1611,10 +1611,10 @@
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1636,7 +1636,7 @@
     <xf numFmtId="1" fontId="13" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1652,7 +1652,7 @@
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1674,7 +1674,7 @@
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1713,7 +1713,7 @@
     <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1734,7 +1734,7 @@
     <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1793,9 +1793,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2096,7 +2096,7 @@
       <selection pane="bottomRight" activeCell="Q6" sqref="Q6:Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="11" bestFit="1" customWidth="1"/>
@@ -2128,7 +2128,7 @@
     <col min="29" max="16384" width="13" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="7" customFormat="1" ht="39">
+    <row r="1" spans="1:32" s="7" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>79</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="31" customFormat="1" ht="13">
+    <row r="2" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>41</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>GSE43219_N.A_F_YNG_ACT_OWE_HLY_IMM</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="31" customFormat="1" ht="13">
+    <row r="3" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>41</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>GSE43219_N.A_M_YNG_ACT_OWE_HLY_IMM</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="31" customFormat="1" ht="13">
+    <row r="4" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>45</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>GSE68585_VAL_F_MDL_SED_OWE_CKD_IMM</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="31" customFormat="1" ht="13">
+    <row r="5" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A5" s="43" t="s">
         <v>45</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>GSE68585_VAL_M_MDL_SED_OWE_CKD_IMM</v>
       </c>
     </row>
-    <row r="6" spans="1:32" s="31" customFormat="1" ht="13">
+    <row r="6" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>46</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>GSE71972_VAL_F_YNG_ACT_LEA_HLY_IMM</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="31" customFormat="1" ht="13">
+    <row r="7" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>46</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>GSE71972_VAL_F_YNG_ACT_LEA_HLY_REC</v>
       </c>
     </row>
-    <row r="8" spans="1:32" s="31" customFormat="1" ht="13">
+    <row r="8" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>46</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>GSE71972_VAL_M_YNG_ACT_LEA_HLY_IMM</v>
       </c>
     </row>
-    <row r="9" spans="1:32" s="31" customFormat="1" ht="13">
+    <row r="9" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>46</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>GSE71972_VAL_M_YNG_ACT_LEA_HLY_REC</v>
       </c>
     </row>
-    <row r="10" spans="1:32" s="31" customFormat="1" ht="13">
+    <row r="10" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>60</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>GSE24235_BIB_M_YNG_SED_LEA_HLY_REC_MIX</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="36" customFormat="1" ht="13">
+    <row r="11" spans="1:32" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>60</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>GSE24235_BIB_F_YNG_SED_LEA_HLY_REC_MIX</v>
       </c>
     </row>
-    <row r="12" spans="1:32" s="31" customFormat="1" ht="13">
+    <row r="12" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>64</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>GSE28422_VAL_F_ELD_SED_OWE_HLY_REC_MIX</v>
       </c>
     </row>
-    <row r="13" spans="1:32" s="31" customFormat="1" ht="13">
+    <row r="13" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>64</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>GSE28422_VAL_F_ELD_ACT_OWE_HLY_REC_MIX</v>
       </c>
     </row>
-    <row r="14" spans="1:32" s="31" customFormat="1" ht="13">
+    <row r="14" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>64</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>GSE28422_VAL_F_YNG_SED_LEA_HLY_REC_MIX</v>
       </c>
     </row>
-    <row r="15" spans="1:32" s="31" customFormat="1" ht="13">
+    <row r="15" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>64</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>GSE28422_VAL_F_YNG_ACT_LEA_HLY_REC_MIX</v>
       </c>
     </row>
-    <row r="16" spans="1:32" s="31" customFormat="1" ht="13">
+    <row r="16" spans="1:32" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>64</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>GSE28422_VAL_M_ELD_SED_OWE_HLY_REC_MIX</v>
       </c>
     </row>
-    <row r="17" spans="1:31" s="31" customFormat="1" ht="13">
+    <row r="17" spans="1:31" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>64</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>GSE28422_VAL_M_ELD_ACT_OWE_HLY_REC_MIX</v>
       </c>
     </row>
-    <row r="18" spans="1:31" s="31" customFormat="1" ht="13">
+    <row r="18" spans="1:31" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>64</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>GSE28422_VAL_M_YNG_SED_LEA_HLY_REC_MIX</v>
       </c>
     </row>
-    <row r="19" spans="1:31" s="31" customFormat="1" ht="13">
+    <row r="19" spans="1:31" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>64</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>GSE28422_VAL_M_YNG_ACT_LEA_HLY_REC_MIX</v>
       </c>
     </row>
-    <row r="20" spans="1:31" s="31" customFormat="1" ht="26">
+    <row r="20" spans="1:31" s="31" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A20" s="37" t="s">
         <v>253</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="1:31" s="31" customFormat="1" ht="26">
+    <row r="21" spans="1:31" s="31" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A21" s="37" t="s">
         <v>253</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.15">
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="N22" s="13"/>
@@ -3843,7 +3843,7 @@
       <c r="Z22" s="11"/>
       <c r="AA22" s="11"/>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.15">
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="N23" s="13"/>
@@ -3858,7 +3858,7 @@
       <c r="Z23" s="11"/>
       <c r="AA23" s="11"/>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.15">
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="N24" s="13"/>
@@ -3873,7 +3873,7 @@
       <c r="Z24" s="11"/>
       <c r="AA24" s="11"/>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.15">
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="N25" s="13"/>
@@ -3888,7 +3888,7 @@
       <c r="Z25" s="11"/>
       <c r="AA25" s="11"/>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.15">
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="N26" s="13"/>
@@ -3903,7 +3903,7 @@
       <c r="Z26" s="11"/>
       <c r="AA26" s="11"/>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.15">
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="N27" s="13"/>
@@ -3918,7 +3918,7 @@
       <c r="Z27" s="11"/>
       <c r="AA27" s="11"/>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.15">
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="N28" s="13"/>
@@ -3933,7 +3933,7 @@
       <c r="Z28" s="11"/>
       <c r="AA28" s="11"/>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.15">
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="N29" s="13"/>
@@ -3948,7 +3948,7 @@
       <c r="Z29" s="11"/>
       <c r="AA29" s="11"/>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.15">
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="N30" s="13"/>
@@ -3963,7 +3963,7 @@
       <c r="Z30" s="11"/>
       <c r="AA30" s="11"/>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.15">
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="N31" s="13"/>
@@ -3978,7 +3978,7 @@
       <c r="Z31" s="11"/>
       <c r="AA31" s="11"/>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.15">
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="N32" s="13"/>
@@ -3993,7 +3993,7 @@
       <c r="Z32" s="11"/>
       <c r="AA32" s="11"/>
     </row>
-    <row r="33" spans="11:27">
+    <row r="33" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="N33" s="13"/>
@@ -4008,7 +4008,7 @@
       <c r="Z33" s="11"/>
       <c r="AA33" s="11"/>
     </row>
-    <row r="34" spans="11:27">
+    <row r="34" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="N34" s="13"/>
@@ -4023,7 +4023,7 @@
       <c r="Z34" s="11"/>
       <c r="AA34" s="11"/>
     </row>
-    <row r="35" spans="11:27">
+    <row r="35" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="N35" s="13"/>
@@ -4038,7 +4038,7 @@
       <c r="Z35" s="11"/>
       <c r="AA35" s="11"/>
     </row>
-    <row r="36" spans="11:27">
+    <row r="36" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="N36" s="13"/>
@@ -4053,7 +4053,7 @@
       <c r="Z36" s="11"/>
       <c r="AA36" s="11"/>
     </row>
-    <row r="37" spans="11:27">
+    <row r="37" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="N37" s="13"/>
@@ -4068,7 +4068,7 @@
       <c r="Z37" s="11"/>
       <c r="AA37" s="11"/>
     </row>
-    <row r="38" spans="11:27">
+    <row r="38" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="N38" s="13"/>
@@ -4083,7 +4083,7 @@
       <c r="Z38" s="11"/>
       <c r="AA38" s="11"/>
     </row>
-    <row r="39" spans="11:27">
+    <row r="39" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="N39" s="13"/>
@@ -4098,7 +4098,7 @@
       <c r="Z39" s="11"/>
       <c r="AA39" s="11"/>
     </row>
-    <row r="40" spans="11:27">
+    <row r="40" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="N40" s="13"/>
@@ -4113,7 +4113,7 @@
       <c r="Z40" s="11"/>
       <c r="AA40" s="11"/>
     </row>
-    <row r="41" spans="11:27">
+    <row r="41" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="N41" s="13"/>
@@ -4128,7 +4128,7 @@
       <c r="Z41" s="11"/>
       <c r="AA41" s="11"/>
     </row>
-    <row r="42" spans="11:27">
+    <row r="42" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="N42" s="13"/>
@@ -4143,7 +4143,7 @@
       <c r="Z42" s="11"/>
       <c r="AA42" s="11"/>
     </row>
-    <row r="43" spans="11:27">
+    <row r="43" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="N43" s="13"/>
@@ -4158,7 +4158,7 @@
       <c r="Z43" s="11"/>
       <c r="AA43" s="11"/>
     </row>
-    <row r="44" spans="11:27">
+    <row r="44" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="N44" s="13"/>
@@ -4173,7 +4173,7 @@
       <c r="Z44" s="11"/>
       <c r="AA44" s="11"/>
     </row>
-    <row r="45" spans="11:27">
+    <row r="45" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="N45" s="13"/>
@@ -4188,7 +4188,7 @@
       <c r="Z45" s="11"/>
       <c r="AA45" s="11"/>
     </row>
-    <row r="46" spans="11:27">
+    <row r="46" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="N46" s="13"/>
@@ -4203,7 +4203,7 @@
       <c r="Z46" s="11"/>
       <c r="AA46" s="11"/>
     </row>
-    <row r="47" spans="11:27">
+    <row r="47" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="N47" s="13"/>
@@ -4218,7 +4218,7 @@
       <c r="Z47" s="11"/>
       <c r="AA47" s="11"/>
     </row>
-    <row r="48" spans="11:27">
+    <row r="48" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
       <c r="N48" s="13"/>
@@ -4233,7 +4233,7 @@
       <c r="Z48" s="11"/>
       <c r="AA48" s="11"/>
     </row>
-    <row r="49" spans="11:27">
+    <row r="49" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="N49" s="13"/>
@@ -4248,7 +4248,7 @@
       <c r="Z49" s="11"/>
       <c r="AA49" s="11"/>
     </row>
-    <row r="50" spans="11:27">
+    <row r="50" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="N50" s="13"/>
@@ -4263,7 +4263,7 @@
       <c r="Z50" s="11"/>
       <c r="AA50" s="11"/>
     </row>
-    <row r="51" spans="11:27">
+    <row r="51" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
       <c r="N51" s="13"/>
@@ -4278,7 +4278,7 @@
       <c r="Z51" s="11"/>
       <c r="AA51" s="11"/>
     </row>
-    <row r="52" spans="11:27">
+    <row r="52" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
       <c r="N52" s="13"/>
@@ -4293,7 +4293,7 @@
       <c r="Z52" s="11"/>
       <c r="AA52" s="11"/>
     </row>
-    <row r="53" spans="11:27">
+    <row r="53" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
       <c r="N53" s="13"/>
@@ -4308,7 +4308,7 @@
       <c r="Z53" s="11"/>
       <c r="AA53" s="11"/>
     </row>
-    <row r="54" spans="11:27">
+    <row r="54" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
       <c r="N54" s="13"/>
@@ -4323,7 +4323,7 @@
       <c r="Z54" s="11"/>
       <c r="AA54" s="11"/>
     </row>
-    <row r="55" spans="11:27">
+    <row r="55" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
       <c r="N55" s="13"/>
@@ -4338,7 +4338,7 @@
       <c r="Z55" s="11"/>
       <c r="AA55" s="11"/>
     </row>
-    <row r="56" spans="11:27">
+    <row r="56" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
       <c r="N56" s="13"/>
@@ -4353,7 +4353,7 @@
       <c r="Z56" s="11"/>
       <c r="AA56" s="11"/>
     </row>
-    <row r="57" spans="11:27">
+    <row r="57" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
       <c r="N57" s="13"/>
@@ -4368,7 +4368,7 @@
       <c r="Z57" s="11"/>
       <c r="AA57" s="11"/>
     </row>
-    <row r="58" spans="11:27">
+    <row r="58" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
       <c r="N58" s="13"/>
@@ -4383,7 +4383,7 @@
       <c r="Z58" s="11"/>
       <c r="AA58" s="11"/>
     </row>
-    <row r="59" spans="11:27">
+    <row r="59" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
       <c r="N59" s="13"/>
@@ -4398,7 +4398,7 @@
       <c r="Z59" s="11"/>
       <c r="AA59" s="11"/>
     </row>
-    <row r="60" spans="11:27">
+    <row r="60" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
       <c r="N60" s="13"/>
@@ -4413,7 +4413,7 @@
       <c r="Z60" s="11"/>
       <c r="AA60" s="11"/>
     </row>
-    <row r="61" spans="11:27">
+    <row r="61" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
       <c r="N61" s="13"/>
@@ -4428,7 +4428,7 @@
       <c r="Z61" s="11"/>
       <c r="AA61" s="11"/>
     </row>
-    <row r="62" spans="11:27">
+    <row r="62" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
       <c r="N62" s="13"/>
@@ -4443,7 +4443,7 @@
       <c r="Z62" s="11"/>
       <c r="AA62" s="11"/>
     </row>
-    <row r="63" spans="11:27">
+    <row r="63" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
       <c r="N63" s="13"/>
@@ -4458,7 +4458,7 @@
       <c r="Z63" s="11"/>
       <c r="AA63" s="11"/>
     </row>
-    <row r="64" spans="11:27">
+    <row r="64" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
       <c r="N64" s="13"/>
@@ -4473,7 +4473,7 @@
       <c r="Z64" s="11"/>
       <c r="AA64" s="11"/>
     </row>
-    <row r="65" spans="11:27">
+    <row r="65" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
       <c r="N65" s="13"/>
@@ -4488,7 +4488,7 @@
       <c r="Z65" s="11"/>
       <c r="AA65" s="11"/>
     </row>
-    <row r="66" spans="11:27">
+    <row r="66" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
       <c r="N66" s="13"/>
@@ -4503,7 +4503,7 @@
       <c r="Z66" s="11"/>
       <c r="AA66" s="11"/>
     </row>
-    <row r="67" spans="11:27">
+    <row r="67" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
       <c r="N67" s="13"/>
@@ -4518,7 +4518,7 @@
       <c r="Z67" s="11"/>
       <c r="AA67" s="11"/>
     </row>
-    <row r="68" spans="11:27">
+    <row r="68" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
       <c r="N68" s="13"/>
@@ -4533,7 +4533,7 @@
       <c r="Z68" s="11"/>
       <c r="AA68" s="11"/>
     </row>
-    <row r="69" spans="11:27">
+    <row r="69" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
       <c r="N69" s="13"/>
@@ -4548,7 +4548,7 @@
       <c r="Z69" s="11"/>
       <c r="AA69" s="11"/>
     </row>
-    <row r="70" spans="11:27">
+    <row r="70" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="N70" s="13"/>
@@ -4563,7 +4563,7 @@
       <c r="Z70" s="11"/>
       <c r="AA70" s="11"/>
     </row>
-    <row r="71" spans="11:27">
+    <row r="71" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
       <c r="N71" s="13"/>
@@ -4578,7 +4578,7 @@
       <c r="Z71" s="11"/>
       <c r="AA71" s="11"/>
     </row>
-    <row r="72" spans="11:27">
+    <row r="72" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="N72" s="13"/>
@@ -4593,7 +4593,7 @@
       <c r="Z72" s="11"/>
       <c r="AA72" s="11"/>
     </row>
-    <row r="73" spans="11:27">
+    <row r="73" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
       <c r="N73" s="13"/>
@@ -4608,7 +4608,7 @@
       <c r="Z73" s="11"/>
       <c r="AA73" s="11"/>
     </row>
-    <row r="74" spans="11:27">
+    <row r="74" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
       <c r="N74" s="13"/>
@@ -4623,7 +4623,7 @@
       <c r="Z74" s="11"/>
       <c r="AA74" s="11"/>
     </row>
-    <row r="75" spans="11:27">
+    <row r="75" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
       <c r="N75" s="13"/>
@@ -4638,7 +4638,7 @@
       <c r="Z75" s="11"/>
       <c r="AA75" s="11"/>
     </row>
-    <row r="76" spans="11:27">
+    <row r="76" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
       <c r="N76" s="13"/>
@@ -4653,7 +4653,7 @@
       <c r="Z76" s="11"/>
       <c r="AA76" s="11"/>
     </row>
-    <row r="77" spans="11:27">
+    <row r="77" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
       <c r="N77" s="13"/>
@@ -4668,7 +4668,7 @@
       <c r="Z77" s="11"/>
       <c r="AA77" s="11"/>
     </row>
-    <row r="78" spans="11:27">
+    <row r="78" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
       <c r="N78" s="13"/>
@@ -4683,7 +4683,7 @@
       <c r="Z78" s="11"/>
       <c r="AA78" s="11"/>
     </row>
-    <row r="79" spans="11:27">
+    <row r="79" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
       <c r="N79" s="13"/>
@@ -4698,7 +4698,7 @@
       <c r="Z79" s="11"/>
       <c r="AA79" s="11"/>
     </row>
-    <row r="80" spans="11:27">
+    <row r="80" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
       <c r="N80" s="13"/>
@@ -4713,7 +4713,7 @@
       <c r="Z80" s="11"/>
       <c r="AA80" s="11"/>
     </row>
-    <row r="81" spans="11:27">
+    <row r="81" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
       <c r="N81" s="13"/>
@@ -4728,7 +4728,7 @@
       <c r="Z81" s="11"/>
       <c r="AA81" s="11"/>
     </row>
-    <row r="82" spans="11:27">
+    <row r="82" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
       <c r="N82" s="13"/>
@@ -4743,7 +4743,7 @@
       <c r="Z82" s="11"/>
       <c r="AA82" s="11"/>
     </row>
-    <row r="83" spans="11:27">
+    <row r="83" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
       <c r="N83" s="13"/>
@@ -4758,7 +4758,7 @@
       <c r="Z83" s="11"/>
       <c r="AA83" s="11"/>
     </row>
-    <row r="84" spans="11:27">
+    <row r="84" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
       <c r="N84" s="13"/>
@@ -4773,7 +4773,7 @@
       <c r="Z84" s="11"/>
       <c r="AA84" s="11"/>
     </row>
-    <row r="85" spans="11:27">
+    <row r="85" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
       <c r="N85" s="13"/>
@@ -4788,7 +4788,7 @@
       <c r="Z85" s="11"/>
       <c r="AA85" s="11"/>
     </row>
-    <row r="86" spans="11:27">
+    <row r="86" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
       <c r="N86" s="13"/>
@@ -4803,7 +4803,7 @@
       <c r="Z86" s="11"/>
       <c r="AA86" s="11"/>
     </row>
-    <row r="87" spans="11:27">
+    <row r="87" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
       <c r="N87" s="13"/>
@@ -4818,7 +4818,7 @@
       <c r="Z87" s="11"/>
       <c r="AA87" s="11"/>
     </row>
-    <row r="88" spans="11:27">
+    <row r="88" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
       <c r="N88" s="13"/>
@@ -4833,7 +4833,7 @@
       <c r="Z88" s="11"/>
       <c r="AA88" s="11"/>
     </row>
-    <row r="89" spans="11:27">
+    <row r="89" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K89" s="8"/>
       <c r="L89" s="8"/>
       <c r="N89" s="13"/>
@@ -4848,7 +4848,7 @@
       <c r="Z89" s="11"/>
       <c r="AA89" s="11"/>
     </row>
-    <row r="90" spans="11:27">
+    <row r="90" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
       <c r="N90" s="13"/>
@@ -4863,7 +4863,7 @@
       <c r="Z90" s="11"/>
       <c r="AA90" s="11"/>
     </row>
-    <row r="91" spans="11:27">
+    <row r="91" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
       <c r="N91" s="13"/>
@@ -4878,7 +4878,7 @@
       <c r="Z91" s="11"/>
       <c r="AA91" s="11"/>
     </row>
-    <row r="92" spans="11:27">
+    <row r="92" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
       <c r="N92" s="13"/>
@@ -4893,7 +4893,7 @@
       <c r="Z92" s="11"/>
       <c r="AA92" s="11"/>
     </row>
-    <row r="93" spans="11:27">
+    <row r="93" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K93" s="8"/>
       <c r="L93" s="8"/>
       <c r="N93" s="13"/>
@@ -4908,7 +4908,7 @@
       <c r="Z93" s="11"/>
       <c r="AA93" s="11"/>
     </row>
-    <row r="94" spans="11:27">
+    <row r="94" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K94" s="8"/>
       <c r="L94" s="8"/>
       <c r="N94" s="13"/>
@@ -4923,7 +4923,7 @@
       <c r="Z94" s="11"/>
       <c r="AA94" s="11"/>
     </row>
-    <row r="95" spans="11:27">
+    <row r="95" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K95" s="8"/>
       <c r="L95" s="8"/>
       <c r="N95" s="13"/>
@@ -4938,7 +4938,7 @@
       <c r="Z95" s="11"/>
       <c r="AA95" s="11"/>
     </row>
-    <row r="96" spans="11:27">
+    <row r="96" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K96" s="8"/>
       <c r="L96" s="8"/>
       <c r="N96" s="13"/>
@@ -4953,7 +4953,7 @@
       <c r="Z96" s="11"/>
       <c r="AA96" s="11"/>
     </row>
-    <row r="97" spans="11:27">
+    <row r="97" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K97" s="8"/>
       <c r="L97" s="8"/>
       <c r="N97" s="13"/>
@@ -4968,7 +4968,7 @@
       <c r="Z97" s="11"/>
       <c r="AA97" s="11"/>
     </row>
-    <row r="98" spans="11:27">
+    <row r="98" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K98" s="8"/>
       <c r="L98" s="8"/>
       <c r="N98" s="13"/>
@@ -4983,7 +4983,7 @@
       <c r="Z98" s="11"/>
       <c r="AA98" s="11"/>
     </row>
-    <row r="99" spans="11:27">
+    <row r="99" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K99" s="8"/>
       <c r="L99" s="8"/>
       <c r="N99" s="13"/>
@@ -4998,7 +4998,7 @@
       <c r="Z99" s="11"/>
       <c r="AA99" s="11"/>
     </row>
-    <row r="100" spans="11:27">
+    <row r="100" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K100" s="8"/>
       <c r="L100" s="8"/>
       <c r="N100" s="13"/>
@@ -5013,7 +5013,7 @@
       <c r="Z100" s="11"/>
       <c r="AA100" s="11"/>
     </row>
-    <row r="101" spans="11:27">
+    <row r="101" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K101" s="8"/>
       <c r="L101" s="8"/>
       <c r="N101" s="13"/>
@@ -5028,7 +5028,7 @@
       <c r="Z101" s="11"/>
       <c r="AA101" s="11"/>
     </row>
-    <row r="102" spans="11:27">
+    <row r="102" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K102" s="8"/>
       <c r="L102" s="8"/>
       <c r="N102" s="13"/>
@@ -5043,7 +5043,7 @@
       <c r="Z102" s="11"/>
       <c r="AA102" s="11"/>
     </row>
-    <row r="103" spans="11:27">
+    <row r="103" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K103" s="8"/>
       <c r="L103" s="8"/>
       <c r="N103" s="13"/>
@@ -5058,7 +5058,7 @@
       <c r="Z103" s="11"/>
       <c r="AA103" s="11"/>
     </row>
-    <row r="104" spans="11:27">
+    <row r="104" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K104" s="8"/>
       <c r="L104" s="8"/>
       <c r="N104" s="13"/>
@@ -5073,7 +5073,7 @@
       <c r="Z104" s="11"/>
       <c r="AA104" s="11"/>
     </row>
-    <row r="105" spans="11:27">
+    <row r="105" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K105" s="8"/>
       <c r="L105" s="8"/>
       <c r="N105" s="13"/>
@@ -5088,7 +5088,7 @@
       <c r="Z105" s="11"/>
       <c r="AA105" s="11"/>
     </row>
-    <row r="106" spans="11:27">
+    <row r="106" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K106" s="8"/>
       <c r="L106" s="8"/>
       <c r="N106" s="13"/>
@@ -5103,7 +5103,7 @@
       <c r="Z106" s="11"/>
       <c r="AA106" s="11"/>
     </row>
-    <row r="107" spans="11:27">
+    <row r="107" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K107" s="8"/>
       <c r="L107" s="8"/>
       <c r="N107" s="13"/>
@@ -5118,7 +5118,7 @@
       <c r="Z107" s="11"/>
       <c r="AA107" s="11"/>
     </row>
-    <row r="108" spans="11:27">
+    <row r="108" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K108" s="8"/>
       <c r="L108" s="8"/>
       <c r="N108" s="13"/>
@@ -5133,7 +5133,7 @@
       <c r="Z108" s="11"/>
       <c r="AA108" s="11"/>
     </row>
-    <row r="109" spans="11:27">
+    <row r="109" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K109" s="8"/>
       <c r="L109" s="8"/>
       <c r="N109" s="13"/>
@@ -5148,7 +5148,7 @@
       <c r="Z109" s="11"/>
       <c r="AA109" s="11"/>
     </row>
-    <row r="110" spans="11:27">
+    <row r="110" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K110" s="8"/>
       <c r="L110" s="8"/>
       <c r="N110" s="13"/>
@@ -5163,7 +5163,7 @@
       <c r="Z110" s="11"/>
       <c r="AA110" s="11"/>
     </row>
-    <row r="111" spans="11:27">
+    <row r="111" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
       <c r="N111" s="13"/>
@@ -5178,7 +5178,7 @@
       <c r="Z111" s="11"/>
       <c r="AA111" s="11"/>
     </row>
-    <row r="112" spans="11:27">
+    <row r="112" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K112" s="8"/>
       <c r="L112" s="8"/>
       <c r="N112" s="13"/>
@@ -5193,7 +5193,7 @@
       <c r="Z112" s="11"/>
       <c r="AA112" s="11"/>
     </row>
-    <row r="113" spans="11:27">
+    <row r="113" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K113" s="8"/>
       <c r="L113" s="8"/>
       <c r="N113" s="13"/>
@@ -5208,7 +5208,7 @@
       <c r="Z113" s="11"/>
       <c r="AA113" s="11"/>
     </row>
-    <row r="114" spans="11:27">
+    <row r="114" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K114" s="8"/>
       <c r="L114" s="8"/>
       <c r="N114" s="13"/>
@@ -5223,7 +5223,7 @@
       <c r="Z114" s="11"/>
       <c r="AA114" s="11"/>
     </row>
-    <row r="115" spans="11:27">
+    <row r="115" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K115" s="8"/>
       <c r="L115" s="8"/>
       <c r="N115" s="13"/>
@@ -5238,7 +5238,7 @@
       <c r="Z115" s="11"/>
       <c r="AA115" s="11"/>
     </row>
-    <row r="116" spans="11:27">
+    <row r="116" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K116" s="8"/>
       <c r="L116" s="8"/>
       <c r="N116" s="13"/>
@@ -5253,7 +5253,7 @@
       <c r="Z116" s="11"/>
       <c r="AA116" s="11"/>
     </row>
-    <row r="117" spans="11:27">
+    <row r="117" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K117" s="8"/>
       <c r="L117" s="8"/>
       <c r="N117" s="13"/>
@@ -5268,7 +5268,7 @@
       <c r="Z117" s="11"/>
       <c r="AA117" s="11"/>
     </row>
-    <row r="118" spans="11:27">
+    <row r="118" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
       <c r="N118" s="13"/>
@@ -5283,7 +5283,7 @@
       <c r="Z118" s="11"/>
       <c r="AA118" s="11"/>
     </row>
-    <row r="119" spans="11:27">
+    <row r="119" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K119" s="8"/>
       <c r="L119" s="8"/>
       <c r="N119" s="13"/>
@@ -5298,7 +5298,7 @@
       <c r="Z119" s="11"/>
       <c r="AA119" s="11"/>
     </row>
-    <row r="120" spans="11:27">
+    <row r="120" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K120" s="8"/>
       <c r="L120" s="8"/>
       <c r="N120" s="13"/>
@@ -5313,7 +5313,7 @@
       <c r="Z120" s="11"/>
       <c r="AA120" s="11"/>
     </row>
-    <row r="121" spans="11:27">
+    <row r="121" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K121" s="8"/>
       <c r="L121" s="8"/>
       <c r="N121" s="13"/>
@@ -5328,7 +5328,7 @@
       <c r="Z121" s="11"/>
       <c r="AA121" s="11"/>
     </row>
-    <row r="122" spans="11:27">
+    <row r="122" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K122" s="8"/>
       <c r="L122" s="8"/>
       <c r="N122" s="13"/>
@@ -5343,7 +5343,7 @@
       <c r="Z122" s="11"/>
       <c r="AA122" s="11"/>
     </row>
-    <row r="123" spans="11:27">
+    <row r="123" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K123" s="8"/>
       <c r="L123" s="8"/>
       <c r="N123" s="13"/>
@@ -5358,7 +5358,7 @@
       <c r="Z123" s="11"/>
       <c r="AA123" s="11"/>
     </row>
-    <row r="124" spans="11:27">
+    <row r="124" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K124" s="8"/>
       <c r="L124" s="8"/>
       <c r="N124" s="13"/>
@@ -5373,7 +5373,7 @@
       <c r="Z124" s="11"/>
       <c r="AA124" s="11"/>
     </row>
-    <row r="125" spans="11:27">
+    <row r="125" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K125" s="8"/>
       <c r="L125" s="8"/>
       <c r="N125" s="13"/>
@@ -5388,7 +5388,7 @@
       <c r="Z125" s="11"/>
       <c r="AA125" s="11"/>
     </row>
-    <row r="126" spans="11:27">
+    <row r="126" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K126" s="8"/>
       <c r="L126" s="8"/>
       <c r="N126" s="13"/>
@@ -5403,7 +5403,7 @@
       <c r="Z126" s="11"/>
       <c r="AA126" s="11"/>
     </row>
-    <row r="127" spans="11:27">
+    <row r="127" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
       <c r="N127" s="13"/>
@@ -5418,7 +5418,7 @@
       <c r="Z127" s="11"/>
       <c r="AA127" s="11"/>
     </row>
-    <row r="128" spans="11:27">
+    <row r="128" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K128" s="8"/>
       <c r="L128" s="8"/>
       <c r="N128" s="13"/>
@@ -5433,7 +5433,7 @@
       <c r="Z128" s="11"/>
       <c r="AA128" s="11"/>
     </row>
-    <row r="129" spans="11:27">
+    <row r="129" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K129" s="8"/>
       <c r="L129" s="8"/>
       <c r="N129" s="13"/>
@@ -5448,7 +5448,7 @@
       <c r="Z129" s="11"/>
       <c r="AA129" s="11"/>
     </row>
-    <row r="130" spans="11:27">
+    <row r="130" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K130" s="8"/>
       <c r="L130" s="8"/>
       <c r="N130" s="13"/>
@@ -5463,7 +5463,7 @@
       <c r="Z130" s="11"/>
       <c r="AA130" s="11"/>
     </row>
-    <row r="131" spans="11:27">
+    <row r="131" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K131" s="8"/>
       <c r="L131" s="8"/>
       <c r="N131" s="13"/>
@@ -5478,7 +5478,7 @@
       <c r="Z131" s="11"/>
       <c r="AA131" s="11"/>
     </row>
-    <row r="132" spans="11:27">
+    <row r="132" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K132" s="8"/>
       <c r="L132" s="8"/>
       <c r="N132" s="13"/>
@@ -5493,7 +5493,7 @@
       <c r="Z132" s="11"/>
       <c r="AA132" s="11"/>
     </row>
-    <row r="133" spans="11:27">
+    <row r="133" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K133" s="8"/>
       <c r="L133" s="8"/>
       <c r="N133" s="13"/>
@@ -5508,7 +5508,7 @@
       <c r="Z133" s="11"/>
       <c r="AA133" s="11"/>
     </row>
-    <row r="134" spans="11:27">
+    <row r="134" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
       <c r="N134" s="13"/>
@@ -5523,7 +5523,7 @@
       <c r="Z134" s="11"/>
       <c r="AA134" s="11"/>
     </row>
-    <row r="135" spans="11:27">
+    <row r="135" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K135" s="8"/>
       <c r="L135" s="8"/>
       <c r="N135" s="13"/>
@@ -5538,7 +5538,7 @@
       <c r="Z135" s="11"/>
       <c r="AA135" s="11"/>
     </row>
-    <row r="136" spans="11:27">
+    <row r="136" spans="11:27" x14ac:dyDescent="0.15">
       <c r="K136" s="8"/>
       <c r="L136" s="8"/>
       <c r="N136" s="13"/>
@@ -5571,7 +5571,7 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="54" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" style="55" customWidth="1"/>
@@ -5604,7 +5604,7 @@
     <col min="34" max="16384" width="13" style="48" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="89" customFormat="1">
+    <row r="1" spans="1:33" s="89" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="86" t="s">
         <v>79</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="90" t="s">
         <v>53</v>
       </c>
@@ -5792,7 +5792,7 @@
       <c r="AF2" s="61"/>
       <c r="AG2" s="61"/>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="90" t="s">
         <v>53</v>
       </c>
@@ -5879,7 +5879,7 @@
       <c r="AF3" s="61"/>
       <c r="AG3" s="61"/>
     </row>
-    <row r="4" spans="1:33" s="51" customFormat="1">
+    <row r="4" spans="1:33" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="71" t="s">
         <v>60</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>GSE24235_BIB_F_YNG_SED_LEA_HLY</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="51" customFormat="1">
+    <row r="5" spans="1:33" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="71" t="s">
         <v>60</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>GSE24235_BIB_M_YNG_SED_LEA_HLY</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="90" t="s">
         <v>64</v>
       </c>
@@ -6122,7 +6122,7 @@
       <c r="AF6" s="76"/>
       <c r="AG6" s="76"/>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="90" t="s">
         <v>64</v>
       </c>
@@ -6205,7 +6205,7 @@
       <c r="AF7" s="76"/>
       <c r="AG7" s="76"/>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="90" t="s">
         <v>64</v>
       </c>
@@ -6288,7 +6288,7 @@
       <c r="AF8" s="76"/>
       <c r="AG8" s="76"/>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="90" t="s">
         <v>64</v>
       </c>
@@ -6371,7 +6371,7 @@
       <c r="AF9" s="76"/>
       <c r="AG9" s="76"/>
     </row>
-    <row r="10" spans="1:33" s="51" customFormat="1">
+    <row r="10" spans="1:33" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="71" t="s">
         <v>65</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>GSE28998_BIB_F_YNG_SED_OWE_HLY</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="51" customFormat="1">
+    <row r="11" spans="1:33" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="71" t="s">
         <v>65</v>
       </c>
@@ -6532,7 +6532,7 @@
       </c>
       <c r="AF11" s="53"/>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="90" t="s">
         <v>56</v>
       </c>
@@ -6620,7 +6620,7 @@
       <c r="AF12" s="61"/>
       <c r="AG12" s="61"/>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="90" t="s">
         <v>56</v>
       </c>
@@ -6708,7 +6708,7 @@
       <c r="AF13" s="61"/>
       <c r="AG13" s="61"/>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
         <v>56</v>
       </c>
@@ -6796,7 +6796,7 @@
       <c r="AF14" s="76"/>
       <c r="AG14" s="76"/>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="90" t="s">
         <v>56</v>
       </c>
@@ -6884,7 +6884,7 @@
       <c r="AF15" s="76"/>
       <c r="AG15" s="76"/>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="90" t="s">
         <v>57</v>
       </c>
@@ -6969,7 +6969,7 @@
       <c r="AF16" s="76"/>
       <c r="AG16" s="76"/>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="90" t="s">
         <v>57</v>
       </c>
@@ -7054,7 +7054,7 @@
       <c r="AF17" s="76"/>
       <c r="AG17" s="76"/>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="90" t="s">
         <v>57</v>
       </c>
@@ -7139,7 +7139,7 @@
       <c r="AF18" s="61"/>
       <c r="AG18" s="61"/>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="90" t="s">
         <v>57</v>
       </c>
@@ -7224,7 +7224,7 @@
       <c r="AF19" s="61"/>
       <c r="AG19" s="61"/>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="90" t="s">
         <v>58</v>
       </c>
@@ -7309,7 +7309,7 @@
       <c r="AF20" s="76"/>
       <c r="AG20" s="76"/>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="90" t="s">
         <v>58</v>
       </c>
@@ -7394,7 +7394,7 @@
       <c r="AF21" s="76"/>
       <c r="AG21" s="76"/>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="90" t="s">
         <v>165</v>
       </c>
@@ -7479,7 +7479,7 @@
       <c r="AF22" s="76"/>
       <c r="AG22" s="76"/>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="90" t="s">
         <v>165</v>
       </c>
@@ -7562,7 +7562,7 @@
       <c r="AF23" s="76"/>
       <c r="AG23" s="76"/>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="90" t="s">
         <v>165</v>
       </c>
@@ -7645,7 +7645,7 @@
       <c r="AF24" s="76"/>
       <c r="AG24" s="76"/>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="90" t="s">
         <v>165</v>
       </c>
@@ -7728,7 +7728,7 @@
       <c r="AF25" s="76"/>
       <c r="AG25" s="76"/>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="90" t="s">
         <v>231</v>
       </c>
@@ -7791,7 +7791,7 @@
       </c>
       <c r="AG26" s="61"/>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="90" t="s">
         <v>231</v>
       </c>
@@ -7895,12 +7895,12 @@
   </sheetPr>
   <dimension ref="A1:AR13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I9" sqref="I9"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="98" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" style="111"/>
@@ -7934,7 +7934,7 @@
     <col min="45" max="16384" width="9.83203125" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="120" customFormat="1" ht="57">
+    <row r="1" spans="1:44" s="120" customFormat="1" ht="38" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
         <v>79</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="95" customFormat="1">
+    <row r="2" spans="1:44" s="95" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="104" t="s">
         <v>293</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>GSE14901_VAL_M_YNG_SED_LEA_HLY_MED</v>
       </c>
     </row>
-    <row r="3" spans="1:44" s="95" customFormat="1">
+    <row r="3" spans="1:44" s="95" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="104" t="s">
         <v>146</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>GSE14901_VAL_F_YNG_SED_LEA_HLY_MED</v>
       </c>
     </row>
-    <row r="4" spans="1:44" s="95" customFormat="1">
+    <row r="4" spans="1:44" s="95" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="104" t="s">
         <v>146</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>GSE14901_VAL_M_YNG_SED_LEA_HLY_SHO</v>
       </c>
     </row>
-    <row r="5" spans="1:44" s="95" customFormat="1">
+    <row r="5" spans="1:44" s="95" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="104" t="s">
         <v>146</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>GSE14901_VAL_F_YNG_SED_LEA_HLY_SHO</v>
       </c>
     </row>
-    <row r="6" spans="1:44" s="95" customFormat="1">
+    <row r="6" spans="1:44" s="95" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="141" t="s">
         <v>283</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>GSE113165_VAL_M_YNG_ACT_LEA_HLY_MED</v>
       </c>
     </row>
-    <row r="7" spans="1:44" s="95" customFormat="1">
+    <row r="7" spans="1:44" s="95" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
         <v>196</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>GSE113165_VAL_M_ELD_ACT_OWE_HLY_MED</v>
       </c>
     </row>
-    <row r="8" spans="1:44" s="95" customFormat="1">
+    <row r="8" spans="1:44" s="95" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="141" t="s">
         <v>196</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>GSE113165_VAL_F_YNG_ACT_LEA_HLY_MED</v>
       </c>
     </row>
-    <row r="9" spans="1:44" s="95" customFormat="1">
+    <row r="9" spans="1:44" s="95" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="141" t="s">
         <v>196</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>GSE113165_VAL_F_ELD_ACT_OWE_HLY_MED</v>
       </c>
     </row>
-    <row r="10" spans="1:44" s="95" customFormat="1">
+    <row r="10" spans="1:44" s="95" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="138" t="s">
         <v>206</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:44" s="95" customFormat="1">
+    <row r="11" spans="1:44" s="95" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="138" t="s">
         <v>206</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:44" s="95" customFormat="1">
+    <row r="12" spans="1:44" s="95" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="115" t="s">
         <v>240</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:44" s="95" customFormat="1">
+    <row r="13" spans="1:44" s="95" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="115" t="s">
         <v>240</v>
       </c>
@@ -9322,14 +9322,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E983AE-3E94-4A77-A645-69889912A19D}">
   <dimension ref="A1:AD13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="103" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" style="123"/>
@@ -9353,7 +9353,7 @@
     <col min="28" max="16384" width="9" style="103"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="120" customFormat="1" ht="57">
+    <row r="1" spans="1:30" s="120" customFormat="1" ht="38" x14ac:dyDescent="0.2">
       <c r="A1" s="116" t="s">
         <v>79</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="91" customFormat="1">
+    <row r="2" spans="1:30" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="147" t="s">
         <v>198</v>
       </c>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="AD2" s="110"/>
     </row>
-    <row r="3" spans="1:30" s="91" customFormat="1">
+    <row r="3" spans="1:30" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="147" t="s">
         <v>198</v>
       </c>
@@ -9596,7 +9596,7 @@
       </c>
       <c r="AD3" s="110"/>
     </row>
-    <row r="4" spans="1:30" s="91" customFormat="1">
+    <row r="4" spans="1:30" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="137" t="s">
         <v>273</v>
       </c>
@@ -9683,7 +9683,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="91" customFormat="1">
+    <row r="5" spans="1:30" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="137" t="s">
         <v>206</v>
       </c>
@@ -9770,7 +9770,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="91" customFormat="1">
+    <row r="6" spans="1:30" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="146" t="s">
         <v>274</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="91" customFormat="1">
+    <row r="7" spans="1:30" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="136" t="s">
         <v>283</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B8" s="121"/>
       <c r="C8" s="107"/>
       <c r="D8" s="107"/>
@@ -9926,7 +9926,7 @@
       <c r="N8" s="105"/>
       <c r="O8" s="105"/>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B9" s="121"/>
       <c r="C9" s="107"/>
       <c r="D9" s="107"/>
@@ -9941,7 +9941,7 @@
       <c r="N9" s="95"/>
       <c r="O9" s="105"/>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B10" s="122"/>
       <c r="C10" s="96"/>
       <c r="D10" s="96"/>
@@ -9956,7 +9956,7 @@
       <c r="N10" s="95"/>
       <c r="O10" s="95"/>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B11" s="122"/>
       <c r="C11" s="96"/>
       <c r="D11" s="96"/>
@@ -9971,7 +9971,7 @@
       <c r="N11" s="108"/>
       <c r="O11" s="95"/>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B12" s="122"/>
       <c r="C12" s="96"/>
       <c r="D12" s="96"/>
@@ -9986,7 +9986,7 @@
       <c r="N12" s="108"/>
       <c r="O12" s="108"/>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B13" s="122"/>
       <c r="C13" s="96"/>
       <c r="D13" s="96"/>
@@ -10014,7 +10014,7 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.6640625" style="18" bestFit="1" customWidth="1"/>
@@ -10022,7 +10022,7 @@
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>92</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
         <v>74</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
         <v>74</v>
       </c>
@@ -10055,7 +10055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
         <v>74</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
         <v>74</v>
       </c>
@@ -10077,7 +10077,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
         <v>23</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
         <v>23</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">
         <v>23</v>
       </c>
@@ -10110,7 +10110,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="22" t="s">
         <v>0</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="22" t="s">
         <v>0</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="22" t="s">
         <v>0</v>
       </c>
@@ -10143,7 +10143,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="21" t="s">
         <v>107</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="21" t="s">
         <v>107</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="21" t="s">
         <v>107</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="23" t="s">
         <v>168</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="23" t="s">
         <v>168</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="23" t="s">
         <v>168</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="23" t="s">
         <v>168</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="21" t="s">
         <v>109</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="21" t="s">
         <v>109</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="21" t="s">
         <v>109</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="21" t="s">
         <v>109</v>
       </c>
@@ -10264,7 +10264,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="21" t="s">
         <v>109</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="21" t="s">
         <v>109</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="24" t="s">
         <v>113</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="24" t="s">
         <v>113</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="21" t="s">
         <v>26</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="21" t="s">
         <v>26</v>
       </c>
@@ -10330,7 +10330,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="21" t="s">
         <v>26</v>
       </c>
@@ -10341,7 +10341,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="25" t="s">
         <v>157</v>
       </c>
@@ -10352,7 +10352,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="25" t="s">
         <v>157</v>
       </c>
@@ -10363,7 +10363,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="25" t="s">
         <v>157</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="21" t="s">
         <v>161</v>
       </c>
@@ -10385,7 +10385,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="21" t="s">
         <v>161</v>
       </c>
@@ -10396,7 +10396,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="21" t="s">
         <v>161</v>
       </c>
